--- a/forms/forms/torg12.xlsx
+++ b/forms/forms/torg12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11240" yWindow="2240" windowWidth="39240" windowHeight="25580"/>
+    <workbookView xWindow="6820" yWindow="2620" windowWidth="39240" windowHeight="25580"/>
   </bookViews>
   <sheets>
     <sheet name="torg12" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t xml:space="preserve">Утверждена постановлением Госкомстата </t>
   </si>
@@ -312,18 +312,6 @@
     <t>#total</t>
   </si>
   <si>
-    <t>{{total_product_quantity}}</t>
-  </si>
-  <si>
-    <t>{{total_product_cost_without_tax}}</t>
-  </si>
-  <si>
-    <t>{{total_product_cost_tax}}</t>
-  </si>
-  <si>
-    <t>{{total_product_cost_with_tax}}</t>
-  </si>
-  <si>
     <t>{{document_number}}</t>
   </si>
   <si>
@@ -345,18 +333,6 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>{{total_page_product_quantity}}</t>
-  </si>
-  <si>
-    <t>{{total_page_product_cost_without_tax}}</t>
-  </si>
-  <si>
-    <t>{{total_page_product_cost_tax}}</t>
-  </si>
-  <si>
-    <t>{{total_page_product_cost_with_tax}}</t>
-  </si>
-  <si>
     <t>Номер документа</t>
   </si>
   <si>
@@ -400,6 +376,45 @@
   </si>
   <si>
     <t>{{cost_with_tax}}</t>
+  </si>
+  <si>
+    <t>{{cost_without_tax.total}}</t>
+  </si>
+  <si>
+    <t>{{cost_without_tax.total_page}}</t>
+  </si>
+  <si>
+    <t>{{quantity.total_page}}</t>
+  </si>
+  <si>
+    <t>{{quantity.total}}</t>
+  </si>
+  <si>
+    <t>{{cost_tax.total_page}}</t>
+  </si>
+  <si>
+    <t>{{cost_tax.total}}</t>
+  </si>
+  <si>
+    <t>{{cost_with_tax.total_page}}</t>
+  </si>
+  <si>
+    <t>{{cost_with_tax.total}}</t>
+  </si>
+  <si>
+    <t>{{emitter_position}}</t>
+  </si>
+  <si>
+    <t>{{emitter_name}</t>
+  </si>
+  <si>
+    <t>{{numbers.textvalue}}</t>
+  </si>
+  <si>
+    <t>{{pages.textvalue}}</t>
+  </si>
+  <si>
+    <t>{{cost_with_tax.total.textcost}}</t>
   </si>
 </sst>
 </file>
@@ -2602,8 +2617,8 @@
   </sheetPr>
   <dimension ref="A1:BG59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="181" zoomScaleSheetLayoutView="400" workbookViewId="0">
-      <selection activeCell="AV33" sqref="AV33:AX33"/>
+    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" zoomScale="181" zoomScaleSheetLayoutView="400" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2654,7 +2669,7 @@
   <sheetData>
     <row r="1" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="139" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="BF1" s="38" t="s">
         <v>73</v>
@@ -2708,7 +2723,7 @@
     <row r="7" spans="1:59" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="139"/>
       <c r="B7" s="145" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="145"/>
       <c r="D7" s="145"/>
@@ -3020,7 +3035,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="147" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J12" s="147"/>
       <c r="K12" s="147"/>
@@ -3211,7 +3226,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="147" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="145"/>
@@ -3402,7 +3417,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="147" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J18" s="147"/>
       <c r="K18" s="147"/>
@@ -3595,7 +3610,7 @@
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="146" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J21" s="146"/>
       <c r="K21" s="146"/>
@@ -3802,7 +3817,7 @@
       <c r="U24" s="131"/>
       <c r="V24" s="131"/>
       <c r="W24" s="143" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="X24" s="150"/>
       <c r="Y24" s="150"/>
@@ -3811,7 +3826,7 @@
       <c r="AB24" s="150"/>
       <c r="AC24" s="150"/>
       <c r="AD24" s="143" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AE24" s="150"/>
       <c r="AF24" s="150"/>
@@ -3873,7 +3888,7 @@
       <c r="U25" s="151"/>
       <c r="V25" s="152"/>
       <c r="W25" s="153" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="X25" s="154"/>
       <c r="Y25" s="154"/>
@@ -3946,7 +3961,7 @@
     </row>
     <row r="28" spans="1:59" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="134" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B28" s="175"/>
       <c r="C28" s="175"/>
@@ -4156,7 +4171,7 @@
       <c r="AW30" s="164"/>
       <c r="AX30" s="165"/>
       <c r="AY30" s="169" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AZ30" s="169"/>
       <c r="BA30" s="169"/>
@@ -4321,7 +4336,7 @@
     </row>
     <row r="33" spans="1:59" s="59" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="129" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B33" s="337" t="s">
         <v>76</v>
@@ -4329,7 +4344,7 @@
       <c r="C33" s="338"/>
       <c r="D33" s="339"/>
       <c r="E33" s="340" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F33" s="341"/>
       <c r="G33" s="341"/>
@@ -4345,17 +4360,17 @@
       <c r="Q33" s="341"/>
       <c r="R33" s="342"/>
       <c r="S33" s="343" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="T33" s="338"/>
       <c r="U33" s="344"/>
       <c r="V33" s="343" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="W33" s="338"/>
       <c r="X33" s="344"/>
       <c r="Y33" s="343" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Z33" s="338"/>
       <c r="AA33" s="339"/>
@@ -4371,17 +4386,17 @@
       <c r="AK33" s="354"/>
       <c r="AL33" s="355"/>
       <c r="AM33" s="356" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AN33" s="357"/>
       <c r="AO33" s="358"/>
       <c r="AP33" s="359" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AQ33" s="360"/>
       <c r="AR33" s="361"/>
       <c r="AS33" s="359" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AT33" s="360"/>
       <c r="AU33" s="362"/>
@@ -4391,13 +4406,13 @@
       <c r="AW33" s="376"/>
       <c r="AX33" s="377"/>
       <c r="AY33" s="363" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AZ33" s="360"/>
       <c r="BA33" s="360"/>
       <c r="BB33" s="361"/>
       <c r="BC33" s="359" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="BD33" s="360"/>
       <c r="BE33" s="360"/>
@@ -4501,7 +4516,7 @@
       <c r="AE35" s="346"/>
       <c r="AF35" s="346"/>
       <c r="AG35" s="347" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH35" s="348"/>
       <c r="AI35" s="348"/>
@@ -4509,7 +4524,7 @@
       <c r="AK35" s="348"/>
       <c r="AL35" s="348"/>
       <c r="AM35" s="348" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AN35" s="348"/>
       <c r="AO35" s="348"/>
@@ -4519,7 +4534,7 @@
       <c r="AQ35" s="349"/>
       <c r="AR35" s="349"/>
       <c r="AS35" s="350" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AT35" s="351"/>
       <c r="AU35" s="351"/>
@@ -4529,13 +4544,13 @@
       <c r="AW35" s="136"/>
       <c r="AX35" s="136"/>
       <c r="AY35" s="350" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AZ35" s="350"/>
       <c r="BA35" s="350"/>
       <c r="BB35" s="350"/>
       <c r="BC35" s="350" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="BD35" s="351"/>
       <c r="BE35" s="351"/>
@@ -4544,7 +4559,7 @@
     </row>
     <row r="36" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="139" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -4586,7 +4601,7 @@
       <c r="AK36" s="135"/>
       <c r="AL36" s="135"/>
       <c r="AM36" s="135" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AN36" s="135"/>
       <c r="AO36" s="135"/>
@@ -4596,7 +4611,7 @@
       <c r="AQ36" s="136"/>
       <c r="AR36" s="136"/>
       <c r="AS36" s="137" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="AT36" s="138"/>
       <c r="AU36" s="138"/>
@@ -4606,13 +4621,13 @@
       <c r="AW36" s="136"/>
       <c r="AX36" s="136"/>
       <c r="AY36" s="137" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AZ36" s="137"/>
       <c r="BA36" s="137"/>
       <c r="BB36" s="137"/>
       <c r="BC36" s="137" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="BD36" s="138"/>
       <c r="BE36" s="138"/>
@@ -4642,7 +4657,9 @@
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
-      <c r="R38" s="159"/>
+      <c r="R38" s="159" t="s">
+        <v>126</v>
+      </c>
       <c r="S38" s="159"/>
       <c r="T38" s="159"/>
       <c r="U38" s="159"/>
@@ -4696,7 +4713,9 @@
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="159"/>
+      <c r="G39" s="159" t="s">
+        <v>125</v>
+      </c>
       <c r="H39" s="159"/>
       <c r="I39" s="159"/>
       <c r="J39" s="159"/>
@@ -5279,7 +5298,9 @@
       <c r="H48" s="161"/>
       <c r="I48" s="161"/>
       <c r="J48" s="161"/>
-      <c r="K48" s="162"/>
+      <c r="K48" s="162" t="s">
+        <v>127</v>
+      </c>
       <c r="L48" s="162"/>
       <c r="M48" s="162"/>
       <c r="N48" s="162"/>
@@ -5742,7 +5763,9 @@
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="159"/>
+      <c r="I55" s="159" t="s">
+        <v>123</v>
+      </c>
       <c r="J55" s="159"/>
       <c r="K55" s="159"/>
       <c r="L55" s="159"/>
@@ -5758,7 +5781,9 @@
       <c r="V55" s="159"/>
       <c r="W55" s="159"/>
       <c r="X55" s="40"/>
-      <c r="Y55" s="159"/>
+      <c r="Y55" s="159" t="s">
+        <v>124</v>
+      </c>
       <c r="Z55" s="159"/>
       <c r="AA55" s="159"/>
       <c r="AB55" s="159"/>

--- a/forms/forms/torg12.xlsx
+++ b/forms/forms/torg12.xlsx
@@ -264,48 +264,6 @@
     <t>{{number}}</t>
   </si>
   <si>
-    <t>наиме-\nнование</t>
-  </si>
-  <si>
-    <t>Единица\n измерения</t>
-  </si>
-  <si>
-    <t>Вид\n упаковки</t>
-  </si>
-  <si>
-    <t>в одном\n месте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мест,\n штук </t>
-  </si>
-  <si>
-    <t>Масса\n брутто</t>
-  </si>
-  <si>
-    <t>Количество\n (масса)</t>
-  </si>
-  <si>
-    <t>Код по\n ОКЕИ</t>
-  </si>
-  <si>
-    <t>Номер\n по\n порядку</t>
-  </si>
-  <si>
-    <t>Коли-\nчество\n (масса\n нетто)</t>
-  </si>
-  <si>
-    <t>Цена руб.\n коп</t>
-  </si>
-  <si>
-    <t>Сумма без\n учета НДС,\n руб. коп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма с\n учетом\n НДС,\n руб. коп </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ставка,\n% </t>
-  </si>
-  <si>
     <t>{{tax}}</t>
   </si>
   <si>
@@ -348,9 +306,6 @@
     <t>#row</t>
   </si>
   <si>
-    <t xml:space="preserve">сумма,\nруб. коп </t>
-  </si>
-  <si>
     <t>{{name}}</t>
   </si>
   <si>
@@ -381,24 +336,12 @@
     <t>{{cost_without_tax.total}}</t>
   </si>
   <si>
-    <t>{{cost_without_tax.total_page}}</t>
-  </si>
-  <si>
-    <t>{{quantity.total_page}}</t>
-  </si>
-  <si>
     <t>{{quantity.total}}</t>
   </si>
   <si>
-    <t>{{cost_tax.total_page}}</t>
-  </si>
-  <si>
     <t>{{cost_tax.total}}</t>
   </si>
   <si>
-    <t>{{cost_with_tax.total_page}}</t>
-  </si>
-  <si>
     <t>{{cost_with_tax.total}}</t>
   </si>
   <si>
@@ -411,9 +354,6 @@
     <t>{{numbers.textvalue}}</t>
   </si>
   <si>
-    <t>{{pages.textvalue}}</t>
-  </si>
-  <si>
     <t>{{cost_with_tax.total.textcost}}</t>
   </si>
   <si>
@@ -421,6 +361,66 @@
   </si>
   <si>
     <t>{{emitter_boss_name}</t>
+  </si>
+  <si>
+    <t>Номер\ по\ порядку</t>
+  </si>
+  <si>
+    <t>Единица\ измерения</t>
+  </si>
+  <si>
+    <t>Вид\ упаковки</t>
+  </si>
+  <si>
+    <t>Количество\ (масса)</t>
+  </si>
+  <si>
+    <t>Масса\ брутто</t>
+  </si>
+  <si>
+    <t>Цена руб.\ коп</t>
+  </si>
+  <si>
+    <t>Сумма без\ учета НДС,\ руб. коп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма с\ учетом\ НДС,\ руб. коп </t>
+  </si>
+  <si>
+    <t>Код по\ ОКЕИ</t>
+  </si>
+  <si>
+    <t>в одном\ месте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мест,\ штук </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ставка,\% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сумма,\руб. коп </t>
+  </si>
+  <si>
+    <t>наиме-\ нование</t>
+  </si>
+  <si>
+    <t>Коли-\ чество\ (масса\ нетто)</t>
+  </si>
+  <si>
+    <t>{{company}}</t>
+  </si>
+  <si>
+    <t>{{quantity.totalpage}}</t>
+  </si>
+  <si>
+    <t>{{cost_without_tax.totalpage}}</t>
+  </si>
+  <si>
+    <t>{{cost_tax.totalpage}}</t>
+  </si>
+  <si>
+    <t>{{cost_with_tax.totalpage}}</t>
   </si>
 </sst>
 </file>
@@ -2623,8 +2623,8 @@
   </sheetPr>
   <dimension ref="A1:BG59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="181" zoomScaleSheetLayoutView="400" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AT8"/>
+    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A11" zoomScale="181" zoomScaleSheetLayoutView="400" workbookViewId="0">
+      <selection activeCell="BC35" sqref="BC35:BF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2675,7 +2675,7 @@
   <sheetData>
     <row r="1" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="148" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="BF1" s="38" t="s">
         <v>73</v>
@@ -2728,7 +2728,9 @@
     </row>
     <row r="7" spans="1:59" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="148"/>
-      <c r="B7" s="217"/>
+      <c r="B7" s="217" t="s">
+        <v>125</v>
+      </c>
       <c r="C7" s="217"/>
       <c r="D7" s="217"/>
       <c r="E7" s="217"/>
@@ -3039,7 +3041,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="218" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J12" s="218"/>
       <c r="K12" s="218"/>
@@ -3230,7 +3232,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="218" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J15" s="217"/>
       <c r="K15" s="217"/>
@@ -3421,7 +3423,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="218" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J18" s="218"/>
       <c r="K18" s="218"/>
@@ -3614,7 +3616,7 @@
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="177" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J21" s="177"/>
       <c r="K21" s="177"/>
@@ -3821,7 +3823,7 @@
       <c r="U24" s="131"/>
       <c r="V24" s="131"/>
       <c r="W24" s="215" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="X24" s="220"/>
       <c r="Y24" s="220"/>
@@ -3830,7 +3832,7 @@
       <c r="AB24" s="220"/>
       <c r="AC24" s="220"/>
       <c r="AD24" s="215" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AE24" s="220"/>
       <c r="AF24" s="220"/>
@@ -3892,7 +3894,7 @@
       <c r="U25" s="221"/>
       <c r="V25" s="222"/>
       <c r="W25" s="223" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="X25" s="224"/>
       <c r="Y25" s="224"/>
@@ -3965,7 +3967,7 @@
     </row>
     <row r="28" spans="1:59" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="228" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B28" s="173"/>
       <c r="C28" s="173"/>
@@ -4029,7 +4031,7 @@
     <row r="29" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="228"/>
       <c r="B29" s="164" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C29" s="164"/>
       <c r="D29" s="164"/>
@@ -4053,7 +4055,7 @@
       <c r="T29" s="164"/>
       <c r="U29" s="164"/>
       <c r="V29" s="164" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="W29" s="164"/>
       <c r="X29" s="164"/>
@@ -4061,34 +4063,34 @@
       <c r="Z29" s="164"/>
       <c r="AA29" s="164"/>
       <c r="AB29" s="185" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC29" s="186"/>
       <c r="AD29" s="187"/>
       <c r="AE29" s="194" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AF29" s="195"/>
       <c r="AG29" s="195"/>
       <c r="AH29" s="195"/>
       <c r="AI29" s="196"/>
       <c r="AJ29" s="185" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AK29" s="186"/>
       <c r="AL29" s="187"/>
       <c r="AM29" s="185" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="AN29" s="186"/>
       <c r="AO29" s="187"/>
       <c r="AP29" s="185" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AQ29" s="186"/>
       <c r="AR29" s="187"/>
       <c r="AS29" s="185" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="AT29" s="186"/>
       <c r="AU29" s="187"/>
@@ -4102,7 +4104,7 @@
       <c r="BA29" s="164"/>
       <c r="BB29" s="164"/>
       <c r="BC29" s="164" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="BD29" s="164"/>
       <c r="BE29" s="164"/>
@@ -4136,12 +4138,12 @@
       <c r="T30" s="164"/>
       <c r="U30" s="164"/>
       <c r="V30" s="164" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="W30" s="164"/>
       <c r="X30" s="164"/>
       <c r="Y30" s="164" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Z30" s="164"/>
       <c r="AA30" s="164"/>
@@ -4149,12 +4151,12 @@
       <c r="AC30" s="189"/>
       <c r="AD30" s="190"/>
       <c r="AE30" s="185" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF30" s="186"/>
       <c r="AG30" s="187"/>
       <c r="AH30" s="185" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AI30" s="187"/>
       <c r="AJ30" s="188"/>
@@ -4170,12 +4172,12 @@
       <c r="AT30" s="189"/>
       <c r="AU30" s="190"/>
       <c r="AV30" s="185" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="AW30" s="186"/>
       <c r="AX30" s="187"/>
       <c r="AY30" s="164" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AZ30" s="164"/>
       <c r="BA30" s="164"/>
@@ -4340,7 +4342,7 @@
     </row>
     <row r="33" spans="1:59" s="59" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="129" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B33" s="165" t="s">
         <v>76</v>
@@ -4348,7 +4350,7 @@
       <c r="C33" s="166"/>
       <c r="D33" s="167"/>
       <c r="E33" s="168" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F33" s="169"/>
       <c r="G33" s="169"/>
@@ -4364,17 +4366,17 @@
       <c r="Q33" s="169"/>
       <c r="R33" s="170"/>
       <c r="S33" s="171" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="T33" s="166"/>
       <c r="U33" s="172"/>
       <c r="V33" s="171" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="W33" s="166"/>
       <c r="X33" s="172"/>
       <c r="Y33" s="171" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Z33" s="166"/>
       <c r="AA33" s="167"/>
@@ -4390,33 +4392,33 @@
       <c r="AK33" s="154"/>
       <c r="AL33" s="153"/>
       <c r="AM33" s="156" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN33" s="157"/>
       <c r="AO33" s="158"/>
       <c r="AP33" s="149" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AQ33" s="150"/>
       <c r="AR33" s="155"/>
       <c r="AS33" s="149" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AT33" s="150"/>
       <c r="AU33" s="151"/>
       <c r="AV33" s="204" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="AW33" s="205"/>
       <c r="AX33" s="206"/>
       <c r="AY33" s="207" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AZ33" s="150"/>
       <c r="BA33" s="150"/>
       <c r="BB33" s="155"/>
       <c r="BC33" s="149" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="BD33" s="150"/>
       <c r="BE33" s="150"/>
@@ -4425,7 +4427,7 @@
     </row>
     <row r="34" spans="1:59" s="59" customFormat="1" ht="14" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="148" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
@@ -4520,7 +4522,7 @@
       <c r="AE35" s="134"/>
       <c r="AF35" s="134"/>
       <c r="AG35" s="135" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AH35" s="229"/>
       <c r="AI35" s="229"/>
@@ -4528,7 +4530,7 @@
       <c r="AK35" s="229"/>
       <c r="AL35" s="229"/>
       <c r="AM35" s="229" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AN35" s="229"/>
       <c r="AO35" s="229"/>
@@ -4538,7 +4540,7 @@
       <c r="AQ35" s="230"/>
       <c r="AR35" s="230"/>
       <c r="AS35" s="231" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AT35" s="232"/>
       <c r="AU35" s="232"/>
@@ -4548,13 +4550,13 @@
       <c r="AW35" s="210"/>
       <c r="AX35" s="210"/>
       <c r="AY35" s="231" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AZ35" s="231"/>
       <c r="BA35" s="231"/>
       <c r="BB35" s="231"/>
       <c r="BC35" s="231" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BD35" s="232"/>
       <c r="BE35" s="232"/>
@@ -4563,7 +4565,7 @@
     </row>
     <row r="36" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="148" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -4605,7 +4607,7 @@
       <c r="AK36" s="199"/>
       <c r="AL36" s="199"/>
       <c r="AM36" s="199" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AN36" s="199"/>
       <c r="AO36" s="199"/>
@@ -4615,7 +4617,7 @@
       <c r="AQ36" s="210"/>
       <c r="AR36" s="210"/>
       <c r="AS36" s="208" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AT36" s="209"/>
       <c r="AU36" s="209"/>
@@ -4625,13 +4627,13 @@
       <c r="AW36" s="210"/>
       <c r="AX36" s="210"/>
       <c r="AY36" s="208" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AZ36" s="208"/>
       <c r="BA36" s="208"/>
       <c r="BB36" s="208"/>
       <c r="BC36" s="208" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="BD36" s="209"/>
       <c r="BE36" s="209"/>
@@ -4661,9 +4663,7 @@
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
-      <c r="R38" s="197" t="s">
-        <v>126</v>
-      </c>
+      <c r="R38" s="197"/>
       <c r="S38" s="197"/>
       <c r="T38" s="197"/>
       <c r="U38" s="197"/>
@@ -4718,7 +4718,7 @@
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="197" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H39" s="197"/>
       <c r="I39" s="197"/>
@@ -5303,7 +5303,7 @@
       <c r="I48" s="212"/>
       <c r="J48" s="212"/>
       <c r="K48" s="213" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="L48" s="213"/>
       <c r="M48" s="213"/>
@@ -5491,7 +5491,7 @@
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
       <c r="H51" s="214" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="I51" s="214"/>
       <c r="J51" s="214"/>
@@ -5510,7 +5510,7 @@
       <c r="W51" s="197"/>
       <c r="X51" s="40"/>
       <c r="Y51" s="197" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="Z51" s="197"/>
       <c r="AA51" s="197"/>
@@ -5772,7 +5772,7 @@
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="197" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="J55" s="197"/>
       <c r="K55" s="197"/>
@@ -5790,7 +5790,7 @@
       <c r="W55" s="197"/>
       <c r="X55" s="40"/>
       <c r="Y55" s="197" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="Z55" s="197"/>
       <c r="AA55" s="197"/>

--- a/forms/forms/torg12.xlsx
+++ b/forms/forms/torg12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="1880" windowWidth="39240" windowHeight="25580"/>
+    <workbookView xWindow="9320" yWindow="2820" windowWidth="39240" windowHeight="25580"/>
   </bookViews>
   <sheets>
     <sheet name="torg12" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t>{{emitter_position}}</t>
   </si>
   <si>
-    <t>{{emitter_name}</t>
-  </si>
-  <si>
     <t>{{numbers.textvalue}}</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>{{emitter_boss_position}}</t>
   </si>
   <si>
-    <t>{{emitter_boss_name}</t>
-  </si>
-  <si>
     <t>Номер\ по\ порядку</t>
   </si>
   <si>
@@ -421,6 +415,12 @@
   </si>
   <si>
     <t>{{cost_with_tax.totalpage}}</t>
+  </si>
+  <si>
+    <t>{{emitter_boss_name}}</t>
+  </si>
+  <si>
+    <t>{{emitter_name}}</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1239,7 +1238,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1405,39 +1404,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1622,6 +1588,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1670,6 +1654,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1697,6 +1699,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1769,6 +1780,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1778,41 +1804,23 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1861,12 +1869,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2623,8 +2625,8 @@
   </sheetPr>
   <dimension ref="A1:BG59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A11" zoomScale="181" zoomScaleSheetLayoutView="400" workbookViewId="0">
-      <selection activeCell="BC35" sqref="BC35:BF35"/>
+    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" zoomScale="181" zoomScaleSheetLayoutView="400" workbookViewId="0">
+      <selection activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2674,7 +2676,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="143" t="s">
         <v>88</v>
       </c>
       <c r="BF1" s="38" t="s">
@@ -2683,329 +2685,329 @@
       <c r="BG1" s="38"/>
     </row>
     <row r="2" spans="1:59" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="148"/>
+      <c r="A2" s="143"/>
       <c r="BF2" s="38"/>
       <c r="BG2" s="38"/>
     </row>
     <row r="3" spans="1:59" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="148"/>
+      <c r="A3" s="143"/>
       <c r="BF3" s="38"/>
       <c r="BG3" s="38"/>
     </row>
     <row r="4" spans="1:59" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="148"/>
+      <c r="A4" s="143"/>
     </row>
     <row r="5" spans="1:59" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="148"/>
-      <c r="AY5" s="215" t="s">
+      <c r="A5" s="143"/>
+      <c r="AY5" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5" s="215"/>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="215"/>
-      <c r="BG5" s="125"/>
+      <c r="AZ5" s="218"/>
+      <c r="BA5" s="218"/>
+      <c r="BB5" s="218"/>
+      <c r="BC5" s="218"/>
+      <c r="BD5" s="218"/>
+      <c r="BE5" s="218"/>
+      <c r="BF5" s="218"/>
+      <c r="BG5" s="114"/>
     </row>
     <row r="6" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="148"/>
+      <c r="A6" s="143"/>
       <c r="AX6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AY6" s="233" t="s">
+      <c r="AY6" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="AZ6" s="234"/>
-      <c r="BA6" s="234"/>
-      <c r="BB6" s="234"/>
-      <c r="BC6" s="234"/>
-      <c r="BD6" s="234"/>
-      <c r="BE6" s="234"/>
-      <c r="BF6" s="235"/>
-      <c r="BG6" s="121"/>
+      <c r="AZ6" s="235"/>
+      <c r="BA6" s="235"/>
+      <c r="BB6" s="235"/>
+      <c r="BC6" s="235"/>
+      <c r="BD6" s="235"/>
+      <c r="BE6" s="235"/>
+      <c r="BF6" s="236"/>
+      <c r="BG6" s="110"/>
     </row>
     <row r="7" spans="1:59" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="148"/>
-      <c r="B7" s="217" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="217"/>
-      <c r="R7" s="217"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="217"/>
-      <c r="U7" s="217"/>
-      <c r="V7" s="217"/>
-      <c r="W7" s="217"/>
-      <c r="X7" s="217"/>
-      <c r="Y7" s="217"/>
-      <c r="Z7" s="217"/>
-      <c r="AA7" s="217"/>
-      <c r="AB7" s="217"/>
-      <c r="AC7" s="217"/>
-      <c r="AD7" s="217"/>
-      <c r="AE7" s="217"/>
-      <c r="AF7" s="217"/>
-      <c r="AG7" s="217"/>
-      <c r="AH7" s="217"/>
-      <c r="AI7" s="217"/>
-      <c r="AJ7" s="217"/>
-      <c r="AK7" s="217"/>
-      <c r="AL7" s="217"/>
-      <c r="AM7" s="217"/>
-      <c r="AN7" s="217"/>
-      <c r="AO7" s="217"/>
-      <c r="AP7" s="217"/>
-      <c r="AQ7" s="217"/>
-      <c r="AR7" s="217"/>
-      <c r="AS7" s="217"/>
-      <c r="AT7" s="217"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="220" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="220"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="220"/>
+      <c r="R7" s="220"/>
+      <c r="S7" s="220"/>
+      <c r="T7" s="220"/>
+      <c r="U7" s="220"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="220"/>
+      <c r="X7" s="220"/>
+      <c r="Y7" s="220"/>
+      <c r="Z7" s="220"/>
+      <c r="AA7" s="220"/>
+      <c r="AB7" s="220"/>
+      <c r="AC7" s="220"/>
+      <c r="AD7" s="220"/>
+      <c r="AE7" s="220"/>
+      <c r="AF7" s="220"/>
+      <c r="AG7" s="220"/>
+      <c r="AH7" s="220"/>
+      <c r="AI7" s="220"/>
+      <c r="AJ7" s="220"/>
+      <c r="AK7" s="220"/>
+      <c r="AL7" s="220"/>
+      <c r="AM7" s="220"/>
+      <c r="AN7" s="220"/>
+      <c r="AO7" s="220"/>
+      <c r="AP7" s="220"/>
+      <c r="AQ7" s="220"/>
+      <c r="AR7" s="220"/>
+      <c r="AS7" s="220"/>
+      <c r="AT7" s="220"/>
       <c r="AX7" s="39"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="86"/>
-      <c r="BA7" s="86"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="86"/>
-      <c r="BD7" s="86"/>
-      <c r="BE7" s="86"/>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="122"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="111"/>
     </row>
     <row r="8" spans="1:59" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="148"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="177"/>
-      <c r="AG8" s="177"/>
-      <c r="AH8" s="177"/>
-      <c r="AI8" s="177"/>
-      <c r="AJ8" s="177"/>
-      <c r="AK8" s="177"/>
-      <c r="AL8" s="177"/>
-      <c r="AM8" s="177"/>
-      <c r="AN8" s="177"/>
-      <c r="AO8" s="177"/>
-      <c r="AP8" s="177"/>
-      <c r="AQ8" s="177"/>
-      <c r="AR8" s="177"/>
-      <c r="AS8" s="177"/>
-      <c r="AT8" s="177"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
+      <c r="AJ8" s="181"/>
+      <c r="AK8" s="181"/>
+      <c r="AL8" s="181"/>
+      <c r="AM8" s="181"/>
+      <c r="AN8" s="181"/>
+      <c r="AO8" s="181"/>
+      <c r="AP8" s="181"/>
+      <c r="AQ8" s="181"/>
+      <c r="AR8" s="181"/>
+      <c r="AS8" s="181"/>
+      <c r="AT8" s="181"/>
       <c r="AX8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AY8" s="118"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="119"/>
-      <c r="BB8" s="119"/>
-      <c r="BC8" s="119"/>
-      <c r="BD8" s="119"/>
-      <c r="BE8" s="119"/>
-      <c r="BF8" s="120"/>
-      <c r="BG8" s="122"/>
+      <c r="AY8" s="107"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="108"/>
+      <c r="BB8" s="108"/>
+      <c r="BC8" s="108"/>
+      <c r="BD8" s="108"/>
+      <c r="BE8" s="108"/>
+      <c r="BF8" s="109"/>
+      <c r="BG8" s="111"/>
     </row>
     <row r="9" spans="1:59" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="148"/>
-      <c r="B9" s="200" t="s">
+      <c r="A9" s="143"/>
+      <c r="B9" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="200"/>
-      <c r="AF9" s="200"/>
-      <c r="AG9" s="200"/>
-      <c r="AH9" s="200"/>
-      <c r="AI9" s="200"/>
-      <c r="AJ9" s="200"/>
-      <c r="AK9" s="200"/>
-      <c r="AL9" s="200"/>
-      <c r="AM9" s="200"/>
-      <c r="AN9" s="200"/>
-      <c r="AO9" s="200"/>
-      <c r="AP9" s="200"/>
-      <c r="AQ9" s="200"/>
-      <c r="AR9" s="200"/>
-      <c r="AS9" s="200"/>
-      <c r="AT9" s="200"/>
-      <c r="AY9" s="88"/>
-      <c r="AZ9" s="106"/>
-      <c r="BA9" s="106"/>
-      <c r="BB9" s="106"/>
-      <c r="BC9" s="106"/>
-      <c r="BD9" s="106"/>
-      <c r="BE9" s="106"/>
-      <c r="BF9" s="107"/>
-      <c r="BG9" s="116"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="205"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="205"/>
+      <c r="Z9" s="205"/>
+      <c r="AA9" s="205"/>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="205"/>
+      <c r="AG9" s="205"/>
+      <c r="AH9" s="205"/>
+      <c r="AI9" s="205"/>
+      <c r="AJ9" s="205"/>
+      <c r="AK9" s="205"/>
+      <c r="AL9" s="205"/>
+      <c r="AM9" s="205"/>
+      <c r="AN9" s="205"/>
+      <c r="AO9" s="205"/>
+      <c r="AP9" s="205"/>
+      <c r="AQ9" s="205"/>
+      <c r="AR9" s="205"/>
+      <c r="AS9" s="205"/>
+      <c r="AT9" s="205"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="95"/>
+      <c r="BA9" s="95"/>
+      <c r="BB9" s="95"/>
+      <c r="BC9" s="95"/>
+      <c r="BD9" s="95"/>
+      <c r="BE9" s="95"/>
+      <c r="BF9" s="96"/>
+      <c r="BG9" s="105"/>
     </row>
     <row r="10" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="148"/>
-      <c r="B10" s="219"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="219"/>
-      <c r="Q10" s="219"/>
-      <c r="R10" s="219"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="219"/>
-      <c r="U10" s="219"/>
-      <c r="V10" s="219"/>
-      <c r="W10" s="219"/>
-      <c r="X10" s="219"/>
-      <c r="Y10" s="219"/>
-      <c r="Z10" s="219"/>
-      <c r="AA10" s="219"/>
-      <c r="AB10" s="219"/>
-      <c r="AC10" s="219"/>
-      <c r="AD10" s="219"/>
-      <c r="AE10" s="219"/>
-      <c r="AF10" s="219"/>
-      <c r="AG10" s="219"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="219"/>
-      <c r="AJ10" s="219"/>
-      <c r="AK10" s="219"/>
-      <c r="AL10" s="219"/>
-      <c r="AM10" s="219"/>
-      <c r="AN10" s="219"/>
-      <c r="AO10" s="219"/>
-      <c r="AP10" s="219"/>
-      <c r="AQ10" s="219"/>
-      <c r="AR10" s="219"/>
-      <c r="AS10" s="219"/>
-      <c r="AT10" s="219"/>
-      <c r="AU10" s="219"/>
-      <c r="AV10" s="219"/>
-      <c r="AW10" s="219"/>
-      <c r="AX10" s="219"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="108"/>
-      <c r="BA10" s="108"/>
-      <c r="BB10" s="108"/>
-      <c r="BC10" s="108"/>
-      <c r="BD10" s="108"/>
-      <c r="BE10" s="108"/>
-      <c r="BF10" s="109"/>
-      <c r="BG10" s="116"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="222"/>
+      <c r="N10" s="222"/>
+      <c r="O10" s="222"/>
+      <c r="P10" s="222"/>
+      <c r="Q10" s="222"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="222"/>
+      <c r="AF10" s="222"/>
+      <c r="AG10" s="222"/>
+      <c r="AH10" s="222"/>
+      <c r="AI10" s="222"/>
+      <c r="AJ10" s="222"/>
+      <c r="AK10" s="222"/>
+      <c r="AL10" s="222"/>
+      <c r="AM10" s="222"/>
+      <c r="AN10" s="222"/>
+      <c r="AO10" s="222"/>
+      <c r="AP10" s="222"/>
+      <c r="AQ10" s="222"/>
+      <c r="AR10" s="222"/>
+      <c r="AS10" s="222"/>
+      <c r="AT10" s="222"/>
+      <c r="AU10" s="222"/>
+      <c r="AV10" s="222"/>
+      <c r="AW10" s="222"/>
+      <c r="AX10" s="222"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="97"/>
+      <c r="BB10" s="97"/>
+      <c r="BC10" s="97"/>
+      <c r="BD10" s="97"/>
+      <c r="BE10" s="97"/>
+      <c r="BF10" s="98"/>
+      <c r="BG10" s="105"/>
     </row>
     <row r="11" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="148"/>
-      <c r="B11" s="200" t="s">
+      <c r="A11" s="143"/>
+      <c r="B11" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="200"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="200"/>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="200"/>
-      <c r="AE11" s="200"/>
-      <c r="AF11" s="200"/>
-      <c r="AG11" s="200"/>
-      <c r="AH11" s="200"/>
-      <c r="AI11" s="200"/>
-      <c r="AJ11" s="200"/>
-      <c r="AK11" s="200"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
+      <c r="P11" s="205"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="205"/>
+      <c r="X11" s="205"/>
+      <c r="Y11" s="205"/>
+      <c r="Z11" s="205"/>
+      <c r="AA11" s="205"/>
+      <c r="AB11" s="205"/>
+      <c r="AC11" s="205"/>
+      <c r="AD11" s="205"/>
+      <c r="AE11" s="205"/>
+      <c r="AF11" s="205"/>
+      <c r="AG11" s="205"/>
+      <c r="AH11" s="205"/>
+      <c r="AI11" s="205"/>
+      <c r="AJ11" s="205"/>
+      <c r="AK11" s="205"/>
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
@@ -3021,18 +3023,18 @@
       <c r="AX11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="108"/>
-      <c r="BA11" s="108"/>
-      <c r="BB11" s="108"/>
-      <c r="BC11" s="108"/>
-      <c r="BD11" s="108"/>
-      <c r="BE11" s="108"/>
-      <c r="BF11" s="109"/>
-      <c r="BG11" s="116"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
+      <c r="BC11" s="97"/>
+      <c r="BD11" s="97"/>
+      <c r="BE11" s="97"/>
+      <c r="BF11" s="98"/>
+      <c r="BG11" s="105"/>
     </row>
     <row r="12" spans="1:59" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="148"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -3040,62 +3042,62 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="218" t="s">
+      <c r="I12" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="218"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="218"/>
-      <c r="X12" s="218"/>
-      <c r="Y12" s="218"/>
-      <c r="Z12" s="218"/>
-      <c r="AA12" s="218"/>
-      <c r="AB12" s="218"/>
-      <c r="AC12" s="218"/>
-      <c r="AD12" s="218"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="218"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="218"/>
-      <c r="AJ12" s="218"/>
-      <c r="AK12" s="218"/>
-      <c r="AL12" s="218"/>
-      <c r="AM12" s="218"/>
-      <c r="AN12" s="218"/>
-      <c r="AO12" s="218"/>
-      <c r="AP12" s="218"/>
-      <c r="AQ12" s="218"/>
-      <c r="AR12" s="218"/>
-      <c r="AS12" s="218"/>
-      <c r="AT12" s="218"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="221"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="221"/>
+      <c r="P12" s="221"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="221"/>
+      <c r="AF12" s="221"/>
+      <c r="AG12" s="221"/>
+      <c r="AH12" s="221"/>
+      <c r="AI12" s="221"/>
+      <c r="AJ12" s="221"/>
+      <c r="AK12" s="221"/>
+      <c r="AL12" s="221"/>
+      <c r="AM12" s="221"/>
+      <c r="AN12" s="221"/>
+      <c r="AO12" s="221"/>
+      <c r="AP12" s="221"/>
+      <c r="AQ12" s="221"/>
+      <c r="AR12" s="221"/>
+      <c r="AS12" s="221"/>
+      <c r="AT12" s="221"/>
       <c r="AU12" s="44"/>
       <c r="AV12" s="44"/>
       <c r="AW12" s="44"/>
       <c r="AX12" s="45"/>
-      <c r="AY12" s="110"/>
-      <c r="AZ12" s="111"/>
-      <c r="BA12" s="111"/>
-      <c r="BB12" s="111"/>
-      <c r="BC12" s="111"/>
-      <c r="BD12" s="111"/>
-      <c r="BE12" s="111"/>
-      <c r="BF12" s="112"/>
-      <c r="BG12" s="116"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="100"/>
+      <c r="BA12" s="100"/>
+      <c r="BB12" s="100"/>
+      <c r="BC12" s="100"/>
+      <c r="BD12" s="100"/>
+      <c r="BE12" s="100"/>
+      <c r="BF12" s="101"/>
+      <c r="BG12" s="105"/>
     </row>
     <row r="13" spans="1:59" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="148"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="46" t="s">
         <v>23</v>
       </c>
@@ -3105,62 +3107,62 @@
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="177"/>
-      <c r="X13" s="177"/>
-      <c r="Y13" s="177"/>
-      <c r="Z13" s="177"/>
-      <c r="AA13" s="177"/>
-      <c r="AB13" s="177"/>
-      <c r="AC13" s="177"/>
-      <c r="AD13" s="177"/>
-      <c r="AE13" s="177"/>
-      <c r="AF13" s="177"/>
-      <c r="AG13" s="177"/>
-      <c r="AH13" s="177"/>
-      <c r="AI13" s="177"/>
-      <c r="AJ13" s="177"/>
-      <c r="AK13" s="177"/>
-      <c r="AL13" s="177"/>
-      <c r="AM13" s="177"/>
-      <c r="AN13" s="177"/>
-      <c r="AO13" s="177"/>
-      <c r="AP13" s="177"/>
-      <c r="AQ13" s="177"/>
-      <c r="AR13" s="177"/>
-      <c r="AS13" s="177"/>
-      <c r="AT13" s="177"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="181"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="181"/>
+      <c r="V13" s="181"/>
+      <c r="W13" s="181"/>
+      <c r="X13" s="181"/>
+      <c r="Y13" s="181"/>
+      <c r="Z13" s="181"/>
+      <c r="AA13" s="181"/>
+      <c r="AB13" s="181"/>
+      <c r="AC13" s="181"/>
+      <c r="AD13" s="181"/>
+      <c r="AE13" s="181"/>
+      <c r="AF13" s="181"/>
+      <c r="AG13" s="181"/>
+      <c r="AH13" s="181"/>
+      <c r="AI13" s="181"/>
+      <c r="AJ13" s="181"/>
+      <c r="AK13" s="181"/>
+      <c r="AL13" s="181"/>
+      <c r="AM13" s="181"/>
+      <c r="AN13" s="181"/>
+      <c r="AO13" s="181"/>
+      <c r="AP13" s="181"/>
+      <c r="AQ13" s="181"/>
+      <c r="AR13" s="181"/>
+      <c r="AS13" s="181"/>
+      <c r="AT13" s="181"/>
       <c r="AU13" s="47"/>
       <c r="AV13" s="47"/>
       <c r="AW13" s="47"/>
       <c r="AX13" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="123"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="80"/>
+      <c r="BA13" s="80"/>
+      <c r="BB13" s="80"/>
+      <c r="BC13" s="80"/>
+      <c r="BD13" s="80"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="81"/>
+      <c r="BG13" s="112"/>
     </row>
     <row r="14" spans="1:59" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="148"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="47"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -3168,62 +3170,62 @@
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
-      <c r="I14" s="216" t="s">
+      <c r="I14" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="216"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="216"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="216"/>
-      <c r="S14" s="216"/>
-      <c r="T14" s="216"/>
-      <c r="U14" s="216"/>
-      <c r="V14" s="216"/>
-      <c r="W14" s="216"/>
-      <c r="X14" s="216"/>
-      <c r="Y14" s="216"/>
-      <c r="Z14" s="216"/>
-      <c r="AA14" s="216"/>
-      <c r="AB14" s="216"/>
-      <c r="AC14" s="216"/>
-      <c r="AD14" s="216"/>
-      <c r="AE14" s="216"/>
-      <c r="AF14" s="216"/>
-      <c r="AG14" s="216"/>
-      <c r="AH14" s="216"/>
-      <c r="AI14" s="216"/>
-      <c r="AJ14" s="216"/>
-      <c r="AK14" s="216"/>
-      <c r="AL14" s="216"/>
-      <c r="AM14" s="216"/>
-      <c r="AN14" s="216"/>
-      <c r="AO14" s="216"/>
-      <c r="AP14" s="216"/>
-      <c r="AQ14" s="216"/>
-      <c r="AR14" s="216"/>
-      <c r="AS14" s="216"/>
-      <c r="AT14" s="216"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
+      <c r="U14" s="219"/>
+      <c r="V14" s="219"/>
+      <c r="W14" s="219"/>
+      <c r="X14" s="219"/>
+      <c r="Y14" s="219"/>
+      <c r="Z14" s="219"/>
+      <c r="AA14" s="219"/>
+      <c r="AB14" s="219"/>
+      <c r="AC14" s="219"/>
+      <c r="AD14" s="219"/>
+      <c r="AE14" s="219"/>
+      <c r="AF14" s="219"/>
+      <c r="AG14" s="219"/>
+      <c r="AH14" s="219"/>
+      <c r="AI14" s="219"/>
+      <c r="AJ14" s="219"/>
+      <c r="AK14" s="219"/>
+      <c r="AL14" s="219"/>
+      <c r="AM14" s="219"/>
+      <c r="AN14" s="219"/>
+      <c r="AO14" s="219"/>
+      <c r="AP14" s="219"/>
+      <c r="AQ14" s="219"/>
+      <c r="AR14" s="219"/>
+      <c r="AS14" s="219"/>
+      <c r="AT14" s="219"/>
       <c r="AU14" s="44"/>
       <c r="AV14" s="44"/>
       <c r="AW14" s="44"/>
       <c r="AX14" s="40"/>
-      <c r="AY14" s="113"/>
-      <c r="AZ14" s="114"/>
-      <c r="BA14" s="114"/>
-      <c r="BB14" s="114"/>
-      <c r="BC14" s="114"/>
-      <c r="BD14" s="114"/>
-      <c r="BE14" s="114"/>
-      <c r="BF14" s="115"/>
-      <c r="BG14" s="123"/>
+      <c r="AY14" s="102"/>
+      <c r="AZ14" s="103"/>
+      <c r="BA14" s="103"/>
+      <c r="BB14" s="103"/>
+      <c r="BC14" s="103"/>
+      <c r="BD14" s="103"/>
+      <c r="BE14" s="103"/>
+      <c r="BF14" s="104"/>
+      <c r="BG14" s="112"/>
     </row>
     <row r="15" spans="1:59" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="148"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="47"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -3231,62 +3233,62 @@
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="218" t="s">
+      <c r="I15" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="217"/>
-      <c r="K15" s="217"/>
-      <c r="L15" s="217"/>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
-      <c r="T15" s="217"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="217"/>
-      <c r="W15" s="217"/>
-      <c r="X15" s="217"/>
-      <c r="Y15" s="217"/>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="217"/>
-      <c r="AB15" s="217"/>
-      <c r="AC15" s="217"/>
-      <c r="AD15" s="217"/>
-      <c r="AE15" s="217"/>
-      <c r="AF15" s="217"/>
-      <c r="AG15" s="217"/>
-      <c r="AH15" s="217"/>
-      <c r="AI15" s="217"/>
-      <c r="AJ15" s="217"/>
-      <c r="AK15" s="217"/>
-      <c r="AL15" s="217"/>
-      <c r="AM15" s="217"/>
-      <c r="AN15" s="217"/>
-      <c r="AO15" s="217"/>
-      <c r="AP15" s="217"/>
-      <c r="AQ15" s="217"/>
-      <c r="AR15" s="217"/>
-      <c r="AS15" s="217"/>
-      <c r="AT15" s="217"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="220"/>
+      <c r="S15" s="220"/>
+      <c r="T15" s="220"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="220"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="220"/>
+      <c r="Y15" s="220"/>
+      <c r="Z15" s="220"/>
+      <c r="AA15" s="220"/>
+      <c r="AB15" s="220"/>
+      <c r="AC15" s="220"/>
+      <c r="AD15" s="220"/>
+      <c r="AE15" s="220"/>
+      <c r="AF15" s="220"/>
+      <c r="AG15" s="220"/>
+      <c r="AH15" s="220"/>
+      <c r="AI15" s="220"/>
+      <c r="AJ15" s="220"/>
+      <c r="AK15" s="220"/>
+      <c r="AL15" s="220"/>
+      <c r="AM15" s="220"/>
+      <c r="AN15" s="220"/>
+      <c r="AO15" s="220"/>
+      <c r="AP15" s="220"/>
+      <c r="AQ15" s="220"/>
+      <c r="AR15" s="220"/>
+      <c r="AS15" s="220"/>
+      <c r="AT15" s="220"/>
       <c r="AU15" s="44"/>
       <c r="AV15" s="44"/>
       <c r="AW15" s="44"/>
       <c r="AX15" s="40"/>
-      <c r="AY15" s="93"/>
-      <c r="AZ15" s="94"/>
-      <c r="BA15" s="94"/>
-      <c r="BB15" s="94"/>
-      <c r="BC15" s="94"/>
-      <c r="BD15" s="94"/>
-      <c r="BE15" s="94"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="123"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="83"/>
+      <c r="BB15" s="83"/>
+      <c r="BC15" s="83"/>
+      <c r="BD15" s="83"/>
+      <c r="BE15" s="83"/>
+      <c r="BF15" s="84"/>
+      <c r="BG15" s="112"/>
     </row>
     <row r="16" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="148"/>
+      <c r="A16" s="143"/>
       <c r="B16" s="48" t="s">
         <v>25</v>
       </c>
@@ -3296,62 +3298,62 @@
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="177"/>
-      <c r="Z16" s="177"/>
-      <c r="AA16" s="177"/>
-      <c r="AB16" s="177"/>
-      <c r="AC16" s="177"/>
-      <c r="AD16" s="177"/>
-      <c r="AE16" s="177"/>
-      <c r="AF16" s="177"/>
-      <c r="AG16" s="177"/>
-      <c r="AH16" s="177"/>
-      <c r="AI16" s="177"/>
-      <c r="AJ16" s="177"/>
-      <c r="AK16" s="177"/>
-      <c r="AL16" s="177"/>
-      <c r="AM16" s="177"/>
-      <c r="AN16" s="177"/>
-      <c r="AO16" s="177"/>
-      <c r="AP16" s="177"/>
-      <c r="AQ16" s="177"/>
-      <c r="AR16" s="177"/>
-      <c r="AS16" s="177"/>
-      <c r="AT16" s="177"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="181"/>
+      <c r="S16" s="181"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="181"/>
+      <c r="V16" s="181"/>
+      <c r="W16" s="181"/>
+      <c r="X16" s="181"/>
+      <c r="Y16" s="181"/>
+      <c r="Z16" s="181"/>
+      <c r="AA16" s="181"/>
+      <c r="AB16" s="181"/>
+      <c r="AC16" s="181"/>
+      <c r="AD16" s="181"/>
+      <c r="AE16" s="181"/>
+      <c r="AF16" s="181"/>
+      <c r="AG16" s="181"/>
+      <c r="AH16" s="181"/>
+      <c r="AI16" s="181"/>
+      <c r="AJ16" s="181"/>
+      <c r="AK16" s="181"/>
+      <c r="AL16" s="181"/>
+      <c r="AM16" s="181"/>
+      <c r="AN16" s="181"/>
+      <c r="AO16" s="181"/>
+      <c r="AP16" s="181"/>
+      <c r="AQ16" s="181"/>
+      <c r="AR16" s="181"/>
+      <c r="AS16" s="181"/>
+      <c r="AT16" s="181"/>
       <c r="AU16" s="44"/>
       <c r="AV16" s="44"/>
       <c r="AW16" s="44"/>
       <c r="AX16" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="91"/>
-      <c r="BD16" s="91"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="92"/>
-      <c r="BG16" s="123"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="80"/>
+      <c r="BA16" s="80"/>
+      <c r="BB16" s="80"/>
+      <c r="BC16" s="80"/>
+      <c r="BD16" s="80"/>
+      <c r="BE16" s="80"/>
+      <c r="BF16" s="81"/>
+      <c r="BG16" s="112"/>
     </row>
     <row r="17" spans="1:59" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="148"/>
+      <c r="A17" s="143"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
       <c r="D17" s="44"/>
@@ -3359,62 +3361,62 @@
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="216" t="s">
+      <c r="I17" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="216"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="216"/>
-      <c r="S17" s="216"/>
-      <c r="T17" s="216"/>
-      <c r="U17" s="216"/>
-      <c r="V17" s="216"/>
-      <c r="W17" s="216"/>
-      <c r="X17" s="216"/>
-      <c r="Y17" s="216"/>
-      <c r="Z17" s="216"/>
-      <c r="AA17" s="216"/>
-      <c r="AB17" s="216"/>
-      <c r="AC17" s="216"/>
-      <c r="AD17" s="216"/>
-      <c r="AE17" s="216"/>
-      <c r="AF17" s="216"/>
-      <c r="AG17" s="216"/>
-      <c r="AH17" s="216"/>
-      <c r="AI17" s="216"/>
-      <c r="AJ17" s="216"/>
-      <c r="AK17" s="216"/>
-      <c r="AL17" s="216"/>
-      <c r="AM17" s="216"/>
-      <c r="AN17" s="216"/>
-      <c r="AO17" s="216"/>
-      <c r="AP17" s="216"/>
-      <c r="AQ17" s="216"/>
-      <c r="AR17" s="216"/>
-      <c r="AS17" s="216"/>
-      <c r="AT17" s="216"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="219"/>
+      <c r="S17" s="219"/>
+      <c r="T17" s="219"/>
+      <c r="U17" s="219"/>
+      <c r="V17" s="219"/>
+      <c r="W17" s="219"/>
+      <c r="X17" s="219"/>
+      <c r="Y17" s="219"/>
+      <c r="Z17" s="219"/>
+      <c r="AA17" s="219"/>
+      <c r="AB17" s="219"/>
+      <c r="AC17" s="219"/>
+      <c r="AD17" s="219"/>
+      <c r="AE17" s="219"/>
+      <c r="AF17" s="219"/>
+      <c r="AG17" s="219"/>
+      <c r="AH17" s="219"/>
+      <c r="AI17" s="219"/>
+      <c r="AJ17" s="219"/>
+      <c r="AK17" s="219"/>
+      <c r="AL17" s="219"/>
+      <c r="AM17" s="219"/>
+      <c r="AN17" s="219"/>
+      <c r="AO17" s="219"/>
+      <c r="AP17" s="219"/>
+      <c r="AQ17" s="219"/>
+      <c r="AR17" s="219"/>
+      <c r="AS17" s="219"/>
+      <c r="AT17" s="219"/>
       <c r="AU17" s="44"/>
       <c r="AV17" s="44"/>
       <c r="AW17" s="44"/>
       <c r="AX17" s="39"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="114"/>
-      <c r="BA17" s="114"/>
-      <c r="BB17" s="114"/>
-      <c r="BC17" s="114"/>
-      <c r="BD17" s="114"/>
-      <c r="BE17" s="114"/>
-      <c r="BF17" s="115"/>
-      <c r="BG17" s="123"/>
+      <c r="AY17" s="102"/>
+      <c r="AZ17" s="103"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="103"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="103"/>
+      <c r="BE17" s="103"/>
+      <c r="BF17" s="104"/>
+      <c r="BG17" s="112"/>
     </row>
     <row r="18" spans="1:59" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="148"/>
+      <c r="A18" s="143"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="44"/>
@@ -3422,62 +3424,62 @@
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="218" t="s">
+      <c r="I18" s="221" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="218"/>
-      <c r="R18" s="218"/>
-      <c r="S18" s="218"/>
-      <c r="T18" s="218"/>
-      <c r="U18" s="218"/>
-      <c r="V18" s="218"/>
-      <c r="W18" s="218"/>
-      <c r="X18" s="218"/>
-      <c r="Y18" s="218"/>
-      <c r="Z18" s="218"/>
-      <c r="AA18" s="218"/>
-      <c r="AB18" s="218"/>
-      <c r="AC18" s="218"/>
-      <c r="AD18" s="218"/>
-      <c r="AE18" s="218"/>
-      <c r="AF18" s="218"/>
-      <c r="AG18" s="218"/>
-      <c r="AH18" s="218"/>
-      <c r="AI18" s="218"/>
-      <c r="AJ18" s="218"/>
-      <c r="AK18" s="218"/>
-      <c r="AL18" s="218"/>
-      <c r="AM18" s="218"/>
-      <c r="AN18" s="218"/>
-      <c r="AO18" s="218"/>
-      <c r="AP18" s="218"/>
-      <c r="AQ18" s="218"/>
-      <c r="AR18" s="218"/>
-      <c r="AS18" s="218"/>
-      <c r="AT18" s="218"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="221"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="221"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="221"/>
+      <c r="AG18" s="221"/>
+      <c r="AH18" s="221"/>
+      <c r="AI18" s="221"/>
+      <c r="AJ18" s="221"/>
+      <c r="AK18" s="221"/>
+      <c r="AL18" s="221"/>
+      <c r="AM18" s="221"/>
+      <c r="AN18" s="221"/>
+      <c r="AO18" s="221"/>
+      <c r="AP18" s="221"/>
+      <c r="AQ18" s="221"/>
+      <c r="AR18" s="221"/>
+      <c r="AS18" s="221"/>
+      <c r="AT18" s="221"/>
       <c r="AU18" s="44"/>
       <c r="AV18" s="44"/>
       <c r="AW18" s="44"/>
       <c r="AX18" s="39"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="94"/>
-      <c r="BA18" s="94"/>
-      <c r="BB18" s="94"/>
-      <c r="BC18" s="94"/>
-      <c r="BD18" s="94"/>
-      <c r="BE18" s="94"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="123"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="83"/>
+      <c r="BC18" s="83"/>
+      <c r="BD18" s="83"/>
+      <c r="BE18" s="83"/>
+      <c r="BF18" s="84"/>
+      <c r="BG18" s="112"/>
     </row>
     <row r="19" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
+      <c r="A19" s="143"/>
       <c r="B19" s="48" t="s">
         <v>26</v>
       </c>
@@ -3487,44 +3489,44 @@
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="177"/>
-      <c r="S19" s="177"/>
-      <c r="T19" s="177"/>
-      <c r="U19" s="177"/>
-      <c r="V19" s="177"/>
-      <c r="W19" s="177"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="177"/>
-      <c r="Z19" s="177"/>
-      <c r="AA19" s="177"/>
-      <c r="AB19" s="177"/>
-      <c r="AC19" s="177"/>
-      <c r="AD19" s="177"/>
-      <c r="AE19" s="177"/>
-      <c r="AF19" s="177"/>
-      <c r="AG19" s="177"/>
-      <c r="AH19" s="177"/>
-      <c r="AI19" s="177"/>
-      <c r="AJ19" s="177"/>
-      <c r="AK19" s="177"/>
-      <c r="AL19" s="177"/>
-      <c r="AM19" s="177"/>
-      <c r="AN19" s="177"/>
-      <c r="AO19" s="177"/>
-      <c r="AP19" s="177"/>
-      <c r="AQ19" s="177"/>
-      <c r="AR19" s="177"/>
-      <c r="AS19" s="177"/>
-      <c r="AT19" s="177"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181"/>
+      <c r="S19" s="181"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="181"/>
+      <c r="V19" s="181"/>
+      <c r="W19" s="181"/>
+      <c r="X19" s="181"/>
+      <c r="Y19" s="181"/>
+      <c r="Z19" s="181"/>
+      <c r="AA19" s="181"/>
+      <c r="AB19" s="181"/>
+      <c r="AC19" s="181"/>
+      <c r="AD19" s="181"/>
+      <c r="AE19" s="181"/>
+      <c r="AF19" s="181"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="181"/>
+      <c r="AI19" s="181"/>
+      <c r="AJ19" s="181"/>
+      <c r="AK19" s="181"/>
+      <c r="AL19" s="181"/>
+      <c r="AM19" s="181"/>
+      <c r="AN19" s="181"/>
+      <c r="AO19" s="181"/>
+      <c r="AP19" s="181"/>
+      <c r="AQ19" s="181"/>
+      <c r="AR19" s="181"/>
+      <c r="AS19" s="181"/>
+      <c r="AT19" s="181"/>
       <c r="AU19" s="44"/>
       <c r="AV19" s="44"/>
       <c r="AW19" s="44"/>
@@ -3532,17 +3534,17 @@
         <v>4</v>
       </c>
       <c r="AY19" s="68"/>
-      <c r="AZ19" s="96"/>
-      <c r="BA19" s="96"/>
-      <c r="BB19" s="96"/>
-      <c r="BC19" s="96"/>
-      <c r="BD19" s="96"/>
-      <c r="BE19" s="96"/>
-      <c r="BF19" s="97"/>
-      <c r="BG19" s="124"/>
+      <c r="AZ19" s="85"/>
+      <c r="BA19" s="85"/>
+      <c r="BB19" s="85"/>
+      <c r="BC19" s="85"/>
+      <c r="BD19" s="85"/>
+      <c r="BE19" s="85"/>
+      <c r="BF19" s="86"/>
+      <c r="BG19" s="113"/>
     </row>
     <row r="20" spans="1:59" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="148"/>
+      <c r="A20" s="143"/>
       <c r="B20" s="51"/>
       <c r="C20" s="50"/>
       <c r="D20" s="44"/>
@@ -3550,62 +3552,62 @@
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="216" t="s">
+      <c r="I20" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="216"/>
-      <c r="N20" s="216"/>
-      <c r="O20" s="216"/>
-      <c r="P20" s="216"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="216"/>
-      <c r="S20" s="216"/>
-      <c r="T20" s="216"/>
-      <c r="U20" s="216"/>
-      <c r="V20" s="216"/>
-      <c r="W20" s="216"/>
-      <c r="X20" s="216"/>
-      <c r="Y20" s="216"/>
-      <c r="Z20" s="216"/>
-      <c r="AA20" s="216"/>
-      <c r="AB20" s="216"/>
-      <c r="AC20" s="216"/>
-      <c r="AD20" s="216"/>
-      <c r="AE20" s="216"/>
-      <c r="AF20" s="216"/>
-      <c r="AG20" s="216"/>
-      <c r="AH20" s="216"/>
-      <c r="AI20" s="216"/>
-      <c r="AJ20" s="216"/>
-      <c r="AK20" s="216"/>
-      <c r="AL20" s="216"/>
-      <c r="AM20" s="216"/>
-      <c r="AN20" s="216"/>
-      <c r="AO20" s="216"/>
-      <c r="AP20" s="216"/>
-      <c r="AQ20" s="216"/>
-      <c r="AR20" s="216"/>
-      <c r="AS20" s="216"/>
-      <c r="AT20" s="216"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="219"/>
+      <c r="S20" s="219"/>
+      <c r="T20" s="219"/>
+      <c r="U20" s="219"/>
+      <c r="V20" s="219"/>
+      <c r="W20" s="219"/>
+      <c r="X20" s="219"/>
+      <c r="Y20" s="219"/>
+      <c r="Z20" s="219"/>
+      <c r="AA20" s="219"/>
+      <c r="AB20" s="219"/>
+      <c r="AC20" s="219"/>
+      <c r="AD20" s="219"/>
+      <c r="AE20" s="219"/>
+      <c r="AF20" s="219"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="219"/>
+      <c r="AI20" s="219"/>
+      <c r="AJ20" s="219"/>
+      <c r="AK20" s="219"/>
+      <c r="AL20" s="219"/>
+      <c r="AM20" s="219"/>
+      <c r="AN20" s="219"/>
+      <c r="AO20" s="219"/>
+      <c r="AP20" s="219"/>
+      <c r="AQ20" s="219"/>
+      <c r="AR20" s="219"/>
+      <c r="AS20" s="219"/>
+      <c r="AT20" s="219"/>
       <c r="AU20" s="44"/>
       <c r="AV20" s="44"/>
       <c r="AW20" s="44"/>
       <c r="AX20" s="52"/>
-      <c r="AY20" s="98"/>
-      <c r="AZ20" s="99"/>
-      <c r="BA20" s="99"/>
-      <c r="BB20" s="99"/>
-      <c r="BC20" s="99"/>
-      <c r="BD20" s="99"/>
-      <c r="BE20" s="99"/>
-      <c r="BF20" s="100"/>
-      <c r="BG20" s="124"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="88"/>
+      <c r="BA20" s="88"/>
+      <c r="BB20" s="88"/>
+      <c r="BC20" s="88"/>
+      <c r="BD20" s="88"/>
+      <c r="BE20" s="88"/>
+      <c r="BF20" s="89"/>
+      <c r="BG20" s="113"/>
     </row>
     <row r="21" spans="1:59" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="148"/>
+      <c r="A21" s="143"/>
       <c r="B21" s="48" t="s">
         <v>27</v>
       </c>
@@ -3615,64 +3617,64 @@
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
-      <c r="I21" s="177" t="s">
+      <c r="I21" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
-      <c r="U21" s="177"/>
-      <c r="V21" s="177"/>
-      <c r="W21" s="177"/>
-      <c r="X21" s="177"/>
-      <c r="Y21" s="177"/>
-      <c r="Z21" s="177"/>
-      <c r="AA21" s="177"/>
-      <c r="AB21" s="177"/>
-      <c r="AC21" s="177"/>
-      <c r="AD21" s="177"/>
-      <c r="AE21" s="177"/>
-      <c r="AF21" s="177"/>
-      <c r="AG21" s="177"/>
-      <c r="AH21" s="177"/>
-      <c r="AI21" s="177"/>
-      <c r="AJ21" s="177"/>
-      <c r="AK21" s="177"/>
-      <c r="AL21" s="177"/>
-      <c r="AM21" s="177"/>
-      <c r="AN21" s="177"/>
-      <c r="AO21" s="177"/>
-      <c r="AP21" s="177"/>
-      <c r="AQ21" s="177"/>
-      <c r="AR21" s="177"/>
-      <c r="AS21" s="177"/>
-      <c r="AT21" s="178"/>
-      <c r="AU21" s="174" t="s">
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="181"/>
+      <c r="S21" s="181"/>
+      <c r="T21" s="181"/>
+      <c r="U21" s="181"/>
+      <c r="V21" s="181"/>
+      <c r="W21" s="181"/>
+      <c r="X21" s="181"/>
+      <c r="Y21" s="181"/>
+      <c r="Z21" s="181"/>
+      <c r="AA21" s="181"/>
+      <c r="AB21" s="181"/>
+      <c r="AC21" s="181"/>
+      <c r="AD21" s="181"/>
+      <c r="AE21" s="181"/>
+      <c r="AF21" s="181"/>
+      <c r="AG21" s="181"/>
+      <c r="AH21" s="181"/>
+      <c r="AI21" s="181"/>
+      <c r="AJ21" s="181"/>
+      <c r="AK21" s="181"/>
+      <c r="AL21" s="181"/>
+      <c r="AM21" s="181"/>
+      <c r="AN21" s="181"/>
+      <c r="AO21" s="181"/>
+      <c r="AP21" s="181"/>
+      <c r="AQ21" s="181"/>
+      <c r="AR21" s="181"/>
+      <c r="AS21" s="181"/>
+      <c r="AT21" s="182"/>
+      <c r="AU21" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="AV21" s="175"/>
-      <c r="AW21" s="175"/>
-      <c r="AX21" s="176"/>
+      <c r="AV21" s="179"/>
+      <c r="AW21" s="179"/>
+      <c r="AX21" s="180"/>
       <c r="AY21" s="69"/>
-      <c r="AZ21" s="101"/>
-      <c r="BA21" s="101"/>
-      <c r="BB21" s="101"/>
-      <c r="BC21" s="101"/>
-      <c r="BD21" s="101"/>
-      <c r="BE21" s="101"/>
-      <c r="BF21" s="102"/>
-      <c r="BG21" s="124"/>
+      <c r="AZ21" s="90"/>
+      <c r="BA21" s="90"/>
+      <c r="BB21" s="90"/>
+      <c r="BC21" s="90"/>
+      <c r="BD21" s="90"/>
+      <c r="BE21" s="90"/>
+      <c r="BF21" s="91"/>
+      <c r="BG21" s="113"/>
     </row>
     <row r="22" spans="1:59" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="148"/>
+      <c r="A22" s="143"/>
       <c r="B22" s="53"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -3680,52 +3682,52 @@
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
-      <c r="I22" s="216" t="s">
+      <c r="I22" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="216"/>
-      <c r="N22" s="216"/>
-      <c r="O22" s="216"/>
-      <c r="P22" s="216"/>
-      <c r="Q22" s="216"/>
-      <c r="R22" s="216"/>
-      <c r="S22" s="216"/>
-      <c r="T22" s="216"/>
-      <c r="U22" s="216"/>
-      <c r="V22" s="216"/>
-      <c r="W22" s="216"/>
-      <c r="X22" s="216"/>
-      <c r="Y22" s="216"/>
-      <c r="Z22" s="216"/>
-      <c r="AA22" s="216"/>
-      <c r="AB22" s="216"/>
-      <c r="AC22" s="216"/>
-      <c r="AD22" s="216"/>
-      <c r="AE22" s="216"/>
-      <c r="AF22" s="216"/>
-      <c r="AG22" s="216"/>
-      <c r="AH22" s="216"/>
-      <c r="AI22" s="216"/>
-      <c r="AJ22" s="216"/>
-      <c r="AK22" s="216"/>
-      <c r="AL22" s="216"/>
-      <c r="AM22" s="216"/>
-      <c r="AN22" s="216"/>
-      <c r="AO22" s="216"/>
-      <c r="AP22" s="216"/>
-      <c r="AQ22" s="216"/>
-      <c r="AR22" s="216"/>
-      <c r="AS22" s="216"/>
-      <c r="AT22" s="227"/>
-      <c r="AU22" s="179" t="s">
+      <c r="J22" s="219"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="219"/>
+      <c r="S22" s="219"/>
+      <c r="T22" s="219"/>
+      <c r="U22" s="219"/>
+      <c r="V22" s="219"/>
+      <c r="W22" s="219"/>
+      <c r="X22" s="219"/>
+      <c r="Y22" s="219"/>
+      <c r="Z22" s="219"/>
+      <c r="AA22" s="219"/>
+      <c r="AB22" s="219"/>
+      <c r="AC22" s="219"/>
+      <c r="AD22" s="219"/>
+      <c r="AE22" s="219"/>
+      <c r="AF22" s="219"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="219"/>
+      <c r="AI22" s="219"/>
+      <c r="AJ22" s="219"/>
+      <c r="AK22" s="219"/>
+      <c r="AL22" s="219"/>
+      <c r="AM22" s="219"/>
+      <c r="AN22" s="219"/>
+      <c r="AO22" s="219"/>
+      <c r="AP22" s="219"/>
+      <c r="AQ22" s="219"/>
+      <c r="AR22" s="219"/>
+      <c r="AS22" s="219"/>
+      <c r="AT22" s="230"/>
+      <c r="AU22" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="AV22" s="180"/>
-      <c r="AW22" s="180"/>
-      <c r="AX22" s="181"/>
+      <c r="AV22" s="184"/>
+      <c r="AW22" s="184"/>
+      <c r="AX22" s="185"/>
       <c r="AY22" s="70"/>
       <c r="AZ22" s="71"/>
       <c r="BA22" s="71"/>
@@ -3734,10 +3736,10 @@
       <c r="BD22" s="71"/>
       <c r="BE22" s="71"/>
       <c r="BF22" s="72"/>
-      <c r="BG22" s="124"/>
+      <c r="BG22" s="113"/>
     </row>
     <row r="23" spans="1:59" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="148"/>
+      <c r="A23" s="143"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -3783,12 +3785,12 @@
       <c r="AR23" s="54"/>
       <c r="AS23" s="54"/>
       <c r="AT23" s="54"/>
-      <c r="AU23" s="179" t="s">
+      <c r="AU23" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="180"/>
-      <c r="AW23" s="180"/>
-      <c r="AX23" s="181"/>
+      <c r="AV23" s="184"/>
+      <c r="AW23" s="184"/>
+      <c r="AX23" s="185"/>
       <c r="AY23" s="70"/>
       <c r="AZ23" s="71"/>
       <c r="BA23" s="71"/>
@@ -3797,10 +3799,10 @@
       <c r="BD23" s="71"/>
       <c r="BE23" s="71"/>
       <c r="BF23" s="72"/>
-      <c r="BG23" s="121"/>
+      <c r="BG23" s="110"/>
     </row>
     <row r="24" spans="1:59" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
+      <c r="A24" s="143"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -3820,26 +3822,26 @@
       <c r="R24" s="43"/>
       <c r="S24" s="43"/>
       <c r="T24" s="43"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="215" t="s">
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="X24" s="220"/>
-      <c r="Y24" s="220"/>
-      <c r="Z24" s="220"/>
-      <c r="AA24" s="220"/>
-      <c r="AB24" s="220"/>
-      <c r="AC24" s="220"/>
-      <c r="AD24" s="215" t="s">
+      <c r="X24" s="223"/>
+      <c r="Y24" s="223"/>
+      <c r="Z24" s="223"/>
+      <c r="AA24" s="223"/>
+      <c r="AB24" s="223"/>
+      <c r="AC24" s="223"/>
+      <c r="AD24" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="AE24" s="220"/>
-      <c r="AF24" s="220"/>
-      <c r="AG24" s="220"/>
-      <c r="AH24" s="220"/>
-      <c r="AI24" s="220"/>
-      <c r="AJ24" s="132"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="223"/>
+      <c r="AH24" s="223"/>
+      <c r="AI24" s="223"/>
+      <c r="AJ24" s="121"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="55"/>
       <c r="AM24" s="55"/>
@@ -3852,12 +3854,12 @@
       <c r="AT24" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AU24" s="182" t="s">
+      <c r="AU24" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AV24" s="183"/>
-      <c r="AW24" s="183"/>
-      <c r="AX24" s="184"/>
+      <c r="AV24" s="187"/>
+      <c r="AW24" s="187"/>
+      <c r="AX24" s="188"/>
       <c r="AY24" s="70"/>
       <c r="AZ24" s="71"/>
       <c r="BA24" s="71"/>
@@ -3866,66 +3868,66 @@
       <c r="BD24" s="71"/>
       <c r="BE24" s="71"/>
       <c r="BF24" s="72"/>
-      <c r="BG24" s="121"/>
+      <c r="BG24" s="110"/>
     </row>
     <row r="25" spans="1:59" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148"/>
-      <c r="B25" s="221" t="s">
+      <c r="A25" s="143"/>
+      <c r="B25" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="221"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="222"/>
-      <c r="W25" s="223" t="s">
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="224"/>
+      <c r="U25" s="224"/>
+      <c r="V25" s="225"/>
+      <c r="W25" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="224"/>
-      <c r="AB25" s="224"/>
-      <c r="AC25" s="225"/>
-      <c r="AD25" s="223" t="s">
+      <c r="X25" s="227"/>
+      <c r="Y25" s="227"/>
+      <c r="Z25" s="227"/>
+      <c r="AA25" s="227"/>
+      <c r="AB25" s="227"/>
+      <c r="AC25" s="228"/>
+      <c r="AD25" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="AE25" s="224"/>
-      <c r="AF25" s="224"/>
-      <c r="AG25" s="224"/>
-      <c r="AH25" s="224"/>
-      <c r="AI25" s="226"/>
-      <c r="AJ25" s="133"/>
+      <c r="AE25" s="227"/>
+      <c r="AF25" s="227"/>
+      <c r="AG25" s="227"/>
+      <c r="AH25" s="227"/>
+      <c r="AI25" s="229"/>
+      <c r="AJ25" s="122"/>
       <c r="AX25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AY25" s="103"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="104"/>
-      <c r="BB25" s="104"/>
-      <c r="BC25" s="104"/>
-      <c r="BD25" s="104"/>
-      <c r="BE25" s="104"/>
-      <c r="BF25" s="105"/>
-      <c r="BG25" s="121"/>
+      <c r="AY25" s="92"/>
+      <c r="AZ25" s="93"/>
+      <c r="BA25" s="93"/>
+      <c r="BB25" s="93"/>
+      <c r="BC25" s="93"/>
+      <c r="BD25" s="93"/>
+      <c r="BE25" s="93"/>
+      <c r="BF25" s="94"/>
+      <c r="BG25" s="110"/>
     </row>
     <row r="26" spans="1:59" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="148"/>
+      <c r="A26" s="143"/>
       <c r="AX26" s="52"/>
       <c r="AY26" s="57"/>
       <c r="AZ26" s="57"/>
@@ -3938,8 +3940,8 @@
       <c r="BG26" s="57"/>
     </row>
     <row r="27" spans="1:59" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="148"/>
-      <c r="B27" s="130"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="119"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -3966,605 +3968,605 @@
       <c r="AS27" s="57"/>
     </row>
     <row r="28" spans="1:59" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="228" t="s">
+      <c r="A28" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="173"/>
-      <c r="AJ28" s="173"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="173"/>
-      <c r="AM28" s="173"/>
-      <c r="AN28" s="173"/>
-      <c r="AO28" s="173"/>
-      <c r="AP28" s="173"/>
-      <c r="AQ28" s="173"/>
-      <c r="AR28" s="173"/>
-      <c r="AS28" s="173"/>
-      <c r="AT28" s="173"/>
-      <c r="AU28" s="173"/>
-      <c r="AV28" s="173"/>
-      <c r="AW28" s="173"/>
-      <c r="AX28" s="173"/>
-      <c r="AY28" s="173"/>
-      <c r="AZ28" s="173"/>
-      <c r="BA28" s="173"/>
-      <c r="BB28" s="173"/>
-      <c r="BC28" s="173"/>
-      <c r="BD28" s="173"/>
-      <c r="BE28" s="173"/>
-      <c r="BF28" s="173"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
+      <c r="AH28" s="177"/>
+      <c r="AI28" s="177"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="177"/>
+      <c r="AL28" s="177"/>
+      <c r="AM28" s="177"/>
+      <c r="AN28" s="177"/>
+      <c r="AO28" s="177"/>
+      <c r="AP28" s="177"/>
+      <c r="AQ28" s="177"/>
+      <c r="AR28" s="177"/>
+      <c r="AS28" s="177"/>
+      <c r="AT28" s="177"/>
+      <c r="AU28" s="177"/>
+      <c r="AV28" s="177"/>
+      <c r="AW28" s="177"/>
+      <c r="AX28" s="177"/>
+      <c r="AY28" s="177"/>
+      <c r="AZ28" s="177"/>
+      <c r="BA28" s="177"/>
+      <c r="BB28" s="177"/>
+      <c r="BC28" s="177"/>
+      <c r="BD28" s="177"/>
+      <c r="BE28" s="177"/>
+      <c r="BF28" s="177"/>
       <c r="BG28" s="67"/>
     </row>
     <row r="29" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="228"/>
-      <c r="B29" s="164" t="s">
+      <c r="A29" s="163"/>
+      <c r="B29" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="165" t="s">
+        <v>109</v>
+      </c>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="165"/>
+      <c r="Z29" s="165"/>
+      <c r="AA29" s="165"/>
+      <c r="AB29" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="164"/>
-      <c r="R29" s="164"/>
-      <c r="S29" s="164"/>
-      <c r="T29" s="164"/>
-      <c r="U29" s="164"/>
-      <c r="V29" s="164" t="s">
+      <c r="AC29" s="190"/>
+      <c r="AD29" s="191"/>
+      <c r="AE29" s="198" t="s">
         <v>111</v>
       </c>
-      <c r="W29" s="164"/>
-      <c r="X29" s="164"/>
-      <c r="Y29" s="164"/>
-      <c r="Z29" s="164"/>
-      <c r="AA29" s="164"/>
-      <c r="AB29" s="185" t="s">
+      <c r="AF29" s="199"/>
+      <c r="AG29" s="199"/>
+      <c r="AH29" s="199"/>
+      <c r="AI29" s="200"/>
+      <c r="AJ29" s="189" t="s">
         <v>112</v>
       </c>
-      <c r="AC29" s="186"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="194" t="s">
+      <c r="AK29" s="190"/>
+      <c r="AL29" s="191"/>
+      <c r="AM29" s="189" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN29" s="190"/>
+      <c r="AO29" s="191"/>
+      <c r="AP29" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="AF29" s="195"/>
-      <c r="AG29" s="195"/>
-      <c r="AH29" s="195"/>
-      <c r="AI29" s="196"/>
-      <c r="AJ29" s="185" t="s">
+      <c r="AQ29" s="190"/>
+      <c r="AR29" s="191"/>
+      <c r="AS29" s="189" t="s">
         <v>114</v>
       </c>
-      <c r="AK29" s="186"/>
-      <c r="AL29" s="187"/>
-      <c r="AM29" s="185" t="s">
+      <c r="AT29" s="190"/>
+      <c r="AU29" s="191"/>
+      <c r="AV29" s="165" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW29" s="165"/>
+      <c r="AX29" s="165"/>
+      <c r="AY29" s="165"/>
+      <c r="AZ29" s="165"/>
+      <c r="BA29" s="165"/>
+      <c r="BB29" s="165"/>
+      <c r="BC29" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD29" s="165"/>
+      <c r="BE29" s="165"/>
+      <c r="BF29" s="165"/>
+      <c r="BG29" s="78"/>
+    </row>
+    <row r="30" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="163"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="165"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="192"/>
+      <c r="AC30" s="193"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="189" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="189" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="192"/>
+      <c r="AK30" s="193"/>
+      <c r="AL30" s="194"/>
+      <c r="AM30" s="192"/>
+      <c r="AN30" s="193"/>
+      <c r="AO30" s="194"/>
+      <c r="AP30" s="192"/>
+      <c r="AQ30" s="193"/>
+      <c r="AR30" s="194"/>
+      <c r="AS30" s="192"/>
+      <c r="AT30" s="193"/>
+      <c r="AU30" s="194"/>
+      <c r="AV30" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="191"/>
+      <c r="AY30" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ30" s="165"/>
+      <c r="BA30" s="165"/>
+      <c r="BB30" s="165"/>
+      <c r="BC30" s="165"/>
+      <c r="BD30" s="165"/>
+      <c r="BE30" s="165"/>
+      <c r="BF30" s="165"/>
+      <c r="BG30" s="78"/>
+    </row>
+    <row r="31" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="163"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="165"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="165"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="165"/>
+      <c r="AA31" s="165"/>
+      <c r="AB31" s="195"/>
+      <c r="AC31" s="196"/>
+      <c r="AD31" s="197"/>
+      <c r="AE31" s="195"/>
+      <c r="AF31" s="196"/>
+      <c r="AG31" s="197"/>
+      <c r="AH31" s="195"/>
+      <c r="AI31" s="197"/>
+      <c r="AJ31" s="195"/>
+      <c r="AK31" s="196"/>
+      <c r="AL31" s="197"/>
+      <c r="AM31" s="195"/>
+      <c r="AN31" s="196"/>
+      <c r="AO31" s="197"/>
+      <c r="AP31" s="195"/>
+      <c r="AQ31" s="196"/>
+      <c r="AR31" s="197"/>
+      <c r="AS31" s="195"/>
+      <c r="AT31" s="196"/>
+      <c r="AU31" s="197"/>
+      <c r="AV31" s="195"/>
+      <c r="AW31" s="196"/>
+      <c r="AX31" s="197"/>
+      <c r="AY31" s="165"/>
+      <c r="AZ31" s="165"/>
+      <c r="BA31" s="165"/>
+      <c r="BB31" s="165"/>
+      <c r="BC31" s="165"/>
+      <c r="BD31" s="165"/>
+      <c r="BE31" s="165"/>
+      <c r="BF31" s="165"/>
+      <c r="BG31" s="78"/>
+    </row>
+    <row r="32" spans="1:59" s="58" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="163"/>
+      <c r="B32" s="158">
+        <v>1</v>
+      </c>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="174">
+        <v>2</v>
+      </c>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="176"/>
+      <c r="S32" s="154">
+        <v>3</v>
+      </c>
+      <c r="T32" s="154"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="158">
+        <v>4</v>
+      </c>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="154">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="154"/>
+      <c r="AB32" s="154">
+        <v>6</v>
+      </c>
+      <c r="AC32" s="154"/>
+      <c r="AD32" s="154"/>
+      <c r="AE32" s="154">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="154"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="154">
+        <v>8</v>
+      </c>
+      <c r="AI32" s="154"/>
+      <c r="AJ32" s="154">
+        <v>9</v>
+      </c>
+      <c r="AK32" s="154"/>
+      <c r="AL32" s="154"/>
+      <c r="AM32" s="155">
+        <v>10</v>
+      </c>
+      <c r="AN32" s="156"/>
+      <c r="AO32" s="157"/>
+      <c r="AP32" s="154">
+        <v>11</v>
+      </c>
+      <c r="AQ32" s="154"/>
+      <c r="AR32" s="154"/>
+      <c r="AS32" s="154">
+        <v>12</v>
+      </c>
+      <c r="AT32" s="154"/>
+      <c r="AU32" s="154"/>
+      <c r="AV32" s="158">
+        <v>13</v>
+      </c>
+      <c r="AW32" s="158"/>
+      <c r="AX32" s="158"/>
+      <c r="AY32" s="154">
+        <v>14</v>
+      </c>
+      <c r="AZ32" s="154"/>
+      <c r="BA32" s="154"/>
+      <c r="BB32" s="154"/>
+      <c r="BC32" s="154">
+        <v>15</v>
+      </c>
+      <c r="BD32" s="154"/>
+      <c r="BE32" s="154"/>
+      <c r="BF32" s="154"/>
+      <c r="BG32" s="115"/>
+    </row>
+    <row r="33" spans="1:59" s="59" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="T33" s="167"/>
+      <c r="U33" s="173"/>
+      <c r="V33" s="172" t="s">
+        <v>93</v>
+      </c>
+      <c r="W33" s="167"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="172" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z33" s="167"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="147"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="147"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="147"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="148"/>
+      <c r="AM33" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN33" s="152"/>
+      <c r="AO33" s="153"/>
+      <c r="AP33" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ33" s="145"/>
+      <c r="AR33" s="150"/>
+      <c r="AS33" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT33" s="145"/>
+      <c r="AU33" s="146"/>
+      <c r="AV33" s="159" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW33" s="160"/>
+      <c r="AX33" s="161"/>
+      <c r="AY33" s="162" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ33" s="145"/>
+      <c r="BA33" s="145"/>
+      <c r="BB33" s="150"/>
+      <c r="BC33" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD33" s="145"/>
+      <c r="BE33" s="145"/>
+      <c r="BF33" s="146"/>
+      <c r="BG33" s="116"/>
+    </row>
+    <row r="34" spans="1:59" s="59" customFormat="1" ht="14" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="126"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128"/>
+      <c r="AF34" s="128"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="129"/>
+      <c r="AI34" s="130"/>
+      <c r="AJ34" s="129"/>
+      <c r="AK34" s="128"/>
+      <c r="AL34" s="130"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="131"/>
+      <c r="AO34" s="132"/>
+      <c r="AP34" s="133"/>
+      <c r="AQ34" s="134"/>
+      <c r="AR34" s="135"/>
+      <c r="AS34" s="133"/>
+      <c r="AT34" s="134"/>
+      <c r="AU34" s="134"/>
+      <c r="AV34" s="136"/>
+      <c r="AW34" s="136"/>
+      <c r="AX34" s="136"/>
+      <c r="AY34" s="134"/>
+      <c r="AZ34" s="134"/>
+      <c r="BA34" s="134"/>
+      <c r="BB34" s="135"/>
+      <c r="BC34" s="133"/>
+      <c r="BD34" s="134"/>
+      <c r="BE34" s="134"/>
+      <c r="BF34" s="134"/>
+      <c r="BG34" s="134"/>
+    </row>
+    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="143"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="125"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="125"/>
+      <c r="Y35" s="123"/>
+      <c r="Z35" s="123"/>
+      <c r="AA35" s="123"/>
+      <c r="AB35" s="123"/>
+      <c r="AC35" s="123"/>
+      <c r="AD35" s="123"/>
+      <c r="AE35" s="123"/>
+      <c r="AF35" s="123"/>
+      <c r="AG35" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH35" s="164"/>
+      <c r="AI35" s="164"/>
+      <c r="AJ35" s="164"/>
+      <c r="AK35" s="164"/>
+      <c r="AL35" s="164"/>
+      <c r="AM35" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="AN29" s="186"/>
-      <c r="AO29" s="187"/>
-      <c r="AP29" s="185" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ29" s="186"/>
-      <c r="AR29" s="187"/>
-      <c r="AS29" s="185" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT29" s="186"/>
-      <c r="AU29" s="187"/>
-      <c r="AV29" s="164" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW29" s="164"/>
-      <c r="AX29" s="164"/>
-      <c r="AY29" s="164"/>
-      <c r="AZ29" s="164"/>
-      <c r="BA29" s="164"/>
-      <c r="BB29" s="164"/>
-      <c r="BC29" s="164" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD29" s="164"/>
-      <c r="BE29" s="164"/>
-      <c r="BF29" s="164"/>
-      <c r="BG29" s="89"/>
-    </row>
-    <row r="30" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="228"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="T30" s="164"/>
-      <c r="U30" s="164"/>
-      <c r="V30" s="164" t="s">
-        <v>123</v>
-      </c>
-      <c r="W30" s="164"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="164" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z30" s="164"/>
-      <c r="AA30" s="164"/>
-      <c r="AB30" s="188"/>
-      <c r="AC30" s="189"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="185" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF30" s="186"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="185" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="188"/>
-      <c r="AK30" s="189"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="188"/>
-      <c r="AN30" s="189"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="188"/>
-      <c r="AQ30" s="189"/>
-      <c r="AR30" s="190"/>
-      <c r="AS30" s="188"/>
-      <c r="AT30" s="189"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="185" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW30" s="186"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="164" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ30" s="164"/>
-      <c r="BA30" s="164"/>
-      <c r="BB30" s="164"/>
-      <c r="BC30" s="164"/>
-      <c r="BD30" s="164"/>
-      <c r="BE30" s="164"/>
-      <c r="BF30" s="164"/>
-      <c r="BG30" s="89"/>
-    </row>
-    <row r="31" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="228"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="164"/>
-      <c r="R31" s="164"/>
-      <c r="S31" s="164"/>
-      <c r="T31" s="164"/>
-      <c r="U31" s="164"/>
-      <c r="V31" s="164"/>
-      <c r="W31" s="164"/>
-      <c r="X31" s="164"/>
-      <c r="Y31" s="164"/>
-      <c r="Z31" s="164"/>
-      <c r="AA31" s="164"/>
-      <c r="AB31" s="191"/>
-      <c r="AC31" s="192"/>
-      <c r="AD31" s="193"/>
-      <c r="AE31" s="191"/>
-      <c r="AF31" s="192"/>
-      <c r="AG31" s="193"/>
-      <c r="AH31" s="191"/>
-      <c r="AI31" s="193"/>
-      <c r="AJ31" s="191"/>
-      <c r="AK31" s="192"/>
-      <c r="AL31" s="193"/>
-      <c r="AM31" s="191"/>
-      <c r="AN31" s="192"/>
-      <c r="AO31" s="193"/>
-      <c r="AP31" s="191"/>
-      <c r="AQ31" s="192"/>
-      <c r="AR31" s="193"/>
-      <c r="AS31" s="191"/>
-      <c r="AT31" s="192"/>
-      <c r="AU31" s="193"/>
-      <c r="AV31" s="191"/>
-      <c r="AW31" s="192"/>
-      <c r="AX31" s="193"/>
-      <c r="AY31" s="164"/>
-      <c r="AZ31" s="164"/>
-      <c r="BA31" s="164"/>
-      <c r="BB31" s="164"/>
-      <c r="BC31" s="164"/>
-      <c r="BD31" s="164"/>
-      <c r="BE31" s="164"/>
-      <c r="BF31" s="164"/>
-      <c r="BG31" s="89"/>
-    </row>
-    <row r="32" spans="1:59" s="58" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="228"/>
-      <c r="B32" s="163">
-        <v>1</v>
-      </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="201">
-        <v>2</v>
-      </c>
-      <c r="F32" s="202"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="202"/>
-      <c r="P32" s="202"/>
-      <c r="Q32" s="202"/>
-      <c r="R32" s="203"/>
-      <c r="S32" s="159">
-        <v>3</v>
-      </c>
-      <c r="T32" s="159"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="163">
-        <v>4</v>
-      </c>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="159">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="159"/>
-      <c r="AB32" s="159">
-        <v>6</v>
-      </c>
-      <c r="AC32" s="159"/>
-      <c r="AD32" s="159"/>
-      <c r="AE32" s="159">
-        <v>7</v>
-      </c>
-      <c r="AF32" s="159"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159">
-        <v>8</v>
-      </c>
-      <c r="AI32" s="159"/>
-      <c r="AJ32" s="159">
-        <v>9</v>
-      </c>
-      <c r="AK32" s="159"/>
-      <c r="AL32" s="159"/>
-      <c r="AM32" s="160">
-        <v>10</v>
-      </c>
-      <c r="AN32" s="161"/>
-      <c r="AO32" s="162"/>
-      <c r="AP32" s="159">
-        <v>11</v>
-      </c>
-      <c r="AQ32" s="159"/>
-      <c r="AR32" s="159"/>
-      <c r="AS32" s="159">
-        <v>12</v>
-      </c>
-      <c r="AT32" s="159"/>
-      <c r="AU32" s="159"/>
-      <c r="AV32" s="163">
-        <v>13</v>
-      </c>
-      <c r="AW32" s="163"/>
-      <c r="AX32" s="163"/>
-      <c r="AY32" s="159">
+      <c r="AN35" s="164"/>
+      <c r="AO35" s="164"/>
+      <c r="AP35" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AZ32" s="159"/>
-      <c r="BA32" s="159"/>
-      <c r="BB32" s="159"/>
-      <c r="BC32" s="159">
-        <v>15</v>
-      </c>
-      <c r="BD32" s="159"/>
-      <c r="BE32" s="159"/>
-      <c r="BF32" s="159"/>
-      <c r="BG32" s="126"/>
-    </row>
-    <row r="33" spans="1:59" s="59" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="165" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="169"/>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="171" t="s">
-        <v>92</v>
-      </c>
-      <c r="T33" s="166"/>
-      <c r="U33" s="172"/>
-      <c r="V33" s="171" t="s">
-        <v>93</v>
-      </c>
-      <c r="W33" s="166"/>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="171" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="167"/>
-      <c r="AB33" s="152"/>
-      <c r="AC33" s="154"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="152"/>
-      <c r="AF33" s="154"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="152"/>
-      <c r="AI33" s="153"/>
-      <c r="AJ33" s="152"/>
-      <c r="AK33" s="154"/>
-      <c r="AL33" s="153"/>
-      <c r="AM33" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN33" s="157"/>
-      <c r="AO33" s="158"/>
-      <c r="AP33" s="149" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ33" s="150"/>
-      <c r="AR33" s="155"/>
-      <c r="AS33" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT33" s="150"/>
-      <c r="AU33" s="151"/>
-      <c r="AV33" s="204" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW33" s="205"/>
-      <c r="AX33" s="206"/>
-      <c r="AY33" s="207" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ33" s="150"/>
-      <c r="BA33" s="150"/>
-      <c r="BB33" s="155"/>
-      <c r="BC33" s="149" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD33" s="150"/>
-      <c r="BE33" s="150"/>
-      <c r="BF33" s="151"/>
-      <c r="BG33" s="127"/>
-    </row>
-    <row r="34" spans="1:59" s="59" customFormat="1" ht="14" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="137"/>
-      <c r="T34" s="137"/>
-      <c r="U34" s="137"/>
-      <c r="V34" s="137"/>
-      <c r="W34" s="137"/>
-      <c r="X34" s="137"/>
-      <c r="Y34" s="137"/>
-      <c r="Z34" s="137"/>
-      <c r="AA34" s="137"/>
-      <c r="AB34" s="139"/>
-      <c r="AC34" s="139"/>
-      <c r="AD34" s="139"/>
-      <c r="AE34" s="139"/>
-      <c r="AF34" s="139"/>
-      <c r="AG34" s="139"/>
-      <c r="AH34" s="140"/>
-      <c r="AI34" s="141"/>
-      <c r="AJ34" s="140"/>
-      <c r="AK34" s="139"/>
-      <c r="AL34" s="141"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="142"/>
-      <c r="AO34" s="143"/>
-      <c r="AP34" s="144"/>
-      <c r="AQ34" s="145"/>
-      <c r="AR34" s="146"/>
-      <c r="AS34" s="144"/>
-      <c r="AT34" s="145"/>
-      <c r="AU34" s="145"/>
-      <c r="AV34" s="147"/>
-      <c r="AW34" s="147"/>
-      <c r="AX34" s="147"/>
-      <c r="AY34" s="145"/>
-      <c r="AZ34" s="145"/>
-      <c r="BA34" s="145"/>
-      <c r="BB34" s="146"/>
-      <c r="BC34" s="144"/>
-      <c r="BD34" s="145"/>
-      <c r="BE34" s="145"/>
-      <c r="BF34" s="145"/>
-      <c r="BG34" s="145"/>
-    </row>
-    <row r="35" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="148"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="136"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="136"/>
-      <c r="S35" s="134"/>
-      <c r="T35" s="134"/>
-      <c r="U35" s="134"/>
-      <c r="V35" s="136"/>
-      <c r="W35" s="136"/>
-      <c r="X35" s="136"/>
-      <c r="Y35" s="134"/>
-      <c r="Z35" s="134"/>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="134"/>
-      <c r="AC35" s="134"/>
-      <c r="AD35" s="134"/>
-      <c r="AE35" s="134"/>
-      <c r="AF35" s="134"/>
-      <c r="AG35" s="135" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH35" s="229"/>
-      <c r="AI35" s="229"/>
-      <c r="AJ35" s="229"/>
-      <c r="AK35" s="229"/>
-      <c r="AL35" s="229"/>
-      <c r="AM35" s="229" t="s">
+      <c r="AQ35" s="231"/>
+      <c r="AR35" s="231"/>
+      <c r="AS35" s="232" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT35" s="233"/>
+      <c r="AU35" s="233"/>
+      <c r="AV35" s="203" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW35" s="203"/>
+      <c r="AX35" s="203"/>
+      <c r="AY35" s="232" t="s">
         <v>126</v>
       </c>
-      <c r="AN35" s="229"/>
-      <c r="AO35" s="229"/>
-      <c r="AP35" s="230" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ35" s="230"/>
-      <c r="AR35" s="230"/>
-      <c r="AS35" s="231" t="s">
+      <c r="AZ35" s="232"/>
+      <c r="BA35" s="232"/>
+      <c r="BB35" s="232"/>
+      <c r="BC35" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="AT35" s="232"/>
-      <c r="AU35" s="232"/>
-      <c r="AV35" s="210" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW35" s="210"/>
-      <c r="AX35" s="210"/>
-      <c r="AY35" s="231" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ35" s="231"/>
-      <c r="BA35" s="231"/>
-      <c r="BB35" s="231"/>
-      <c r="BC35" s="231" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD35" s="232"/>
-      <c r="BE35" s="232"/>
-      <c r="BF35" s="232"/>
-      <c r="BG35" s="128"/>
+      <c r="BD35" s="233"/>
+      <c r="BE35" s="233"/>
+      <c r="BF35" s="233"/>
+      <c r="BG35" s="117"/>
     </row>
     <row r="36" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="143" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="60"/>
@@ -4601,50 +4603,50 @@
       <c r="AG36" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="AH36" s="199"/>
-      <c r="AI36" s="199"/>
-      <c r="AJ36" s="199"/>
-      <c r="AK36" s="199"/>
-      <c r="AL36" s="199"/>
-      <c r="AM36" s="199" t="s">
+      <c r="AH36" s="208"/>
+      <c r="AI36" s="208"/>
+      <c r="AJ36" s="208"/>
+      <c r="AK36" s="208"/>
+      <c r="AL36" s="208"/>
+      <c r="AM36" s="208" t="s">
         <v>101</v>
       </c>
-      <c r="AN36" s="199"/>
-      <c r="AO36" s="199"/>
-      <c r="AP36" s="210" t="s">
+      <c r="AN36" s="208"/>
+      <c r="AO36" s="208"/>
+      <c r="AP36" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="AQ36" s="210"/>
-      <c r="AR36" s="210"/>
-      <c r="AS36" s="208" t="s">
+      <c r="AQ36" s="203"/>
+      <c r="AR36" s="203"/>
+      <c r="AS36" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="AT36" s="209"/>
-      <c r="AU36" s="209"/>
-      <c r="AV36" s="210" t="s">
+      <c r="AT36" s="202"/>
+      <c r="AU36" s="202"/>
+      <c r="AV36" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="AW36" s="210"/>
-      <c r="AX36" s="210"/>
-      <c r="AY36" s="208" t="s">
+      <c r="AW36" s="203"/>
+      <c r="AX36" s="203"/>
+      <c r="AY36" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="AZ36" s="208"/>
-      <c r="BA36" s="208"/>
-      <c r="BB36" s="208"/>
-      <c r="BC36" s="208" t="s">
+      <c r="AZ36" s="201"/>
+      <c r="BA36" s="201"/>
+      <c r="BB36" s="201"/>
+      <c r="BC36" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="BD36" s="209"/>
-      <c r="BE36" s="209"/>
-      <c r="BF36" s="209"/>
-      <c r="BG36" s="128"/>
+      <c r="BD36" s="202"/>
+      <c r="BE36" s="202"/>
+      <c r="BF36" s="202"/>
+      <c r="BG36" s="117"/>
     </row>
     <row r="37" spans="1:59" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="148"/>
+      <c r="A37" s="143"/>
     </row>
     <row r="38" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="148"/>
+      <c r="A38" s="143"/>
       <c r="B38" s="40" t="s">
         <v>48</v>
       </c>
@@ -4663,28 +4665,28 @@
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="197"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="197"/>
-      <c r="W38" s="197"/>
-      <c r="X38" s="197"/>
-      <c r="Y38" s="197"/>
-      <c r="Z38" s="197"/>
-      <c r="AA38" s="197"/>
-      <c r="AB38" s="197"/>
-      <c r="AC38" s="197"/>
-      <c r="AD38" s="197"/>
-      <c r="AE38" s="197"/>
-      <c r="AF38" s="197"/>
-      <c r="AG38" s="197"/>
-      <c r="AH38" s="197"/>
-      <c r="AI38" s="197"/>
-      <c r="AJ38" s="197"/>
-      <c r="AK38" s="197"/>
-      <c r="AL38" s="197"/>
-      <c r="AM38" s="197"/>
+      <c r="R38" s="206"/>
+      <c r="S38" s="206"/>
+      <c r="T38" s="206"/>
+      <c r="U38" s="206"/>
+      <c r="V38" s="206"/>
+      <c r="W38" s="206"/>
+      <c r="X38" s="206"/>
+      <c r="Y38" s="206"/>
+      <c r="Z38" s="206"/>
+      <c r="AA38" s="206"/>
+      <c r="AB38" s="206"/>
+      <c r="AC38" s="206"/>
+      <c r="AD38" s="206"/>
+      <c r="AE38" s="206"/>
+      <c r="AF38" s="206"/>
+      <c r="AG38" s="206"/>
+      <c r="AH38" s="206"/>
+      <c r="AI38" s="206"/>
+      <c r="AJ38" s="206"/>
+      <c r="AK38" s="206"/>
+      <c r="AL38" s="206"/>
+      <c r="AM38" s="206"/>
       <c r="AN38" s="40" t="s">
         <v>50</v>
       </c>
@@ -4709,7 +4711,7 @@
       <c r="BG38" s="66"/>
     </row>
     <row r="39" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="148"/>
+      <c r="A39" s="143"/>
       <c r="B39" s="40" t="s">
         <v>49</v>
       </c>
@@ -4717,41 +4719,41 @@
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="197"/>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="197"/>
-      <c r="R39" s="197"/>
-      <c r="S39" s="197"/>
-      <c r="T39" s="197"/>
-      <c r="U39" s="197"/>
-      <c r="V39" s="197"/>
-      <c r="W39" s="197"/>
-      <c r="X39" s="197"/>
-      <c r="Y39" s="197"/>
-      <c r="Z39" s="197"/>
-      <c r="AA39" s="197"/>
-      <c r="AB39" s="197"/>
-      <c r="AC39" s="197"/>
-      <c r="AD39" s="197"/>
-      <c r="AE39" s="197"/>
-      <c r="AF39" s="197"/>
-      <c r="AG39" s="197"/>
-      <c r="AH39" s="197"/>
-      <c r="AI39" s="197"/>
-      <c r="AJ39" s="197"/>
-      <c r="AK39" s="197"/>
-      <c r="AL39" s="197"/>
-      <c r="AM39" s="197"/>
+      <c r="G39" s="206" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="206"/>
+      <c r="N39" s="206"/>
+      <c r="O39" s="206"/>
+      <c r="P39" s="206"/>
+      <c r="Q39" s="206"/>
+      <c r="R39" s="206"/>
+      <c r="S39" s="206"/>
+      <c r="T39" s="206"/>
+      <c r="U39" s="206"/>
+      <c r="V39" s="206"/>
+      <c r="W39" s="206"/>
+      <c r="X39" s="206"/>
+      <c r="Y39" s="206"/>
+      <c r="Z39" s="206"/>
+      <c r="AA39" s="206"/>
+      <c r="AB39" s="206"/>
+      <c r="AC39" s="206"/>
+      <c r="AD39" s="206"/>
+      <c r="AE39" s="206"/>
+      <c r="AF39" s="206"/>
+      <c r="AG39" s="206"/>
+      <c r="AH39" s="206"/>
+      <c r="AI39" s="206"/>
+      <c r="AJ39" s="206"/>
+      <c r="AK39" s="206"/>
+      <c r="AL39" s="206"/>
+      <c r="AM39" s="206"/>
       <c r="AN39" s="40" t="s">
         <v>51</v>
       </c>
@@ -4776,47 +4778,47 @@
       <c r="BG39" s="66"/>
     </row>
     <row r="40" spans="1:59" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="148"/>
+      <c r="A40" s="143"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="198" t="s">
+      <c r="G40" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="198"/>
-      <c r="O40" s="198"/>
-      <c r="P40" s="198"/>
-      <c r="Q40" s="198"/>
-      <c r="R40" s="198"/>
-      <c r="S40" s="198"/>
-      <c r="T40" s="198"/>
-      <c r="U40" s="198"/>
-      <c r="V40" s="198"/>
-      <c r="W40" s="198"/>
-      <c r="X40" s="198"/>
-      <c r="Y40" s="198"/>
-      <c r="Z40" s="198"/>
-      <c r="AA40" s="198"/>
-      <c r="AB40" s="198"/>
-      <c r="AC40" s="198"/>
-      <c r="AD40" s="198"/>
-      <c r="AE40" s="198"/>
-      <c r="AF40" s="198"/>
-      <c r="AG40" s="198"/>
-      <c r="AH40" s="198"/>
-      <c r="AI40" s="198"/>
-      <c r="AJ40" s="198"/>
-      <c r="AK40" s="198"/>
-      <c r="AL40" s="198"/>
-      <c r="AM40" s="198"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="207"/>
+      <c r="P40" s="207"/>
+      <c r="Q40" s="207"/>
+      <c r="R40" s="207"/>
+      <c r="S40" s="207"/>
+      <c r="T40" s="207"/>
+      <c r="U40" s="207"/>
+      <c r="V40" s="207"/>
+      <c r="W40" s="207"/>
+      <c r="X40" s="207"/>
+      <c r="Y40" s="207"/>
+      <c r="Z40" s="207"/>
+      <c r="AA40" s="207"/>
+      <c r="AB40" s="207"/>
+      <c r="AC40" s="207"/>
+      <c r="AD40" s="207"/>
+      <c r="AE40" s="207"/>
+      <c r="AF40" s="207"/>
+      <c r="AG40" s="207"/>
+      <c r="AH40" s="207"/>
+      <c r="AI40" s="207"/>
+      <c r="AJ40" s="207"/>
+      <c r="AK40" s="207"/>
+      <c r="AL40" s="207"/>
+      <c r="AM40" s="207"/>
       <c r="AN40" s="40"/>
       <c r="AO40" s="40"/>
       <c r="AP40" s="40"/>
@@ -4839,7 +4841,7 @@
       <c r="BG40" s="66"/>
     </row>
     <row r="41" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="148"/>
+      <c r="A41" s="143"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -4867,42 +4869,42 @@
       <c r="Z41" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="AA41" s="197"/>
-      <c r="AB41" s="197"/>
-      <c r="AC41" s="197"/>
-      <c r="AD41" s="197"/>
-      <c r="AE41" s="197"/>
-      <c r="AF41" s="197"/>
-      <c r="AG41" s="197"/>
-      <c r="AH41" s="197"/>
-      <c r="AI41" s="197"/>
-      <c r="AJ41" s="197"/>
-      <c r="AK41" s="197"/>
-      <c r="AL41" s="197"/>
-      <c r="AM41" s="197"/>
-      <c r="AN41" s="197"/>
-      <c r="AO41" s="197"/>
-      <c r="AP41" s="197"/>
+      <c r="AA41" s="206"/>
+      <c r="AB41" s="206"/>
+      <c r="AC41" s="206"/>
+      <c r="AD41" s="206"/>
+      <c r="AE41" s="206"/>
+      <c r="AF41" s="206"/>
+      <c r="AG41" s="206"/>
+      <c r="AH41" s="206"/>
+      <c r="AI41" s="206"/>
+      <c r="AJ41" s="206"/>
+      <c r="AK41" s="206"/>
+      <c r="AL41" s="206"/>
+      <c r="AM41" s="206"/>
+      <c r="AN41" s="206"/>
+      <c r="AO41" s="206"/>
+      <c r="AP41" s="206"/>
       <c r="AQ41" s="40"/>
-      <c r="AR41" s="73"/>
-      <c r="AS41" s="74"/>
-      <c r="AT41" s="74"/>
-      <c r="AU41" s="74"/>
-      <c r="AV41" s="74"/>
-      <c r="AW41" s="74"/>
-      <c r="AX41" s="74"/>
-      <c r="AY41" s="74"/>
-      <c r="AZ41" s="74"/>
-      <c r="BA41" s="74"/>
-      <c r="BB41" s="74"/>
-      <c r="BC41" s="74"/>
-      <c r="BD41" s="74"/>
-      <c r="BE41" s="74"/>
-      <c r="BF41" s="116"/>
+      <c r="AR41" s="209"/>
+      <c r="AS41" s="210"/>
+      <c r="AT41" s="210"/>
+      <c r="AU41" s="210"/>
+      <c r="AV41" s="210"/>
+      <c r="AW41" s="210"/>
+      <c r="AX41" s="210"/>
+      <c r="AY41" s="210"/>
+      <c r="AZ41" s="210"/>
+      <c r="BA41" s="210"/>
+      <c r="BB41" s="210"/>
+      <c r="BC41" s="210"/>
+      <c r="BD41" s="210"/>
+      <c r="BE41" s="211"/>
+      <c r="BF41" s="105"/>
       <c r="BG41" s="66"/>
     </row>
     <row r="42" spans="1:59" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="148"/>
+      <c r="A42" s="143"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
@@ -4928,44 +4930,44 @@
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
       <c r="Z42" s="39"/>
-      <c r="AA42" s="200" t="s">
+      <c r="AA42" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="AB42" s="200"/>
-      <c r="AC42" s="200"/>
-      <c r="AD42" s="200"/>
-      <c r="AE42" s="200"/>
-      <c r="AF42" s="200"/>
-      <c r="AG42" s="200"/>
-      <c r="AH42" s="200"/>
-      <c r="AI42" s="200"/>
-      <c r="AJ42" s="200"/>
-      <c r="AK42" s="200"/>
-      <c r="AL42" s="200"/>
-      <c r="AM42" s="200"/>
-      <c r="AN42" s="200"/>
-      <c r="AO42" s="200"/>
-      <c r="AP42" s="200"/>
+      <c r="AB42" s="205"/>
+      <c r="AC42" s="205"/>
+      <c r="AD42" s="205"/>
+      <c r="AE42" s="205"/>
+      <c r="AF42" s="205"/>
+      <c r="AG42" s="205"/>
+      <c r="AH42" s="205"/>
+      <c r="AI42" s="205"/>
+      <c r="AJ42" s="205"/>
+      <c r="AK42" s="205"/>
+      <c r="AL42" s="205"/>
+      <c r="AM42" s="205"/>
+      <c r="AN42" s="205"/>
+      <c r="AO42" s="205"/>
+      <c r="AP42" s="205"/>
       <c r="AQ42" s="40"/>
-      <c r="AR42" s="75"/>
-      <c r="AS42" s="76"/>
-      <c r="AT42" s="76"/>
-      <c r="AU42" s="76"/>
-      <c r="AV42" s="76"/>
-      <c r="AW42" s="76"/>
-      <c r="AX42" s="76"/>
-      <c r="AY42" s="76"/>
-      <c r="AZ42" s="76"/>
-      <c r="BA42" s="76"/>
-      <c r="BB42" s="76"/>
-      <c r="BC42" s="76"/>
-      <c r="BD42" s="76"/>
-      <c r="BE42" s="77"/>
-      <c r="BF42" s="116"/>
+      <c r="AR42" s="212"/>
+      <c r="AS42" s="213"/>
+      <c r="AT42" s="213"/>
+      <c r="AU42" s="213"/>
+      <c r="AV42" s="213"/>
+      <c r="AW42" s="213"/>
+      <c r="AX42" s="213"/>
+      <c r="AY42" s="213"/>
+      <c r="AZ42" s="213"/>
+      <c r="BA42" s="213"/>
+      <c r="BB42" s="213"/>
+      <c r="BC42" s="213"/>
+      <c r="BD42" s="213"/>
+      <c r="BE42" s="214"/>
+      <c r="BF42" s="105"/>
       <c r="BG42" s="66"/>
     </row>
     <row r="43" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="148"/>
+      <c r="A43" s="143"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
@@ -4973,17 +4975,17 @@
       <c r="F43" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="197"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
-      <c r="O43" s="197"/>
-      <c r="P43" s="197"/>
-      <c r="Q43" s="197"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
+      <c r="I43" s="206"/>
+      <c r="J43" s="206"/>
+      <c r="K43" s="206"/>
+      <c r="L43" s="206"/>
+      <c r="M43" s="206"/>
+      <c r="N43" s="206"/>
+      <c r="O43" s="206"/>
+      <c r="P43" s="206"/>
+      <c r="Q43" s="206"/>
       <c r="R43" s="40"/>
       <c r="S43" s="40"/>
       <c r="T43" s="40"/>
@@ -4995,60 +4997,60 @@
       <c r="Z43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="AA43" s="197"/>
-      <c r="AB43" s="197"/>
-      <c r="AC43" s="197"/>
-      <c r="AD43" s="197"/>
-      <c r="AE43" s="197"/>
-      <c r="AF43" s="197"/>
-      <c r="AG43" s="197"/>
-      <c r="AH43" s="197"/>
-      <c r="AI43" s="197"/>
-      <c r="AJ43" s="197"/>
-      <c r="AK43" s="197"/>
-      <c r="AL43" s="197"/>
-      <c r="AM43" s="197"/>
-      <c r="AN43" s="197"/>
-      <c r="AO43" s="197"/>
-      <c r="AP43" s="197"/>
+      <c r="AA43" s="206"/>
+      <c r="AB43" s="206"/>
+      <c r="AC43" s="206"/>
+      <c r="AD43" s="206"/>
+      <c r="AE43" s="206"/>
+      <c r="AF43" s="206"/>
+      <c r="AG43" s="206"/>
+      <c r="AH43" s="206"/>
+      <c r="AI43" s="206"/>
+      <c r="AJ43" s="206"/>
+      <c r="AK43" s="206"/>
+      <c r="AL43" s="206"/>
+      <c r="AM43" s="206"/>
+      <c r="AN43" s="206"/>
+      <c r="AO43" s="206"/>
+      <c r="AP43" s="206"/>
       <c r="AQ43" s="40"/>
-      <c r="AR43" s="78"/>
-      <c r="AS43" s="79"/>
-      <c r="AT43" s="79"/>
-      <c r="AU43" s="79"/>
-      <c r="AV43" s="79"/>
-      <c r="AW43" s="79"/>
-      <c r="AX43" s="79"/>
-      <c r="AY43" s="79"/>
-      <c r="AZ43" s="79"/>
-      <c r="BA43" s="79"/>
-      <c r="BB43" s="79"/>
-      <c r="BC43" s="79"/>
-      <c r="BD43" s="79"/>
-      <c r="BE43" s="80"/>
-      <c r="BF43" s="116"/>
+      <c r="AR43" s="137"/>
+      <c r="AS43" s="138"/>
+      <c r="AT43" s="138"/>
+      <c r="AU43" s="138"/>
+      <c r="AV43" s="138"/>
+      <c r="AW43" s="138"/>
+      <c r="AX43" s="138"/>
+      <c r="AY43" s="138"/>
+      <c r="AZ43" s="138"/>
+      <c r="BA43" s="138"/>
+      <c r="BB43" s="138"/>
+      <c r="BC43" s="138"/>
+      <c r="BD43" s="138"/>
+      <c r="BE43" s="139"/>
+      <c r="BF43" s="105"/>
       <c r="BG43" s="66"/>
     </row>
     <row r="44" spans="1:59" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="148"/>
+      <c r="A44" s="143"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="200" t="s">
+      <c r="G44" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="200"/>
-      <c r="K44" s="200"/>
-      <c r="L44" s="200"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="200"/>
-      <c r="O44" s="200"/>
-      <c r="P44" s="200"/>
-      <c r="Q44" s="200"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205"/>
+      <c r="J44" s="205"/>
+      <c r="K44" s="205"/>
+      <c r="L44" s="205"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="205"/>
+      <c r="O44" s="205"/>
+      <c r="P44" s="205"/>
+      <c r="Q44" s="205"/>
       <c r="R44" s="40"/>
       <c r="S44" s="40"/>
       <c r="T44" s="40"/>
@@ -5058,44 +5060,44 @@
       <c r="X44" s="40"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
-      <c r="AA44" s="200" t="s">
+      <c r="AA44" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="AB44" s="200"/>
-      <c r="AC44" s="200"/>
-      <c r="AD44" s="200"/>
-      <c r="AE44" s="200"/>
-      <c r="AF44" s="200"/>
-      <c r="AG44" s="200"/>
-      <c r="AH44" s="200"/>
-      <c r="AI44" s="200"/>
-      <c r="AJ44" s="200"/>
-      <c r="AK44" s="200"/>
-      <c r="AL44" s="200"/>
-      <c r="AM44" s="200"/>
-      <c r="AN44" s="200"/>
-      <c r="AO44" s="200"/>
-      <c r="AP44" s="200"/>
+      <c r="AB44" s="205"/>
+      <c r="AC44" s="205"/>
+      <c r="AD44" s="205"/>
+      <c r="AE44" s="205"/>
+      <c r="AF44" s="205"/>
+      <c r="AG44" s="205"/>
+      <c r="AH44" s="205"/>
+      <c r="AI44" s="205"/>
+      <c r="AJ44" s="205"/>
+      <c r="AK44" s="205"/>
+      <c r="AL44" s="205"/>
+      <c r="AM44" s="205"/>
+      <c r="AN44" s="205"/>
+      <c r="AO44" s="205"/>
+      <c r="AP44" s="205"/>
       <c r="AQ44" s="40"/>
-      <c r="AR44" s="81"/>
-      <c r="AS44" s="82"/>
-      <c r="AT44" s="82"/>
-      <c r="AU44" s="82"/>
-      <c r="AV44" s="82"/>
-      <c r="AW44" s="82"/>
-      <c r="AX44" s="82"/>
-      <c r="AY44" s="82"/>
-      <c r="AZ44" s="82"/>
-      <c r="BA44" s="82"/>
-      <c r="BB44" s="82"/>
-      <c r="BC44" s="82"/>
-      <c r="BD44" s="82"/>
-      <c r="BE44" s="83"/>
-      <c r="BF44" s="116"/>
+      <c r="AR44" s="140"/>
+      <c r="AS44" s="141"/>
+      <c r="AT44" s="141"/>
+      <c r="AU44" s="141"/>
+      <c r="AV44" s="141"/>
+      <c r="AW44" s="141"/>
+      <c r="AX44" s="141"/>
+      <c r="AY44" s="141"/>
+      <c r="AZ44" s="141"/>
+      <c r="BA44" s="141"/>
+      <c r="BB44" s="141"/>
+      <c r="BC44" s="141"/>
+      <c r="BD44" s="141"/>
+      <c r="BE44" s="142"/>
+      <c r="BF44" s="105"/>
       <c r="BG44" s="66"/>
     </row>
     <row r="45" spans="1:59" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="148"/>
+      <c r="A45" s="143"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -5156,7 +5158,7 @@
       <c r="BG45" s="66"/>
     </row>
     <row r="46" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="148"/>
+      <c r="A46" s="143"/>
       <c r="B46" s="40" t="s">
         <v>56</v>
       </c>
@@ -5173,19 +5175,19 @@
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="40"/>
-      <c r="P46" s="197"/>
-      <c r="Q46" s="197"/>
-      <c r="R46" s="197"/>
-      <c r="S46" s="197"/>
-      <c r="T46" s="197"/>
-      <c r="U46" s="197"/>
-      <c r="V46" s="197"/>
-      <c r="W46" s="197"/>
-      <c r="X46" s="197"/>
-      <c r="Y46" s="197"/>
-      <c r="Z46" s="197"/>
-      <c r="AA46" s="197"/>
-      <c r="AB46" s="197"/>
+      <c r="P46" s="206"/>
+      <c r="Q46" s="206"/>
+      <c r="R46" s="206"/>
+      <c r="S46" s="206"/>
+      <c r="T46" s="206"/>
+      <c r="U46" s="206"/>
+      <c r="V46" s="206"/>
+      <c r="W46" s="206"/>
+      <c r="X46" s="206"/>
+      <c r="Y46" s="206"/>
+      <c r="Z46" s="206"/>
+      <c r="AA46" s="206"/>
+      <c r="AB46" s="206"/>
       <c r="AC46" s="40" t="s">
         <v>50</v>
       </c>
@@ -5200,32 +5202,32 @@
       <c r="AJ46" s="40"/>
       <c r="AK46" s="40"/>
       <c r="AL46" s="40"/>
-      <c r="AM46" s="197"/>
-      <c r="AN46" s="197"/>
-      <c r="AO46" s="197"/>
-      <c r="AP46" s="197"/>
-      <c r="AQ46" s="197"/>
-      <c r="AR46" s="197"/>
+      <c r="AM46" s="206"/>
+      <c r="AN46" s="206"/>
+      <c r="AO46" s="206"/>
+      <c r="AP46" s="206"/>
+      <c r="AQ46" s="206"/>
+      <c r="AR46" s="206"/>
       <c r="AS46" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="AT46" s="197"/>
-      <c r="AU46" s="197"/>
-      <c r="AV46" s="197"/>
-      <c r="AW46" s="197"/>
-      <c r="AX46" s="197"/>
-      <c r="AY46" s="197"/>
-      <c r="AZ46" s="197"/>
-      <c r="BA46" s="197"/>
-      <c r="BB46" s="197"/>
-      <c r="BC46" s="197"/>
-      <c r="BD46" s="197"/>
-      <c r="BE46" s="197"/>
+      <c r="AT46" s="206"/>
+      <c r="AU46" s="206"/>
+      <c r="AV46" s="206"/>
+      <c r="AW46" s="206"/>
+      <c r="AX46" s="206"/>
+      <c r="AY46" s="206"/>
+      <c r="AZ46" s="206"/>
+      <c r="BA46" s="206"/>
+      <c r="BB46" s="206"/>
+      <c r="BC46" s="206"/>
+      <c r="BD46" s="206"/>
+      <c r="BE46" s="206"/>
       <c r="BF46" s="40"/>
       <c r="BG46" s="66"/>
     </row>
     <row r="47" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="148"/>
+      <c r="A47" s="143"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
@@ -5243,18 +5245,18 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
-      <c r="S47" s="211" t="s">
+      <c r="S47" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="T47" s="211"/>
-      <c r="U47" s="211"/>
-      <c r="V47" s="211"/>
-      <c r="W47" s="211"/>
-      <c r="X47" s="211"/>
-      <c r="Y47" s="211"/>
-      <c r="Z47" s="211"/>
-      <c r="AA47" s="211"/>
-      <c r="AB47" s="211"/>
+      <c r="T47" s="204"/>
+      <c r="U47" s="204"/>
+      <c r="V47" s="204"/>
+      <c r="W47" s="204"/>
+      <c r="X47" s="204"/>
+      <c r="Y47" s="204"/>
+      <c r="Z47" s="204"/>
+      <c r="AA47" s="204"/>
+      <c r="AB47" s="204"/>
       <c r="AC47" s="40"/>
       <c r="AD47" s="40"/>
       <c r="AE47" s="63"/>
@@ -5264,100 +5266,100 @@
       </c>
       <c r="AH47" s="40"/>
       <c r="AI47" s="40"/>
-      <c r="AJ47" s="197"/>
-      <c r="AK47" s="197"/>
-      <c r="AL47" s="197"/>
-      <c r="AM47" s="197"/>
-      <c r="AN47" s="197"/>
-      <c r="AO47" s="197"/>
-      <c r="AP47" s="197"/>
-      <c r="AQ47" s="197"/>
-      <c r="AR47" s="197"/>
-      <c r="AS47" s="197"/>
-      <c r="AT47" s="197"/>
-      <c r="AU47" s="197"/>
-      <c r="AV47" s="197"/>
-      <c r="AW47" s="197"/>
-      <c r="AX47" s="197"/>
-      <c r="AY47" s="197"/>
-      <c r="AZ47" s="197"/>
-      <c r="BA47" s="197"/>
-      <c r="BB47" s="197"/>
-      <c r="BC47" s="197"/>
-      <c r="BD47" s="197"/>
-      <c r="BE47" s="197"/>
+      <c r="AJ47" s="206"/>
+      <c r="AK47" s="206"/>
+      <c r="AL47" s="206"/>
+      <c r="AM47" s="206"/>
+      <c r="AN47" s="206"/>
+      <c r="AO47" s="206"/>
+      <c r="AP47" s="206"/>
+      <c r="AQ47" s="206"/>
+      <c r="AR47" s="206"/>
+      <c r="AS47" s="206"/>
+      <c r="AT47" s="206"/>
+      <c r="AU47" s="206"/>
+      <c r="AV47" s="206"/>
+      <c r="AW47" s="206"/>
+      <c r="AX47" s="206"/>
+      <c r="AY47" s="206"/>
+      <c r="AZ47" s="206"/>
+      <c r="BA47" s="206"/>
+      <c r="BB47" s="206"/>
+      <c r="BC47" s="206"/>
+      <c r="BD47" s="206"/>
+      <c r="BE47" s="206"/>
       <c r="BF47" s="40"/>
       <c r="BG47" s="66"/>
     </row>
     <row r="48" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="148"/>
-      <c r="B48" s="212" t="s">
+      <c r="A48" s="143"/>
+      <c r="B48" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="212"/>
-      <c r="K48" s="213" t="s">
-        <v>107</v>
-      </c>
-      <c r="L48" s="213"/>
-      <c r="M48" s="213"/>
-      <c r="N48" s="213"/>
-      <c r="O48" s="213"/>
-      <c r="P48" s="213"/>
-      <c r="Q48" s="213"/>
-      <c r="R48" s="213"/>
-      <c r="S48" s="213"/>
-      <c r="T48" s="213"/>
-      <c r="U48" s="213"/>
-      <c r="V48" s="213"/>
-      <c r="W48" s="213"/>
-      <c r="X48" s="213"/>
-      <c r="Y48" s="213"/>
-      <c r="Z48" s="213"/>
-      <c r="AA48" s="213"/>
-      <c r="AB48" s="213"/>
-      <c r="AC48" s="213"/>
-      <c r="AD48" s="213"/>
-      <c r="AE48" s="213"/>
+      <c r="C48" s="215"/>
+      <c r="D48" s="215"/>
+      <c r="E48" s="215"/>
+      <c r="F48" s="215"/>
+      <c r="G48" s="215"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="216" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="216"/>
+      <c r="M48" s="216"/>
+      <c r="N48" s="216"/>
+      <c r="O48" s="216"/>
+      <c r="P48" s="216"/>
+      <c r="Q48" s="216"/>
+      <c r="R48" s="216"/>
+      <c r="S48" s="216"/>
+      <c r="T48" s="216"/>
+      <c r="U48" s="216"/>
+      <c r="V48" s="216"/>
+      <c r="W48" s="216"/>
+      <c r="X48" s="216"/>
+      <c r="Y48" s="216"/>
+      <c r="Z48" s="216"/>
+      <c r="AA48" s="216"/>
+      <c r="AB48" s="216"/>
+      <c r="AC48" s="216"/>
+      <c r="AD48" s="216"/>
+      <c r="AE48" s="216"/>
       <c r="AF48" s="64"/>
       <c r="AG48" s="63"/>
       <c r="AH48" s="40"/>
       <c r="AI48" s="40"/>
       <c r="AJ48" s="40"/>
-      <c r="AK48" s="211" t="s">
+      <c r="AK48" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="AL48" s="211"/>
-      <c r="AM48" s="211"/>
-      <c r="AN48" s="211"/>
-      <c r="AO48" s="211"/>
-      <c r="AP48" s="211"/>
-      <c r="AQ48" s="211"/>
-      <c r="AR48" s="211"/>
-      <c r="AS48" s="211"/>
-      <c r="AT48" s="211"/>
-      <c r="AU48" s="211"/>
-      <c r="AV48" s="211"/>
-      <c r="AW48" s="211"/>
-      <c r="AX48" s="211"/>
-      <c r="AY48" s="211"/>
-      <c r="AZ48" s="211"/>
-      <c r="BA48" s="211"/>
-      <c r="BB48" s="211"/>
-      <c r="BC48" s="211"/>
-      <c r="BD48" s="211"/>
-      <c r="BE48" s="211"/>
+      <c r="AL48" s="204"/>
+      <c r="AM48" s="204"/>
+      <c r="AN48" s="204"/>
+      <c r="AO48" s="204"/>
+      <c r="AP48" s="204"/>
+      <c r="AQ48" s="204"/>
+      <c r="AR48" s="204"/>
+      <c r="AS48" s="204"/>
+      <c r="AT48" s="204"/>
+      <c r="AU48" s="204"/>
+      <c r="AV48" s="204"/>
+      <c r="AW48" s="204"/>
+      <c r="AX48" s="204"/>
+      <c r="AY48" s="204"/>
+      <c r="AZ48" s="204"/>
+      <c r="BA48" s="204"/>
+      <c r="BB48" s="204"/>
+      <c r="BC48" s="204"/>
+      <c r="BD48" s="204"/>
+      <c r="BE48" s="204"/>
       <c r="BF48" s="40"/>
       <c r="BG48" s="66"/>
     </row>
     <row r="49" spans="1:59" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="148"/>
+      <c r="A49" s="143"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
@@ -5368,120 +5370,120 @@
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
-      <c r="L49" s="211" t="s">
+      <c r="L49" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="M49" s="211"/>
-      <c r="N49" s="211"/>
-      <c r="O49" s="211"/>
-      <c r="P49" s="211"/>
-      <c r="Q49" s="211"/>
-      <c r="R49" s="211"/>
-      <c r="S49" s="211"/>
-      <c r="T49" s="211"/>
-      <c r="U49" s="211"/>
-      <c r="V49" s="211"/>
-      <c r="W49" s="211"/>
-      <c r="X49" s="211"/>
-      <c r="Y49" s="211"/>
-      <c r="Z49" s="211"/>
-      <c r="AA49" s="211"/>
-      <c r="AB49" s="211"/>
-      <c r="AC49" s="211"/>
-      <c r="AD49" s="211"/>
-      <c r="AE49" s="211"/>
+      <c r="M49" s="204"/>
+      <c r="N49" s="204"/>
+      <c r="O49" s="204"/>
+      <c r="P49" s="204"/>
+      <c r="Q49" s="204"/>
+      <c r="R49" s="204"/>
+      <c r="S49" s="204"/>
+      <c r="T49" s="204"/>
+      <c r="U49" s="204"/>
+      <c r="V49" s="204"/>
+      <c r="W49" s="204"/>
+      <c r="X49" s="204"/>
+      <c r="Y49" s="204"/>
+      <c r="Z49" s="204"/>
+      <c r="AA49" s="204"/>
+      <c r="AB49" s="204"/>
+      <c r="AC49" s="204"/>
+      <c r="AD49" s="204"/>
+      <c r="AE49" s="204"/>
       <c r="AF49" s="64"/>
       <c r="AG49" s="63"/>
-      <c r="AH49" s="197"/>
-      <c r="AI49" s="197"/>
-      <c r="AJ49" s="197"/>
-      <c r="AK49" s="197"/>
-      <c r="AL49" s="197"/>
-      <c r="AM49" s="197"/>
-      <c r="AN49" s="197"/>
-      <c r="AO49" s="197"/>
-      <c r="AP49" s="197"/>
-      <c r="AQ49" s="197"/>
-      <c r="AR49" s="197"/>
-      <c r="AS49" s="197"/>
-      <c r="AT49" s="197"/>
-      <c r="AU49" s="197"/>
-      <c r="AV49" s="197"/>
-      <c r="AW49" s="197"/>
-      <c r="AX49" s="197"/>
-      <c r="AY49" s="197"/>
-      <c r="AZ49" s="197"/>
-      <c r="BA49" s="197"/>
-      <c r="BB49" s="197"/>
-      <c r="BC49" s="197"/>
-      <c r="BD49" s="197"/>
-      <c r="BE49" s="197"/>
+      <c r="AH49" s="206"/>
+      <c r="AI49" s="206"/>
+      <c r="AJ49" s="206"/>
+      <c r="AK49" s="206"/>
+      <c r="AL49" s="206"/>
+      <c r="AM49" s="206"/>
+      <c r="AN49" s="206"/>
+      <c r="AO49" s="206"/>
+      <c r="AP49" s="206"/>
+      <c r="AQ49" s="206"/>
+      <c r="AR49" s="206"/>
+      <c r="AS49" s="206"/>
+      <c r="AT49" s="206"/>
+      <c r="AU49" s="206"/>
+      <c r="AV49" s="206"/>
+      <c r="AW49" s="206"/>
+      <c r="AX49" s="206"/>
+      <c r="AY49" s="206"/>
+      <c r="AZ49" s="206"/>
+      <c r="BA49" s="206"/>
+      <c r="BB49" s="206"/>
+      <c r="BC49" s="206"/>
+      <c r="BD49" s="206"/>
+      <c r="BE49" s="206"/>
       <c r="BF49" s="40"/>
       <c r="BG49" s="66"/>
     </row>
     <row r="50" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="148"/>
-      <c r="B50" s="213"/>
-      <c r="C50" s="213"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="213"/>
-      <c r="F50" s="213"/>
-      <c r="G50" s="213"/>
-      <c r="H50" s="213"/>
-      <c r="I50" s="213"/>
-      <c r="J50" s="213"/>
-      <c r="K50" s="213"/>
-      <c r="L50" s="213"/>
-      <c r="M50" s="213"/>
-      <c r="N50" s="213"/>
-      <c r="O50" s="213"/>
-      <c r="P50" s="213"/>
-      <c r="Q50" s="213"/>
-      <c r="R50" s="213"/>
-      <c r="S50" s="213"/>
-      <c r="T50" s="213"/>
-      <c r="U50" s="213"/>
-      <c r="V50" s="213"/>
-      <c r="W50" s="213"/>
-      <c r="X50" s="213"/>
-      <c r="Y50" s="213"/>
-      <c r="Z50" s="213"/>
-      <c r="AA50" s="213"/>
-      <c r="AB50" s="213"/>
-      <c r="AC50" s="213"/>
-      <c r="AD50" s="213"/>
-      <c r="AE50" s="213"/>
+      <c r="A50" s="143"/>
+      <c r="B50" s="216"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="216"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="216"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="216"/>
+      <c r="L50" s="216"/>
+      <c r="M50" s="216"/>
+      <c r="N50" s="216"/>
+      <c r="O50" s="216"/>
+      <c r="P50" s="216"/>
+      <c r="Q50" s="216"/>
+      <c r="R50" s="216"/>
+      <c r="S50" s="216"/>
+      <c r="T50" s="216"/>
+      <c r="U50" s="216"/>
+      <c r="V50" s="216"/>
+      <c r="W50" s="216"/>
+      <c r="X50" s="216"/>
+      <c r="Y50" s="216"/>
+      <c r="Z50" s="216"/>
+      <c r="AA50" s="216"/>
+      <c r="AB50" s="216"/>
+      <c r="AC50" s="216"/>
+      <c r="AD50" s="216"/>
+      <c r="AE50" s="216"/>
       <c r="AF50" s="64"/>
       <c r="AG50" s="63"/>
-      <c r="AH50" s="197"/>
-      <c r="AI50" s="197"/>
-      <c r="AJ50" s="197"/>
-      <c r="AK50" s="197"/>
-      <c r="AL50" s="197"/>
-      <c r="AM50" s="197"/>
-      <c r="AN50" s="197"/>
-      <c r="AO50" s="197"/>
-      <c r="AP50" s="197"/>
-      <c r="AQ50" s="197"/>
-      <c r="AR50" s="197"/>
-      <c r="AS50" s="197"/>
-      <c r="AT50" s="197"/>
-      <c r="AU50" s="197"/>
-      <c r="AV50" s="197"/>
-      <c r="AW50" s="197"/>
-      <c r="AX50" s="197"/>
-      <c r="AY50" s="197"/>
-      <c r="AZ50" s="197"/>
-      <c r="BA50" s="197"/>
-      <c r="BB50" s="197"/>
-      <c r="BC50" s="197"/>
-      <c r="BD50" s="197"/>
-      <c r="BE50" s="197"/>
+      <c r="AH50" s="206"/>
+      <c r="AI50" s="206"/>
+      <c r="AJ50" s="206"/>
+      <c r="AK50" s="206"/>
+      <c r="AL50" s="206"/>
+      <c r="AM50" s="206"/>
+      <c r="AN50" s="206"/>
+      <c r="AO50" s="206"/>
+      <c r="AP50" s="206"/>
+      <c r="AQ50" s="206"/>
+      <c r="AR50" s="206"/>
+      <c r="AS50" s="206"/>
+      <c r="AT50" s="206"/>
+      <c r="AU50" s="206"/>
+      <c r="AV50" s="206"/>
+      <c r="AW50" s="206"/>
+      <c r="AX50" s="206"/>
+      <c r="AY50" s="206"/>
+      <c r="AZ50" s="206"/>
+      <c r="BA50" s="206"/>
+      <c r="BB50" s="206"/>
+      <c r="BC50" s="206"/>
+      <c r="BD50" s="206"/>
+      <c r="BE50" s="206"/>
       <c r="BF50" s="40"/>
       <c r="BG50" s="66"/>
     </row>
     <row r="51" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="148"/>
+      <c r="A51" s="143"/>
       <c r="B51" s="40" t="s">
         <v>58</v>
       </c>
@@ -5490,34 +5492,34 @@
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="214" t="s">
-        <v>108</v>
-      </c>
-      <c r="I51" s="214"/>
-      <c r="J51" s="214"/>
-      <c r="K51" s="214"/>
-      <c r="L51" s="214"/>
-      <c r="M51" s="214"/>
-      <c r="N51" s="214"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="214"/>
+      <c r="H51" s="217" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="217"/>
+      <c r="J51" s="217"/>
+      <c r="K51" s="217"/>
+      <c r="L51" s="217"/>
+      <c r="M51" s="217"/>
+      <c r="N51" s="217"/>
+      <c r="O51" s="217"/>
+      <c r="P51" s="217"/>
       <c r="Q51" s="40"/>
-      <c r="R51" s="197"/>
-      <c r="S51" s="197"/>
-      <c r="T51" s="197"/>
-      <c r="U51" s="197"/>
-      <c r="V51" s="197"/>
-      <c r="W51" s="197"/>
+      <c r="R51" s="206"/>
+      <c r="S51" s="206"/>
+      <c r="T51" s="206"/>
+      <c r="U51" s="206"/>
+      <c r="V51" s="206"/>
+      <c r="W51" s="206"/>
       <c r="X51" s="40"/>
-      <c r="Y51" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z51" s="197"/>
-      <c r="AA51" s="197"/>
-      <c r="AB51" s="197"/>
-      <c r="AC51" s="197"/>
-      <c r="AD51" s="197"/>
-      <c r="AE51" s="197"/>
+      <c r="Y51" s="206" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z51" s="206"/>
+      <c r="AA51" s="206"/>
+      <c r="AB51" s="206"/>
+      <c r="AC51" s="206"/>
+      <c r="AD51" s="206"/>
+      <c r="AE51" s="206"/>
       <c r="AF51" s="64"/>
       <c r="AG51" s="40" t="s">
         <v>68</v>
@@ -5525,32 +5527,32 @@
       <c r="AH51" s="40"/>
       <c r="AI51" s="40"/>
       <c r="AJ51" s="40"/>
-      <c r="AK51" s="214"/>
-      <c r="AL51" s="214"/>
-      <c r="AM51" s="214"/>
-      <c r="AN51" s="214"/>
-      <c r="AO51" s="214"/>
-      <c r="AP51" s="214"/>
-      <c r="AQ51" s="214"/>
-      <c r="AR51" s="214"/>
+      <c r="AK51" s="217"/>
+      <c r="AL51" s="217"/>
+      <c r="AM51" s="217"/>
+      <c r="AN51" s="217"/>
+      <c r="AO51" s="217"/>
+      <c r="AP51" s="217"/>
+      <c r="AQ51" s="217"/>
+      <c r="AR51" s="217"/>
       <c r="AS51" s="40"/>
-      <c r="AT51" s="214"/>
-      <c r="AU51" s="214"/>
-      <c r="AV51" s="214"/>
-      <c r="AW51" s="214"/>
-      <c r="AX51" s="214"/>
+      <c r="AT51" s="217"/>
+      <c r="AU51" s="217"/>
+      <c r="AV51" s="217"/>
+      <c r="AW51" s="217"/>
+      <c r="AX51" s="217"/>
       <c r="AY51" s="40"/>
-      <c r="AZ51" s="214"/>
-      <c r="BA51" s="214"/>
-      <c r="BB51" s="214"/>
-      <c r="BC51" s="214"/>
-      <c r="BD51" s="214"/>
-      <c r="BE51" s="214"/>
+      <c r="AZ51" s="217"/>
+      <c r="BA51" s="217"/>
+      <c r="BB51" s="217"/>
+      <c r="BC51" s="217"/>
+      <c r="BD51" s="217"/>
+      <c r="BE51" s="217"/>
       <c r="BF51" s="40"/>
       <c r="BG51" s="66"/>
     </row>
     <row r="52" spans="1:59" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="148"/>
+      <c r="A52" s="143"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
@@ -5558,72 +5560,72 @@
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
-      <c r="I52" s="211" t="s">
+      <c r="I52" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="211"/>
-      <c r="K52" s="211"/>
-      <c r="L52" s="211"/>
-      <c r="M52" s="211"/>
-      <c r="N52" s="211"/>
-      <c r="O52" s="211"/>
-      <c r="P52" s="211"/>
+      <c r="J52" s="204"/>
+      <c r="K52" s="204"/>
+      <c r="L52" s="204"/>
+      <c r="M52" s="204"/>
+      <c r="N52" s="204"/>
+      <c r="O52" s="204"/>
+      <c r="P52" s="204"/>
       <c r="Q52" s="40"/>
-      <c r="R52" s="200" t="s">
+      <c r="R52" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="S52" s="200"/>
-      <c r="T52" s="200"/>
-      <c r="U52" s="200"/>
-      <c r="V52" s="200"/>
-      <c r="W52" s="200"/>
+      <c r="S52" s="205"/>
+      <c r="T52" s="205"/>
+      <c r="U52" s="205"/>
+      <c r="V52" s="205"/>
+      <c r="W52" s="205"/>
       <c r="X52" s="40"/>
-      <c r="Y52" s="200" t="s">
+      <c r="Y52" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="Z52" s="200"/>
-      <c r="AA52" s="200"/>
-      <c r="AB52" s="200"/>
-      <c r="AC52" s="200"/>
-      <c r="AD52" s="200"/>
-      <c r="AE52" s="200"/>
+      <c r="Z52" s="205"/>
+      <c r="AA52" s="205"/>
+      <c r="AB52" s="205"/>
+      <c r="AC52" s="205"/>
+      <c r="AD52" s="205"/>
+      <c r="AE52" s="205"/>
       <c r="AF52" s="64"/>
       <c r="AG52" s="63"/>
       <c r="AH52" s="40"/>
       <c r="AI52" s="40"/>
       <c r="AJ52" s="40"/>
       <c r="AK52" s="40"/>
-      <c r="AL52" s="211" t="s">
+      <c r="AL52" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="AM52" s="211"/>
-      <c r="AN52" s="211"/>
-      <c r="AO52" s="211"/>
-      <c r="AP52" s="211"/>
-      <c r="AQ52" s="211"/>
-      <c r="AR52" s="211"/>
+      <c r="AM52" s="204"/>
+      <c r="AN52" s="204"/>
+      <c r="AO52" s="204"/>
+      <c r="AP52" s="204"/>
+      <c r="AQ52" s="204"/>
+      <c r="AR52" s="204"/>
       <c r="AS52" s="63"/>
-      <c r="AT52" s="211" t="s">
+      <c r="AT52" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="AU52" s="211"/>
-      <c r="AV52" s="211"/>
-      <c r="AW52" s="211"/>
-      <c r="AX52" s="211"/>
+      <c r="AU52" s="204"/>
+      <c r="AV52" s="204"/>
+      <c r="AW52" s="204"/>
+      <c r="AX52" s="204"/>
       <c r="AY52" s="63"/>
-      <c r="AZ52" s="211" t="s">
+      <c r="AZ52" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="BA52" s="211"/>
-      <c r="BB52" s="211"/>
-      <c r="BC52" s="211"/>
-      <c r="BD52" s="211"/>
-      <c r="BE52" s="211"/>
+      <c r="BA52" s="204"/>
+      <c r="BB52" s="204"/>
+      <c r="BC52" s="204"/>
+      <c r="BD52" s="204"/>
+      <c r="BE52" s="204"/>
       <c r="BF52" s="40"/>
       <c r="BG52" s="66"/>
     </row>
     <row r="53" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="148"/>
+      <c r="A53" s="143"/>
       <c r="B53" s="40" t="s">
         <v>60</v>
       </c>
@@ -5642,12 +5644,12 @@
       <c r="O53" s="40"/>
       <c r="P53" s="40"/>
       <c r="Q53" s="40"/>
-      <c r="R53" s="197"/>
-      <c r="S53" s="197"/>
-      <c r="T53" s="197"/>
-      <c r="U53" s="197"/>
-      <c r="V53" s="197"/>
-      <c r="W53" s="197"/>
+      <c r="R53" s="206"/>
+      <c r="S53" s="206"/>
+      <c r="T53" s="206"/>
+      <c r="U53" s="206"/>
+      <c r="V53" s="206"/>
+      <c r="W53" s="206"/>
       <c r="X53" s="51"/>
       <c r="Y53" s="51"/>
       <c r="Z53" s="51"/>
@@ -5656,39 +5658,39 @@
       <c r="AC53" s="51"/>
       <c r="AD53" s="51"/>
       <c r="AE53" s="51"/>
-      <c r="AF53" s="117"/>
+      <c r="AF53" s="106"/>
       <c r="AG53" s="40" t="s">
         <v>69</v>
       </c>
       <c r="AH53" s="40"/>
       <c r="AI53" s="40"/>
       <c r="AJ53" s="40"/>
-      <c r="AK53" s="197"/>
-      <c r="AL53" s="197"/>
-      <c r="AM53" s="197"/>
-      <c r="AN53" s="197"/>
-      <c r="AO53" s="197"/>
-      <c r="AP53" s="197"/>
-      <c r="AQ53" s="197"/>
-      <c r="AR53" s="197"/>
+      <c r="AK53" s="206"/>
+      <c r="AL53" s="206"/>
+      <c r="AM53" s="206"/>
+      <c r="AN53" s="206"/>
+      <c r="AO53" s="206"/>
+      <c r="AP53" s="206"/>
+      <c r="AQ53" s="206"/>
+      <c r="AR53" s="206"/>
       <c r="AS53" s="40"/>
-      <c r="AT53" s="197"/>
-      <c r="AU53" s="197"/>
-      <c r="AV53" s="197"/>
-      <c r="AW53" s="197"/>
-      <c r="AX53" s="197"/>
+      <c r="AT53" s="206"/>
+      <c r="AU53" s="206"/>
+      <c r="AV53" s="206"/>
+      <c r="AW53" s="206"/>
+      <c r="AX53" s="206"/>
       <c r="AY53" s="40"/>
-      <c r="AZ53" s="197"/>
-      <c r="BA53" s="197"/>
-      <c r="BB53" s="197"/>
-      <c r="BC53" s="197"/>
-      <c r="BD53" s="197"/>
-      <c r="BE53" s="197"/>
+      <c r="AZ53" s="206"/>
+      <c r="BA53" s="206"/>
+      <c r="BB53" s="206"/>
+      <c r="BC53" s="206"/>
+      <c r="BD53" s="206"/>
+      <c r="BE53" s="206"/>
       <c r="BF53" s="40"/>
       <c r="BG53" s="66"/>
     </row>
     <row r="54" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="148"/>
+      <c r="A54" s="143"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
       <c r="D54" s="40"/>
@@ -5705,24 +5707,24 @@
       <c r="O54" s="40"/>
       <c r="P54" s="40"/>
       <c r="Q54" s="40"/>
-      <c r="R54" s="211" t="s">
+      <c r="R54" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="S54" s="211"/>
-      <c r="T54" s="211"/>
-      <c r="U54" s="211"/>
-      <c r="V54" s="211"/>
-      <c r="W54" s="211"/>
+      <c r="S54" s="204"/>
+      <c r="T54" s="204"/>
+      <c r="U54" s="204"/>
+      <c r="V54" s="204"/>
+      <c r="W54" s="204"/>
       <c r="X54" s="40"/>
-      <c r="Y54" s="200" t="s">
+      <c r="Y54" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="Z54" s="200"/>
-      <c r="AA54" s="200"/>
-      <c r="AB54" s="200"/>
-      <c r="AC54" s="200"/>
-      <c r="AD54" s="200"/>
-      <c r="AE54" s="200"/>
+      <c r="Z54" s="205"/>
+      <c r="AA54" s="205"/>
+      <c r="AB54" s="205"/>
+      <c r="AC54" s="205"/>
+      <c r="AD54" s="205"/>
+      <c r="AE54" s="205"/>
       <c r="AF54" s="64"/>
       <c r="AG54" s="65" t="s">
         <v>74</v>
@@ -5731,37 +5733,37 @@
       <c r="AI54" s="40"/>
       <c r="AJ54" s="40"/>
       <c r="AK54" s="39"/>
-      <c r="AL54" s="211" t="s">
+      <c r="AL54" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="AM54" s="211"/>
-      <c r="AN54" s="211"/>
-      <c r="AO54" s="211"/>
-      <c r="AP54" s="211"/>
-      <c r="AQ54" s="211"/>
-      <c r="AR54" s="211"/>
+      <c r="AM54" s="204"/>
+      <c r="AN54" s="204"/>
+      <c r="AO54" s="204"/>
+      <c r="AP54" s="204"/>
+      <c r="AQ54" s="204"/>
+      <c r="AR54" s="204"/>
       <c r="AS54" s="40"/>
-      <c r="AT54" s="200" t="s">
+      <c r="AT54" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="AU54" s="200"/>
-      <c r="AV54" s="200"/>
-      <c r="AW54" s="200"/>
-      <c r="AX54" s="200"/>
+      <c r="AU54" s="205"/>
+      <c r="AV54" s="205"/>
+      <c r="AW54" s="205"/>
+      <c r="AX54" s="205"/>
       <c r="AY54" s="40"/>
-      <c r="AZ54" s="200" t="s">
+      <c r="AZ54" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="BA54" s="200"/>
-      <c r="BB54" s="200"/>
-      <c r="BC54" s="200"/>
-      <c r="BD54" s="200"/>
-      <c r="BE54" s="200"/>
+      <c r="BA54" s="205"/>
+      <c r="BB54" s="205"/>
+      <c r="BC54" s="205"/>
+      <c r="BD54" s="205"/>
+      <c r="BE54" s="205"/>
       <c r="BF54" s="40"/>
       <c r="BG54" s="66"/>
     </row>
     <row r="55" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="148"/>
+      <c r="A55" s="143"/>
       <c r="B55" s="40" t="s">
         <v>61</v>
       </c>
@@ -5771,33 +5773,33 @@
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="197" t="s">
+      <c r="I55" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="J55" s="197"/>
-      <c r="K55" s="197"/>
-      <c r="L55" s="197"/>
-      <c r="M55" s="197"/>
-      <c r="N55" s="197"/>
-      <c r="O55" s="197"/>
-      <c r="P55" s="197"/>
+      <c r="J55" s="206"/>
+      <c r="K55" s="206"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="206"/>
+      <c r="O55" s="206"/>
+      <c r="P55" s="206"/>
       <c r="Q55" s="40"/>
-      <c r="R55" s="197"/>
-      <c r="S55" s="197"/>
-      <c r="T55" s="197"/>
-      <c r="U55" s="197"/>
-      <c r="V55" s="197"/>
-      <c r="W55" s="197"/>
+      <c r="R55" s="206"/>
+      <c r="S55" s="206"/>
+      <c r="T55" s="206"/>
+      <c r="U55" s="206"/>
+      <c r="V55" s="206"/>
+      <c r="W55" s="206"/>
       <c r="X55" s="40"/>
-      <c r="Y55" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z55" s="197"/>
-      <c r="AA55" s="197"/>
-      <c r="AB55" s="197"/>
-      <c r="AC55" s="197"/>
-      <c r="AD55" s="197"/>
-      <c r="AE55" s="197"/>
+      <c r="Y55" s="206" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z55" s="206"/>
+      <c r="AA55" s="206"/>
+      <c r="AB55" s="206"/>
+      <c r="AC55" s="206"/>
+      <c r="AD55" s="206"/>
+      <c r="AE55" s="206"/>
       <c r="AF55" s="64"/>
       <c r="AG55" s="63"/>
       <c r="AH55" s="40"/>
@@ -5828,7 +5830,7 @@
       <c r="BG55" s="66"/>
     </row>
     <row r="56" spans="1:59" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="148"/>
+      <c r="A56" s="143"/>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
       <c r="D56" s="40"/>
@@ -5837,34 +5839,34 @@
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="211" t="s">
+      <c r="J56" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="K56" s="211"/>
-      <c r="L56" s="236"/>
-      <c r="M56" s="236"/>
-      <c r="N56" s="236"/>
-      <c r="O56" s="236"/>
-      <c r="P56" s="236"/>
+      <c r="K56" s="204"/>
+      <c r="L56" s="237"/>
+      <c r="M56" s="237"/>
+      <c r="N56" s="237"/>
+      <c r="O56" s="237"/>
+      <c r="P56" s="237"/>
       <c r="Q56" s="40"/>
-      <c r="R56" s="211" t="s">
+      <c r="R56" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="S56" s="211"/>
-      <c r="T56" s="211"/>
-      <c r="U56" s="211"/>
-      <c r="V56" s="211"/>
-      <c r="W56" s="211"/>
+      <c r="S56" s="204"/>
+      <c r="T56" s="204"/>
+      <c r="U56" s="204"/>
+      <c r="V56" s="204"/>
+      <c r="W56" s="204"/>
       <c r="X56" s="40"/>
-      <c r="Y56" s="200" t="s">
+      <c r="Y56" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="Z56" s="200"/>
-      <c r="AA56" s="200"/>
-      <c r="AB56" s="200"/>
-      <c r="AC56" s="200"/>
-      <c r="AD56" s="200"/>
-      <c r="AE56" s="200"/>
+      <c r="Z56" s="205"/>
+      <c r="AA56" s="205"/>
+      <c r="AB56" s="205"/>
+      <c r="AC56" s="205"/>
+      <c r="AD56" s="205"/>
+      <c r="AE56" s="205"/>
       <c r="AF56" s="64"/>
       <c r="AG56" s="63"/>
       <c r="AH56" s="40"/>
@@ -5895,7 +5897,7 @@
       <c r="BG56" s="66"/>
     </row>
     <row r="57" spans="1:59" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="148"/>
+      <c r="A57" s="143"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
@@ -5956,7 +5958,7 @@
       <c r="BG57" s="66"/>
     </row>
     <row r="58" spans="1:59" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="148"/>
+      <c r="A58" s="143"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
@@ -5966,14 +5968,14 @@
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
-      <c r="I58" s="197"/>
-      <c r="J58" s="197"/>
-      <c r="K58" s="197"/>
-      <c r="L58" s="197"/>
-      <c r="M58" s="197"/>
-      <c r="N58" s="197"/>
-      <c r="O58" s="197"/>
-      <c r="P58" s="197"/>
+      <c r="I58" s="206"/>
+      <c r="J58" s="206"/>
+      <c r="K58" s="206"/>
+      <c r="L58" s="206"/>
+      <c r="M58" s="206"/>
+      <c r="N58" s="206"/>
+      <c r="O58" s="206"/>
+      <c r="P58" s="206"/>
       <c r="Q58" s="40"/>
       <c r="R58" s="40"/>
       <c r="S58" s="40"/>
@@ -6021,7 +6023,7 @@
       <c r="BG58" s="66"/>
     </row>
     <row r="59" spans="1:59" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="148"/>
+      <c r="A59" s="143"/>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
@@ -6029,16 +6031,16 @@
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
-      <c r="I59" s="211" t="s">
+      <c r="I59" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="J59" s="211"/>
-      <c r="K59" s="211"/>
-      <c r="L59" s="211"/>
-      <c r="M59" s="211"/>
-      <c r="N59" s="211"/>
-      <c r="O59" s="211"/>
-      <c r="P59" s="211"/>
+      <c r="J59" s="204"/>
+      <c r="K59" s="204"/>
+      <c r="L59" s="204"/>
+      <c r="M59" s="204"/>
+      <c r="N59" s="204"/>
+      <c r="O59" s="204"/>
+      <c r="P59" s="204"/>
       <c r="Q59" s="40"/>
       <c r="R59" s="40"/>
       <c r="S59" s="40"/>
@@ -6084,29 +6086,13 @@
       <c r="BG59" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AO35"/>
-    <mergeCell ref="AP35:AR35"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AV35:AX35"/>
-    <mergeCell ref="A36:A59"/>
-    <mergeCell ref="AY6:BF6"/>
-    <mergeCell ref="AL52:AR52"/>
-    <mergeCell ref="R56:W56"/>
-    <mergeCell ref="Y56:AE56"/>
-    <mergeCell ref="AT51:AX51"/>
-    <mergeCell ref="AZ51:BE51"/>
-    <mergeCell ref="R53:W53"/>
-    <mergeCell ref="AT52:AX52"/>
-    <mergeCell ref="AZ52:BE52"/>
-    <mergeCell ref="AK51:AR51"/>
-    <mergeCell ref="AY35:BB35"/>
-    <mergeCell ref="BC35:BF35"/>
+  <mergeCells count="147">
     <mergeCell ref="I59:P59"/>
     <mergeCell ref="J56:P56"/>
     <mergeCell ref="I58:P58"/>
     <mergeCell ref="R54:W54"/>
+    <mergeCell ref="AL54:AR54"/>
+    <mergeCell ref="AT54:AX54"/>
     <mergeCell ref="AY5:BF5"/>
     <mergeCell ref="I14:AT14"/>
     <mergeCell ref="B7:AT8"/>
@@ -6125,8 +6111,7 @@
     <mergeCell ref="I15:AT16"/>
     <mergeCell ref="I20:AT20"/>
     <mergeCell ref="I22:AT22"/>
-    <mergeCell ref="AL54:AR54"/>
-    <mergeCell ref="AT54:AX54"/>
+    <mergeCell ref="AY6:BF6"/>
     <mergeCell ref="AZ54:BE54"/>
     <mergeCell ref="AK53:AR53"/>
     <mergeCell ref="AK48:BE48"/>
@@ -6136,6 +6121,13 @@
     <mergeCell ref="AH50:BE50"/>
     <mergeCell ref="R55:W55"/>
     <mergeCell ref="Y55:AE55"/>
+    <mergeCell ref="AL52:AR52"/>
+    <mergeCell ref="AT51:AX51"/>
+    <mergeCell ref="AZ51:BE51"/>
+    <mergeCell ref="R53:W53"/>
+    <mergeCell ref="AT52:AX52"/>
+    <mergeCell ref="AZ52:BE52"/>
+    <mergeCell ref="AK51:AR51"/>
     <mergeCell ref="I55:P55"/>
     <mergeCell ref="B48:J48"/>
     <mergeCell ref="K48:AE48"/>
@@ -6148,11 +6140,6 @@
     <mergeCell ref="Y51:AE51"/>
     <mergeCell ref="H51:P51"/>
     <mergeCell ref="Y54:AE54"/>
-    <mergeCell ref="BC36:BF36"/>
-    <mergeCell ref="AP36:AR36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AV36:AX36"/>
-    <mergeCell ref="AY36:BB36"/>
     <mergeCell ref="S47:AB47"/>
     <mergeCell ref="AA44:AP44"/>
     <mergeCell ref="G44:Q44"/>
@@ -6163,14 +6150,12 @@
     <mergeCell ref="R38:AM38"/>
     <mergeCell ref="G39:AM39"/>
     <mergeCell ref="G40:AM40"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="AM36:AO36"/>
     <mergeCell ref="G43:Q43"/>
     <mergeCell ref="AA41:AP41"/>
     <mergeCell ref="AA42:AP42"/>
     <mergeCell ref="AA43:AP43"/>
-    <mergeCell ref="B28:BF28"/>
+    <mergeCell ref="AR41:BE41"/>
+    <mergeCell ref="AR42:BE42"/>
     <mergeCell ref="AU21:AX21"/>
     <mergeCell ref="I21:AT21"/>
     <mergeCell ref="AU23:AX23"/>
@@ -6181,7 +6166,6 @@
     <mergeCell ref="AJ29:AL31"/>
     <mergeCell ref="AM29:AO31"/>
     <mergeCell ref="AP29:AR31"/>
-    <mergeCell ref="BC29:BF31"/>
     <mergeCell ref="AS29:AU31"/>
     <mergeCell ref="AV29:BB29"/>
     <mergeCell ref="AE29:AI29"/>
@@ -6191,6 +6175,8 @@
     <mergeCell ref="AE30:AG31"/>
     <mergeCell ref="AH30:AI31"/>
     <mergeCell ref="E29:U29"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="AH35:AI35"/>
     <mergeCell ref="S32:U32"/>
     <mergeCell ref="S30:U31"/>
     <mergeCell ref="V29:AA29"/>
@@ -6204,13 +6190,15 @@
     <mergeCell ref="V32:X32"/>
     <mergeCell ref="Y32:AA32"/>
     <mergeCell ref="E32:R32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="BC33:BF33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AM33:AO33"/>
+    <mergeCell ref="B28:BF28"/>
+    <mergeCell ref="BC29:BF31"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AO35"/>
+    <mergeCell ref="AP35:AR35"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="AV35:AX35"/>
+    <mergeCell ref="AY35:BB35"/>
+    <mergeCell ref="BC35:BF35"/>
     <mergeCell ref="AJ32:AL32"/>
     <mergeCell ref="AP32:AR32"/>
     <mergeCell ref="AM32:AO32"/>
@@ -6220,14 +6208,32 @@
     <mergeCell ref="BC32:BF32"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AR43:BE43"/>
+    <mergeCell ref="AR44:BE44"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="BC33:BF33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AM33:AO33"/>
     <mergeCell ref="AB33:AD33"/>
     <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
     <mergeCell ref="AV33:AX33"/>
     <mergeCell ref="AY33:BB33"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="BC36:BF36"/>
+    <mergeCell ref="AP36:AR36"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AV36:AX36"/>
+    <mergeCell ref="AY36:BB36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AL36"/>
+    <mergeCell ref="AM36:AO36"/>
+    <mergeCell ref="A36:A59"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="Y56:AE56"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="9.6874999999999999E-3" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.35433070866141736"/>
@@ -6587,16 +6593,16 @@
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
       <c r="AX6" s="4"/>
-      <c r="AY6" s="355" t="s">
+      <c r="AY6" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="AZ6" s="355"/>
-      <c r="BA6" s="355"/>
-      <c r="BB6" s="355"/>
-      <c r="BC6" s="355"/>
-      <c r="BD6" s="355"/>
-      <c r="BE6" s="355"/>
-      <c r="BF6" s="355"/>
+      <c r="AZ6" s="356"/>
+      <c r="BA6" s="356"/>
+      <c r="BB6" s="356"/>
+      <c r="BC6" s="356"/>
+      <c r="BD6" s="356"/>
+      <c r="BE6" s="356"/>
+      <c r="BF6" s="356"/>
     </row>
     <row r="7" spans="2:58" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
@@ -6650,300 +6656,300 @@
       <c r="AX7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AY7" s="356" t="s">
+      <c r="AY7" s="357" t="s">
         <v>20</v>
       </c>
-      <c r="AZ7" s="357"/>
-      <c r="BA7" s="357"/>
-      <c r="BB7" s="357"/>
-      <c r="BC7" s="357"/>
-      <c r="BD7" s="357"/>
-      <c r="BE7" s="357"/>
-      <c r="BF7" s="358"/>
+      <c r="AZ7" s="358"/>
+      <c r="BA7" s="358"/>
+      <c r="BB7" s="358"/>
+      <c r="BC7" s="358"/>
+      <c r="BD7" s="358"/>
+      <c r="BE7" s="358"/>
+      <c r="BF7" s="359"/>
     </row>
     <row r="8" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="359"/>
-      <c r="C8" s="359"/>
-      <c r="D8" s="359"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="359"/>
-      <c r="G8" s="359"/>
-      <c r="H8" s="359"/>
-      <c r="I8" s="359"/>
-      <c r="J8" s="359"/>
-      <c r="K8" s="359"/>
-      <c r="L8" s="359"/>
-      <c r="M8" s="359"/>
-      <c r="N8" s="359"/>
-      <c r="O8" s="359"/>
-      <c r="P8" s="359"/>
-      <c r="Q8" s="359"/>
-      <c r="R8" s="359"/>
-      <c r="S8" s="359"/>
-      <c r="T8" s="359"/>
-      <c r="U8" s="359"/>
-      <c r="V8" s="359"/>
-      <c r="W8" s="359"/>
-      <c r="X8" s="359"/>
-      <c r="Y8" s="359"/>
-      <c r="Z8" s="359"/>
-      <c r="AA8" s="359"/>
-      <c r="AB8" s="359"/>
-      <c r="AC8" s="359"/>
-      <c r="AD8" s="359"/>
-      <c r="AE8" s="359"/>
-      <c r="AF8" s="359"/>
-      <c r="AG8" s="359"/>
-      <c r="AH8" s="359"/>
-      <c r="AI8" s="359"/>
-      <c r="AJ8" s="359"/>
-      <c r="AK8" s="359"/>
-      <c r="AL8" s="359"/>
-      <c r="AM8" s="359"/>
-      <c r="AN8" s="359"/>
-      <c r="AO8" s="359"/>
-      <c r="AP8" s="359"/>
-      <c r="AQ8" s="359"/>
-      <c r="AR8" s="359"/>
-      <c r="AS8" s="359"/>
-      <c r="AT8" s="359"/>
+      <c r="B8" s="360"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="360"/>
+      <c r="I8" s="360"/>
+      <c r="J8" s="360"/>
+      <c r="K8" s="360"/>
+      <c r="L8" s="360"/>
+      <c r="M8" s="360"/>
+      <c r="N8" s="360"/>
+      <c r="O8" s="360"/>
+      <c r="P8" s="360"/>
+      <c r="Q8" s="360"/>
+      <c r="R8" s="360"/>
+      <c r="S8" s="360"/>
+      <c r="T8" s="360"/>
+      <c r="U8" s="360"/>
+      <c r="V8" s="360"/>
+      <c r="W8" s="360"/>
+      <c r="X8" s="360"/>
+      <c r="Y8" s="360"/>
+      <c r="Z8" s="360"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="360"/>
+      <c r="AC8" s="360"/>
+      <c r="AD8" s="360"/>
+      <c r="AE8" s="360"/>
+      <c r="AF8" s="360"/>
+      <c r="AG8" s="360"/>
+      <c r="AH8" s="360"/>
+      <c r="AI8" s="360"/>
+      <c r="AJ8" s="360"/>
+      <c r="AK8" s="360"/>
+      <c r="AL8" s="360"/>
+      <c r="AM8" s="360"/>
+      <c r="AN8" s="360"/>
+      <c r="AO8" s="360"/>
+      <c r="AP8" s="360"/>
+      <c r="AQ8" s="360"/>
+      <c r="AR8" s="360"/>
+      <c r="AS8" s="360"/>
+      <c r="AT8" s="360"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
       <c r="AX8" s="7"/>
-      <c r="AY8" s="360" t="s">
+      <c r="AY8" s="361" t="s">
         <v>72</v>
       </c>
-      <c r="AZ8" s="361"/>
-      <c r="BA8" s="361"/>
-      <c r="BB8" s="361"/>
-      <c r="BC8" s="361"/>
-      <c r="BD8" s="361"/>
-      <c r="BE8" s="361"/>
-      <c r="BF8" s="362"/>
+      <c r="AZ8" s="362"/>
+      <c r="BA8" s="362"/>
+      <c r="BB8" s="362"/>
+      <c r="BC8" s="362"/>
+      <c r="BD8" s="362"/>
+      <c r="BE8" s="362"/>
+      <c r="BF8" s="363"/>
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.15">
-      <c r="B9" s="331"/>
-      <c r="C9" s="331"/>
-      <c r="D9" s="331"/>
-      <c r="E9" s="331"/>
-      <c r="F9" s="331"/>
-      <c r="G9" s="331"/>
-      <c r="H9" s="331"/>
-      <c r="I9" s="331"/>
-      <c r="J9" s="331"/>
-      <c r="K9" s="331"/>
-      <c r="L9" s="331"/>
-      <c r="M9" s="331"/>
-      <c r="N9" s="331"/>
-      <c r="O9" s="331"/>
-      <c r="P9" s="331"/>
-      <c r="Q9" s="331"/>
-      <c r="R9" s="331"/>
-      <c r="S9" s="331"/>
-      <c r="T9" s="331"/>
-      <c r="U9" s="331"/>
-      <c r="V9" s="331"/>
-      <c r="W9" s="331"/>
-      <c r="X9" s="331"/>
-      <c r="Y9" s="331"/>
-      <c r="Z9" s="331"/>
-      <c r="AA9" s="331"/>
-      <c r="AB9" s="331"/>
-      <c r="AC9" s="331"/>
-      <c r="AD9" s="331"/>
-      <c r="AE9" s="331"/>
-      <c r="AF9" s="331"/>
-      <c r="AG9" s="331"/>
-      <c r="AH9" s="331"/>
-      <c r="AI9" s="331"/>
-      <c r="AJ9" s="331"/>
-      <c r="AK9" s="331"/>
-      <c r="AL9" s="331"/>
-      <c r="AM9" s="331"/>
-      <c r="AN9" s="331"/>
-      <c r="AO9" s="331"/>
-      <c r="AP9" s="331"/>
-      <c r="AQ9" s="331"/>
-      <c r="AR9" s="331"/>
-      <c r="AS9" s="331"/>
-      <c r="AT9" s="331"/>
+      <c r="B9" s="332"/>
+      <c r="C9" s="332"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="332"/>
+      <c r="J9" s="332"/>
+      <c r="K9" s="332"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
+      <c r="O9" s="332"/>
+      <c r="P9" s="332"/>
+      <c r="Q9" s="332"/>
+      <c r="R9" s="332"/>
+      <c r="S9" s="332"/>
+      <c r="T9" s="332"/>
+      <c r="U9" s="332"/>
+      <c r="V9" s="332"/>
+      <c r="W9" s="332"/>
+      <c r="X9" s="332"/>
+      <c r="Y9" s="332"/>
+      <c r="Z9" s="332"/>
+      <c r="AA9" s="332"/>
+      <c r="AB9" s="332"/>
+      <c r="AC9" s="332"/>
+      <c r="AD9" s="332"/>
+      <c r="AE9" s="332"/>
+      <c r="AF9" s="332"/>
+      <c r="AG9" s="332"/>
+      <c r="AH9" s="332"/>
+      <c r="AI9" s="332"/>
+      <c r="AJ9" s="332"/>
+      <c r="AK9" s="332"/>
+      <c r="AL9" s="332"/>
+      <c r="AM9" s="332"/>
+      <c r="AN9" s="332"/>
+      <c r="AO9" s="332"/>
+      <c r="AP9" s="332"/>
+      <c r="AQ9" s="332"/>
+      <c r="AR9" s="332"/>
+      <c r="AS9" s="332"/>
+      <c r="AT9" s="332"/>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
       <c r="AW9" s="4"/>
       <c r="AX9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AY9" s="363"/>
-      <c r="AZ9" s="364"/>
-      <c r="BA9" s="364"/>
-      <c r="BB9" s="364"/>
-      <c r="BC9" s="364"/>
-      <c r="BD9" s="364"/>
-      <c r="BE9" s="364"/>
-      <c r="BF9" s="365"/>
+      <c r="AY9" s="364"/>
+      <c r="AZ9" s="365"/>
+      <c r="BA9" s="365"/>
+      <c r="BB9" s="365"/>
+      <c r="BC9" s="365"/>
+      <c r="BD9" s="365"/>
+      <c r="BE9" s="365"/>
+      <c r="BF9" s="366"/>
     </row>
     <row r="10" spans="2:58" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="239"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="239"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="239"/>
-      <c r="S10" s="239"/>
-      <c r="T10" s="239"/>
-      <c r="U10" s="239"/>
-      <c r="V10" s="239"/>
-      <c r="W10" s="239"/>
-      <c r="X10" s="239"/>
-      <c r="Y10" s="239"/>
-      <c r="Z10" s="239"/>
-      <c r="AA10" s="239"/>
-      <c r="AB10" s="239"/>
-      <c r="AC10" s="239"/>
-      <c r="AD10" s="239"/>
-      <c r="AE10" s="239"/>
-      <c r="AF10" s="239"/>
-      <c r="AG10" s="239"/>
-      <c r="AH10" s="239"/>
-      <c r="AI10" s="239"/>
-      <c r="AJ10" s="239"/>
-      <c r="AK10" s="239"/>
-      <c r="AL10" s="239"/>
-      <c r="AM10" s="239"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="239"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="239"/>
-      <c r="AT10" s="239"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="240"/>
+      <c r="M10" s="240"/>
+      <c r="N10" s="240"/>
+      <c r="O10" s="240"/>
+      <c r="P10" s="240"/>
+      <c r="Q10" s="240"/>
+      <c r="R10" s="240"/>
+      <c r="S10" s="240"/>
+      <c r="T10" s="240"/>
+      <c r="U10" s="240"/>
+      <c r="V10" s="240"/>
+      <c r="W10" s="240"/>
+      <c r="X10" s="240"/>
+      <c r="Y10" s="240"/>
+      <c r="Z10" s="240"/>
+      <c r="AA10" s="240"/>
+      <c r="AB10" s="240"/>
+      <c r="AC10" s="240"/>
+      <c r="AD10" s="240"/>
+      <c r="AE10" s="240"/>
+      <c r="AF10" s="240"/>
+      <c r="AG10" s="240"/>
+      <c r="AH10" s="240"/>
+      <c r="AI10" s="240"/>
+      <c r="AJ10" s="240"/>
+      <c r="AK10" s="240"/>
+      <c r="AL10" s="240"/>
+      <c r="AM10" s="240"/>
+      <c r="AN10" s="240"/>
+      <c r="AO10" s="240"/>
+      <c r="AP10" s="240"/>
+      <c r="AQ10" s="240"/>
+      <c r="AR10" s="240"/>
+      <c r="AS10" s="240"/>
+      <c r="AT10" s="240"/>
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
-      <c r="AY10" s="367" t="s">
+      <c r="AY10" s="368" t="s">
         <v>72</v>
       </c>
-      <c r="AZ10" s="368"/>
-      <c r="BA10" s="368"/>
-      <c r="BB10" s="368"/>
-      <c r="BC10" s="368"/>
-      <c r="BD10" s="368"/>
-      <c r="BE10" s="368"/>
-      <c r="BF10" s="369"/>
+      <c r="AZ10" s="369"/>
+      <c r="BA10" s="369"/>
+      <c r="BB10" s="369"/>
+      <c r="BC10" s="369"/>
+      <c r="BD10" s="369"/>
+      <c r="BE10" s="369"/>
+      <c r="BF10" s="370"/>
     </row>
     <row r="11" spans="2:58" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="376"/>
-      <c r="C11" s="376"/>
-      <c r="D11" s="376"/>
-      <c r="E11" s="376"/>
-      <c r="F11" s="376"/>
-      <c r="G11" s="376"/>
-      <c r="H11" s="376"/>
-      <c r="I11" s="376"/>
-      <c r="J11" s="376"/>
-      <c r="K11" s="376"/>
-      <c r="L11" s="376"/>
-      <c r="M11" s="376"/>
-      <c r="N11" s="376"/>
-      <c r="O11" s="376"/>
-      <c r="P11" s="376"/>
-      <c r="Q11" s="376"/>
-      <c r="R11" s="376"/>
-      <c r="S11" s="376"/>
-      <c r="T11" s="376"/>
-      <c r="U11" s="376"/>
-      <c r="V11" s="376"/>
-      <c r="W11" s="376"/>
-      <c r="X11" s="376"/>
-      <c r="Y11" s="376"/>
-      <c r="Z11" s="376"/>
-      <c r="AA11" s="376"/>
-      <c r="AB11" s="376"/>
-      <c r="AC11" s="376"/>
-      <c r="AD11" s="376"/>
-      <c r="AE11" s="376"/>
-      <c r="AF11" s="376"/>
-      <c r="AG11" s="376"/>
-      <c r="AH11" s="376"/>
-      <c r="AI11" s="376"/>
-      <c r="AJ11" s="376"/>
-      <c r="AK11" s="376"/>
-      <c r="AL11" s="376"/>
-      <c r="AM11" s="376"/>
-      <c r="AN11" s="376"/>
-      <c r="AO11" s="376"/>
-      <c r="AP11" s="376"/>
-      <c r="AQ11" s="376"/>
-      <c r="AR11" s="376"/>
-      <c r="AS11" s="376"/>
-      <c r="AT11" s="376"/>
-      <c r="AU11" s="376"/>
-      <c r="AV11" s="376"/>
-      <c r="AW11" s="376"/>
-      <c r="AX11" s="376"/>
-      <c r="AY11" s="370"/>
-      <c r="AZ11" s="371"/>
-      <c r="BA11" s="371"/>
-      <c r="BB11" s="371"/>
-      <c r="BC11" s="371"/>
-      <c r="BD11" s="371"/>
-      <c r="BE11" s="371"/>
-      <c r="BF11" s="372"/>
+      <c r="B11" s="377"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="377"/>
+      <c r="E11" s="377"/>
+      <c r="F11" s="377"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="377"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="377"/>
+      <c r="K11" s="377"/>
+      <c r="L11" s="377"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="377"/>
+      <c r="O11" s="377"/>
+      <c r="P11" s="377"/>
+      <c r="Q11" s="377"/>
+      <c r="R11" s="377"/>
+      <c r="S11" s="377"/>
+      <c r="T11" s="377"/>
+      <c r="U11" s="377"/>
+      <c r="V11" s="377"/>
+      <c r="W11" s="377"/>
+      <c r="X11" s="377"/>
+      <c r="Y11" s="377"/>
+      <c r="Z11" s="377"/>
+      <c r="AA11" s="377"/>
+      <c r="AB11" s="377"/>
+      <c r="AC11" s="377"/>
+      <c r="AD11" s="377"/>
+      <c r="AE11" s="377"/>
+      <c r="AF11" s="377"/>
+      <c r="AG11" s="377"/>
+      <c r="AH11" s="377"/>
+      <c r="AI11" s="377"/>
+      <c r="AJ11" s="377"/>
+      <c r="AK11" s="377"/>
+      <c r="AL11" s="377"/>
+      <c r="AM11" s="377"/>
+      <c r="AN11" s="377"/>
+      <c r="AO11" s="377"/>
+      <c r="AP11" s="377"/>
+      <c r="AQ11" s="377"/>
+      <c r="AR11" s="377"/>
+      <c r="AS11" s="377"/>
+      <c r="AT11" s="377"/>
+      <c r="AU11" s="377"/>
+      <c r="AV11" s="377"/>
+      <c r="AW11" s="377"/>
+      <c r="AX11" s="377"/>
+      <c r="AY11" s="371"/>
+      <c r="AZ11" s="372"/>
+      <c r="BA11" s="372"/>
+      <c r="BB11" s="372"/>
+      <c r="BC11" s="372"/>
+      <c r="BD11" s="372"/>
+      <c r="BE11" s="372"/>
+      <c r="BF11" s="373"/>
     </row>
     <row r="12" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="377" t="s">
+      <c r="B12" s="378" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="377"/>
-      <c r="D12" s="377"/>
-      <c r="E12" s="377"/>
-      <c r="F12" s="377"/>
-      <c r="G12" s="377"/>
-      <c r="H12" s="377"/>
-      <c r="I12" s="377"/>
-      <c r="J12" s="377"/>
-      <c r="K12" s="377"/>
-      <c r="L12" s="377"/>
-      <c r="M12" s="377"/>
-      <c r="N12" s="377"/>
-      <c r="O12" s="377"/>
-      <c r="P12" s="377"/>
-      <c r="Q12" s="377"/>
-      <c r="R12" s="377"/>
-      <c r="S12" s="377"/>
-      <c r="T12" s="377"/>
-      <c r="U12" s="377"/>
-      <c r="V12" s="377"/>
-      <c r="W12" s="377"/>
-      <c r="X12" s="377"/>
-      <c r="Y12" s="377"/>
-      <c r="Z12" s="377"/>
-      <c r="AA12" s="377"/>
-      <c r="AB12" s="377"/>
-      <c r="AC12" s="377"/>
-      <c r="AD12" s="377"/>
-      <c r="AE12" s="377"/>
-      <c r="AF12" s="377"/>
-      <c r="AG12" s="377"/>
-      <c r="AH12" s="377"/>
-      <c r="AI12" s="377"/>
-      <c r="AJ12" s="377"/>
-      <c r="AK12" s="377"/>
+      <c r="C12" s="378"/>
+      <c r="D12" s="378"/>
+      <c r="E12" s="378"/>
+      <c r="F12" s="378"/>
+      <c r="G12" s="378"/>
+      <c r="H12" s="378"/>
+      <c r="I12" s="378"/>
+      <c r="J12" s="378"/>
+      <c r="K12" s="378"/>
+      <c r="L12" s="378"/>
+      <c r="M12" s="378"/>
+      <c r="N12" s="378"/>
+      <c r="O12" s="378"/>
+      <c r="P12" s="378"/>
+      <c r="Q12" s="378"/>
+      <c r="R12" s="378"/>
+      <c r="S12" s="378"/>
+      <c r="T12" s="378"/>
+      <c r="U12" s="378"/>
+      <c r="V12" s="378"/>
+      <c r="W12" s="378"/>
+      <c r="X12" s="378"/>
+      <c r="Y12" s="378"/>
+      <c r="Z12" s="378"/>
+      <c r="AA12" s="378"/>
+      <c r="AB12" s="378"/>
+      <c r="AC12" s="378"/>
+      <c r="AD12" s="378"/>
+      <c r="AE12" s="378"/>
+      <c r="AF12" s="378"/>
+      <c r="AG12" s="378"/>
+      <c r="AH12" s="378"/>
+      <c r="AI12" s="378"/>
+      <c r="AJ12" s="378"/>
+      <c r="AK12" s="378"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
@@ -6959,14 +6965,14 @@
       <c r="AX12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AY12" s="370"/>
-      <c r="AZ12" s="371"/>
-      <c r="BA12" s="371"/>
-      <c r="BB12" s="371"/>
-      <c r="BC12" s="371"/>
-      <c r="BD12" s="371"/>
-      <c r="BE12" s="371"/>
-      <c r="BF12" s="372"/>
+      <c r="AY12" s="371"/>
+      <c r="AZ12" s="372"/>
+      <c r="BA12" s="372"/>
+      <c r="BB12" s="372"/>
+      <c r="BC12" s="372"/>
+      <c r="BD12" s="372"/>
+      <c r="BE12" s="372"/>
+      <c r="BF12" s="373"/>
     </row>
     <row r="13" spans="2:58" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18"/>
@@ -6976,56 +6982,56 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="330"/>
-      <c r="J13" s="330"/>
-      <c r="K13" s="330"/>
-      <c r="L13" s="330"/>
-      <c r="M13" s="330"/>
-      <c r="N13" s="330"/>
-      <c r="O13" s="330"/>
-      <c r="P13" s="330"/>
-      <c r="Q13" s="330"/>
-      <c r="R13" s="330"/>
-      <c r="S13" s="330"/>
-      <c r="T13" s="330"/>
-      <c r="U13" s="330"/>
-      <c r="V13" s="330"/>
-      <c r="W13" s="330"/>
-      <c r="X13" s="330"/>
-      <c r="Y13" s="330"/>
-      <c r="Z13" s="330"/>
-      <c r="AA13" s="330"/>
-      <c r="AB13" s="330"/>
-      <c r="AC13" s="330"/>
-      <c r="AD13" s="330"/>
-      <c r="AE13" s="330"/>
-      <c r="AF13" s="330"/>
-      <c r="AG13" s="330"/>
-      <c r="AH13" s="330"/>
-      <c r="AI13" s="330"/>
-      <c r="AJ13" s="330"/>
-      <c r="AK13" s="330"/>
-      <c r="AL13" s="330"/>
-      <c r="AM13" s="330"/>
-      <c r="AN13" s="330"/>
-      <c r="AO13" s="330"/>
-      <c r="AP13" s="330"/>
-      <c r="AQ13" s="330"/>
-      <c r="AR13" s="330"/>
-      <c r="AS13" s="330"/>
-      <c r="AT13" s="330"/>
+      <c r="I13" s="331"/>
+      <c r="J13" s="331"/>
+      <c r="K13" s="331"/>
+      <c r="L13" s="331"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="331"/>
+      <c r="O13" s="331"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="331"/>
+      <c r="R13" s="331"/>
+      <c r="S13" s="331"/>
+      <c r="T13" s="331"/>
+      <c r="U13" s="331"/>
+      <c r="V13" s="331"/>
+      <c r="W13" s="331"/>
+      <c r="X13" s="331"/>
+      <c r="Y13" s="331"/>
+      <c r="Z13" s="331"/>
+      <c r="AA13" s="331"/>
+      <c r="AB13" s="331"/>
+      <c r="AC13" s="331"/>
+      <c r="AD13" s="331"/>
+      <c r="AE13" s="331"/>
+      <c r="AF13" s="331"/>
+      <c r="AG13" s="331"/>
+      <c r="AH13" s="331"/>
+      <c r="AI13" s="331"/>
+      <c r="AJ13" s="331"/>
+      <c r="AK13" s="331"/>
+      <c r="AL13" s="331"/>
+      <c r="AM13" s="331"/>
+      <c r="AN13" s="331"/>
+      <c r="AO13" s="331"/>
+      <c r="AP13" s="331"/>
+      <c r="AQ13" s="331"/>
+      <c r="AR13" s="331"/>
+      <c r="AS13" s="331"/>
+      <c r="AT13" s="331"/>
       <c r="AU13" s="13"/>
       <c r="AV13" s="13"/>
       <c r="AW13" s="13"/>
       <c r="AX13" s="36"/>
-      <c r="AY13" s="373"/>
-      <c r="AZ13" s="374"/>
-      <c r="BA13" s="374"/>
-      <c r="BB13" s="374"/>
-      <c r="BC13" s="374"/>
-      <c r="BD13" s="374"/>
-      <c r="BE13" s="374"/>
-      <c r="BF13" s="375"/>
+      <c r="AY13" s="374"/>
+      <c r="AZ13" s="375"/>
+      <c r="BA13" s="375"/>
+      <c r="BB13" s="375"/>
+      <c r="BC13" s="375"/>
+      <c r="BD13" s="375"/>
+      <c r="BE13" s="375"/>
+      <c r="BF13" s="376"/>
     </row>
     <row r="14" spans="2:58" x14ac:dyDescent="0.15">
       <c r="B14" s="31" t="s">
@@ -7037,58 +7043,58 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="331"/>
-      <c r="J14" s="331"/>
-      <c r="K14" s="331"/>
-      <c r="L14" s="331"/>
-      <c r="M14" s="331"/>
-      <c r="N14" s="331"/>
-      <c r="O14" s="331"/>
-      <c r="P14" s="331"/>
-      <c r="Q14" s="331"/>
-      <c r="R14" s="331"/>
-      <c r="S14" s="331"/>
-      <c r="T14" s="331"/>
-      <c r="U14" s="331"/>
-      <c r="V14" s="331"/>
-      <c r="W14" s="331"/>
-      <c r="X14" s="331"/>
-      <c r="Y14" s="331"/>
-      <c r="Z14" s="331"/>
-      <c r="AA14" s="331"/>
-      <c r="AB14" s="331"/>
-      <c r="AC14" s="331"/>
-      <c r="AD14" s="331"/>
-      <c r="AE14" s="331"/>
-      <c r="AF14" s="331"/>
-      <c r="AG14" s="331"/>
-      <c r="AH14" s="331"/>
-      <c r="AI14" s="331"/>
-      <c r="AJ14" s="331"/>
-      <c r="AK14" s="331"/>
-      <c r="AL14" s="331"/>
-      <c r="AM14" s="331"/>
-      <c r="AN14" s="331"/>
-      <c r="AO14" s="331"/>
-      <c r="AP14" s="331"/>
-      <c r="AQ14" s="331"/>
-      <c r="AR14" s="331"/>
-      <c r="AS14" s="331"/>
-      <c r="AT14" s="331"/>
+      <c r="I14" s="332"/>
+      <c r="J14" s="332"/>
+      <c r="K14" s="332"/>
+      <c r="L14" s="332"/>
+      <c r="M14" s="332"/>
+      <c r="N14" s="332"/>
+      <c r="O14" s="332"/>
+      <c r="P14" s="332"/>
+      <c r="Q14" s="332"/>
+      <c r="R14" s="332"/>
+      <c r="S14" s="332"/>
+      <c r="T14" s="332"/>
+      <c r="U14" s="332"/>
+      <c r="V14" s="332"/>
+      <c r="W14" s="332"/>
+      <c r="X14" s="332"/>
+      <c r="Y14" s="332"/>
+      <c r="Z14" s="332"/>
+      <c r="AA14" s="332"/>
+      <c r="AB14" s="332"/>
+      <c r="AC14" s="332"/>
+      <c r="AD14" s="332"/>
+      <c r="AE14" s="332"/>
+      <c r="AF14" s="332"/>
+      <c r="AG14" s="332"/>
+      <c r="AH14" s="332"/>
+      <c r="AI14" s="332"/>
+      <c r="AJ14" s="332"/>
+      <c r="AK14" s="332"/>
+      <c r="AL14" s="332"/>
+      <c r="AM14" s="332"/>
+      <c r="AN14" s="332"/>
+      <c r="AO14" s="332"/>
+      <c r="AP14" s="332"/>
+      <c r="AQ14" s="332"/>
+      <c r="AR14" s="332"/>
+      <c r="AS14" s="332"/>
+      <c r="AT14" s="332"/>
       <c r="AU14" s="13"/>
       <c r="AV14" s="13"/>
       <c r="AW14" s="13"/>
       <c r="AX14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AY14" s="344"/>
-      <c r="AZ14" s="345"/>
-      <c r="BA14" s="345"/>
-      <c r="BB14" s="345"/>
-      <c r="BC14" s="345"/>
-      <c r="BD14" s="345"/>
-      <c r="BE14" s="345"/>
-      <c r="BF14" s="346"/>
+      <c r="AY14" s="345"/>
+      <c r="AZ14" s="346"/>
+      <c r="BA14" s="346"/>
+      <c r="BB14" s="346"/>
+      <c r="BC14" s="346"/>
+      <c r="BD14" s="346"/>
+      <c r="BE14" s="346"/>
+      <c r="BF14" s="347"/>
     </row>
     <row r="15" spans="2:58" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13"/>
@@ -7098,58 +7104,58 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="338" t="s">
+      <c r="I15" s="339" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="338"/>
-      <c r="K15" s="338"/>
-      <c r="L15" s="338"/>
-      <c r="M15" s="338"/>
-      <c r="N15" s="338"/>
-      <c r="O15" s="338"/>
-      <c r="P15" s="338"/>
-      <c r="Q15" s="338"/>
-      <c r="R15" s="338"/>
-      <c r="S15" s="338"/>
-      <c r="T15" s="338"/>
-      <c r="U15" s="338"/>
-      <c r="V15" s="338"/>
-      <c r="W15" s="338"/>
-      <c r="X15" s="338"/>
-      <c r="Y15" s="338"/>
-      <c r="Z15" s="338"/>
-      <c r="AA15" s="338"/>
-      <c r="AB15" s="338"/>
-      <c r="AC15" s="338"/>
-      <c r="AD15" s="338"/>
-      <c r="AE15" s="338"/>
-      <c r="AF15" s="338"/>
-      <c r="AG15" s="338"/>
-      <c r="AH15" s="338"/>
-      <c r="AI15" s="338"/>
-      <c r="AJ15" s="338"/>
-      <c r="AK15" s="338"/>
-      <c r="AL15" s="338"/>
-      <c r="AM15" s="338"/>
-      <c r="AN15" s="338"/>
-      <c r="AO15" s="338"/>
-      <c r="AP15" s="338"/>
-      <c r="AQ15" s="338"/>
-      <c r="AR15" s="338"/>
-      <c r="AS15" s="338"/>
-      <c r="AT15" s="338"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="339"/>
+      <c r="N15" s="339"/>
+      <c r="O15" s="339"/>
+      <c r="P15" s="339"/>
+      <c r="Q15" s="339"/>
+      <c r="R15" s="339"/>
+      <c r="S15" s="339"/>
+      <c r="T15" s="339"/>
+      <c r="U15" s="339"/>
+      <c r="V15" s="339"/>
+      <c r="W15" s="339"/>
+      <c r="X15" s="339"/>
+      <c r="Y15" s="339"/>
+      <c r="Z15" s="339"/>
+      <c r="AA15" s="339"/>
+      <c r="AB15" s="339"/>
+      <c r="AC15" s="339"/>
+      <c r="AD15" s="339"/>
+      <c r="AE15" s="339"/>
+      <c r="AF15" s="339"/>
+      <c r="AG15" s="339"/>
+      <c r="AH15" s="339"/>
+      <c r="AI15" s="339"/>
+      <c r="AJ15" s="339"/>
+      <c r="AK15" s="339"/>
+      <c r="AL15" s="339"/>
+      <c r="AM15" s="339"/>
+      <c r="AN15" s="339"/>
+      <c r="AO15" s="339"/>
+      <c r="AP15" s="339"/>
+      <c r="AQ15" s="339"/>
+      <c r="AR15" s="339"/>
+      <c r="AS15" s="339"/>
+      <c r="AT15" s="339"/>
       <c r="AU15" s="13"/>
       <c r="AV15" s="13"/>
       <c r="AW15" s="13"/>
       <c r="AX15" s="4"/>
-      <c r="AY15" s="347"/>
-      <c r="AZ15" s="348"/>
-      <c r="BA15" s="348"/>
-      <c r="BB15" s="348"/>
-      <c r="BC15" s="348"/>
-      <c r="BD15" s="348"/>
-      <c r="BE15" s="348"/>
-      <c r="BF15" s="349"/>
+      <c r="AY15" s="348"/>
+      <c r="AZ15" s="349"/>
+      <c r="BA15" s="349"/>
+      <c r="BB15" s="349"/>
+      <c r="BC15" s="349"/>
+      <c r="BD15" s="349"/>
+      <c r="BE15" s="349"/>
+      <c r="BF15" s="350"/>
     </row>
     <row r="16" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="13"/>
@@ -7159,59 +7165,59 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="330">
+      <c r="I16" s="331">
         <f>B8</f>
         <v>0</v>
       </c>
-      <c r="J16" s="353"/>
-      <c r="K16" s="353"/>
-      <c r="L16" s="353"/>
-      <c r="M16" s="353"/>
-      <c r="N16" s="353"/>
-      <c r="O16" s="353"/>
-      <c r="P16" s="353"/>
-      <c r="Q16" s="353"/>
-      <c r="R16" s="353"/>
-      <c r="S16" s="353"/>
-      <c r="T16" s="353"/>
-      <c r="U16" s="353"/>
-      <c r="V16" s="353"/>
-      <c r="W16" s="353"/>
-      <c r="X16" s="353"/>
-      <c r="Y16" s="353"/>
-      <c r="Z16" s="353"/>
-      <c r="AA16" s="353"/>
-      <c r="AB16" s="353"/>
-      <c r="AC16" s="353"/>
-      <c r="AD16" s="353"/>
-      <c r="AE16" s="353"/>
-      <c r="AF16" s="353"/>
-      <c r="AG16" s="353"/>
-      <c r="AH16" s="353"/>
-      <c r="AI16" s="353"/>
-      <c r="AJ16" s="353"/>
-      <c r="AK16" s="353"/>
-      <c r="AL16" s="353"/>
-      <c r="AM16" s="353"/>
-      <c r="AN16" s="353"/>
-      <c r="AO16" s="353"/>
-      <c r="AP16" s="353"/>
-      <c r="AQ16" s="353"/>
-      <c r="AR16" s="353"/>
-      <c r="AS16" s="353"/>
-      <c r="AT16" s="353"/>
+      <c r="J16" s="354"/>
+      <c r="K16" s="354"/>
+      <c r="L16" s="354"/>
+      <c r="M16" s="354"/>
+      <c r="N16" s="354"/>
+      <c r="O16" s="354"/>
+      <c r="P16" s="354"/>
+      <c r="Q16" s="354"/>
+      <c r="R16" s="354"/>
+      <c r="S16" s="354"/>
+      <c r="T16" s="354"/>
+      <c r="U16" s="354"/>
+      <c r="V16" s="354"/>
+      <c r="W16" s="354"/>
+      <c r="X16" s="354"/>
+      <c r="Y16" s="354"/>
+      <c r="Z16" s="354"/>
+      <c r="AA16" s="354"/>
+      <c r="AB16" s="354"/>
+      <c r="AC16" s="354"/>
+      <c r="AD16" s="354"/>
+      <c r="AE16" s="354"/>
+      <c r="AF16" s="354"/>
+      <c r="AG16" s="354"/>
+      <c r="AH16" s="354"/>
+      <c r="AI16" s="354"/>
+      <c r="AJ16" s="354"/>
+      <c r="AK16" s="354"/>
+      <c r="AL16" s="354"/>
+      <c r="AM16" s="354"/>
+      <c r="AN16" s="354"/>
+      <c r="AO16" s="354"/>
+      <c r="AP16" s="354"/>
+      <c r="AQ16" s="354"/>
+      <c r="AR16" s="354"/>
+      <c r="AS16" s="354"/>
+      <c r="AT16" s="354"/>
       <c r="AU16" s="13"/>
       <c r="AV16" s="13"/>
       <c r="AW16" s="13"/>
       <c r="AX16" s="4"/>
-      <c r="AY16" s="350"/>
-      <c r="AZ16" s="351"/>
-      <c r="BA16" s="351"/>
-      <c r="BB16" s="351"/>
-      <c r="BC16" s="351"/>
-      <c r="BD16" s="351"/>
-      <c r="BE16" s="351"/>
-      <c r="BF16" s="352"/>
+      <c r="AY16" s="351"/>
+      <c r="AZ16" s="352"/>
+      <c r="BA16" s="352"/>
+      <c r="BB16" s="352"/>
+      <c r="BC16" s="352"/>
+      <c r="BD16" s="352"/>
+      <c r="BE16" s="352"/>
+      <c r="BF16" s="353"/>
     </row>
     <row r="17" spans="2:58" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="32" t="s">
@@ -7223,58 +7229,58 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="354"/>
-      <c r="J17" s="354"/>
-      <c r="K17" s="354"/>
-      <c r="L17" s="354"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="354"/>
-      <c r="O17" s="354"/>
-      <c r="P17" s="354"/>
-      <c r="Q17" s="354"/>
-      <c r="R17" s="354"/>
-      <c r="S17" s="354"/>
-      <c r="T17" s="354"/>
-      <c r="U17" s="354"/>
-      <c r="V17" s="354"/>
-      <c r="W17" s="354"/>
-      <c r="X17" s="354"/>
-      <c r="Y17" s="354"/>
-      <c r="Z17" s="354"/>
-      <c r="AA17" s="354"/>
-      <c r="AB17" s="354"/>
-      <c r="AC17" s="354"/>
-      <c r="AD17" s="354"/>
-      <c r="AE17" s="354"/>
-      <c r="AF17" s="354"/>
-      <c r="AG17" s="354"/>
-      <c r="AH17" s="354"/>
-      <c r="AI17" s="354"/>
-      <c r="AJ17" s="354"/>
-      <c r="AK17" s="354"/>
-      <c r="AL17" s="354"/>
-      <c r="AM17" s="354"/>
-      <c r="AN17" s="354"/>
-      <c r="AO17" s="354"/>
-      <c r="AP17" s="354"/>
-      <c r="AQ17" s="354"/>
-      <c r="AR17" s="354"/>
-      <c r="AS17" s="354"/>
-      <c r="AT17" s="354"/>
+      <c r="I17" s="355"/>
+      <c r="J17" s="355"/>
+      <c r="K17" s="355"/>
+      <c r="L17" s="355"/>
+      <c r="M17" s="355"/>
+      <c r="N17" s="355"/>
+      <c r="O17" s="355"/>
+      <c r="P17" s="355"/>
+      <c r="Q17" s="355"/>
+      <c r="R17" s="355"/>
+      <c r="S17" s="355"/>
+      <c r="T17" s="355"/>
+      <c r="U17" s="355"/>
+      <c r="V17" s="355"/>
+      <c r="W17" s="355"/>
+      <c r="X17" s="355"/>
+      <c r="Y17" s="355"/>
+      <c r="Z17" s="355"/>
+      <c r="AA17" s="355"/>
+      <c r="AB17" s="355"/>
+      <c r="AC17" s="355"/>
+      <c r="AD17" s="355"/>
+      <c r="AE17" s="355"/>
+      <c r="AF17" s="355"/>
+      <c r="AG17" s="355"/>
+      <c r="AH17" s="355"/>
+      <c r="AI17" s="355"/>
+      <c r="AJ17" s="355"/>
+      <c r="AK17" s="355"/>
+      <c r="AL17" s="355"/>
+      <c r="AM17" s="355"/>
+      <c r="AN17" s="355"/>
+      <c r="AO17" s="355"/>
+      <c r="AP17" s="355"/>
+      <c r="AQ17" s="355"/>
+      <c r="AR17" s="355"/>
+      <c r="AS17" s="355"/>
+      <c r="AT17" s="355"/>
       <c r="AU17" s="13"/>
       <c r="AV17" s="13"/>
       <c r="AW17" s="13"/>
       <c r="AX17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AY17" s="344"/>
-      <c r="AZ17" s="345"/>
-      <c r="BA17" s="345"/>
-      <c r="BB17" s="345"/>
-      <c r="BC17" s="345"/>
-      <c r="BD17" s="345"/>
-      <c r="BE17" s="345"/>
-      <c r="BF17" s="346"/>
+      <c r="AY17" s="345"/>
+      <c r="AZ17" s="346"/>
+      <c r="BA17" s="346"/>
+      <c r="BB17" s="346"/>
+      <c r="BC17" s="346"/>
+      <c r="BD17" s="346"/>
+      <c r="BE17" s="346"/>
+      <c r="BF17" s="347"/>
     </row>
     <row r="18" spans="2:58" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="32"/>
@@ -7284,58 +7290,58 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="338" t="s">
+      <c r="I18" s="339" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="338"/>
-      <c r="K18" s="338"/>
-      <c r="L18" s="338"/>
-      <c r="M18" s="338"/>
-      <c r="N18" s="338"/>
-      <c r="O18" s="338"/>
-      <c r="P18" s="338"/>
-      <c r="Q18" s="338"/>
-      <c r="R18" s="338"/>
-      <c r="S18" s="338"/>
-      <c r="T18" s="338"/>
-      <c r="U18" s="338"/>
-      <c r="V18" s="338"/>
-      <c r="W18" s="338"/>
-      <c r="X18" s="338"/>
-      <c r="Y18" s="338"/>
-      <c r="Z18" s="338"/>
-      <c r="AA18" s="338"/>
-      <c r="AB18" s="338"/>
-      <c r="AC18" s="338"/>
-      <c r="AD18" s="338"/>
-      <c r="AE18" s="338"/>
-      <c r="AF18" s="338"/>
-      <c r="AG18" s="338"/>
-      <c r="AH18" s="338"/>
-      <c r="AI18" s="338"/>
-      <c r="AJ18" s="338"/>
-      <c r="AK18" s="338"/>
-      <c r="AL18" s="338"/>
-      <c r="AM18" s="338"/>
-      <c r="AN18" s="338"/>
-      <c r="AO18" s="338"/>
-      <c r="AP18" s="338"/>
-      <c r="AQ18" s="338"/>
-      <c r="AR18" s="338"/>
-      <c r="AS18" s="338"/>
-      <c r="AT18" s="338"/>
+      <c r="J18" s="339"/>
+      <c r="K18" s="339"/>
+      <c r="L18" s="339"/>
+      <c r="M18" s="339"/>
+      <c r="N18" s="339"/>
+      <c r="O18" s="339"/>
+      <c r="P18" s="339"/>
+      <c r="Q18" s="339"/>
+      <c r="R18" s="339"/>
+      <c r="S18" s="339"/>
+      <c r="T18" s="339"/>
+      <c r="U18" s="339"/>
+      <c r="V18" s="339"/>
+      <c r="W18" s="339"/>
+      <c r="X18" s="339"/>
+      <c r="Y18" s="339"/>
+      <c r="Z18" s="339"/>
+      <c r="AA18" s="339"/>
+      <c r="AB18" s="339"/>
+      <c r="AC18" s="339"/>
+      <c r="AD18" s="339"/>
+      <c r="AE18" s="339"/>
+      <c r="AF18" s="339"/>
+      <c r="AG18" s="339"/>
+      <c r="AH18" s="339"/>
+      <c r="AI18" s="339"/>
+      <c r="AJ18" s="339"/>
+      <c r="AK18" s="339"/>
+      <c r="AL18" s="339"/>
+      <c r="AM18" s="339"/>
+      <c r="AN18" s="339"/>
+      <c r="AO18" s="339"/>
+      <c r="AP18" s="339"/>
+      <c r="AQ18" s="339"/>
+      <c r="AR18" s="339"/>
+      <c r="AS18" s="339"/>
+      <c r="AT18" s="339"/>
       <c r="AU18" s="13"/>
       <c r="AV18" s="13"/>
       <c r="AW18" s="13"/>
       <c r="AX18" s="7"/>
-      <c r="AY18" s="347"/>
-      <c r="AZ18" s="348"/>
-      <c r="BA18" s="348"/>
-      <c r="BB18" s="348"/>
-      <c r="BC18" s="348"/>
-      <c r="BD18" s="348"/>
-      <c r="BE18" s="348"/>
-      <c r="BF18" s="349"/>
+      <c r="AY18" s="348"/>
+      <c r="AZ18" s="349"/>
+      <c r="BA18" s="349"/>
+      <c r="BB18" s="349"/>
+      <c r="BC18" s="349"/>
+      <c r="BD18" s="349"/>
+      <c r="BE18" s="349"/>
+      <c r="BF18" s="350"/>
     </row>
     <row r="19" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="32"/>
@@ -7345,59 +7351,59 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="330">
+      <c r="I19" s="331">
         <f>I13</f>
         <v>0</v>
       </c>
-      <c r="J19" s="330"/>
-      <c r="K19" s="330"/>
-      <c r="L19" s="330"/>
-      <c r="M19" s="330"/>
-      <c r="N19" s="330"/>
-      <c r="O19" s="330"/>
-      <c r="P19" s="330"/>
-      <c r="Q19" s="330"/>
-      <c r="R19" s="330"/>
-      <c r="S19" s="330"/>
-      <c r="T19" s="330"/>
-      <c r="U19" s="330"/>
-      <c r="V19" s="330"/>
-      <c r="W19" s="330"/>
-      <c r="X19" s="330"/>
-      <c r="Y19" s="330"/>
-      <c r="Z19" s="330"/>
-      <c r="AA19" s="330"/>
-      <c r="AB19" s="330"/>
-      <c r="AC19" s="330"/>
-      <c r="AD19" s="330"/>
-      <c r="AE19" s="330"/>
-      <c r="AF19" s="330"/>
-      <c r="AG19" s="330"/>
-      <c r="AH19" s="330"/>
-      <c r="AI19" s="330"/>
-      <c r="AJ19" s="330"/>
-      <c r="AK19" s="330"/>
-      <c r="AL19" s="330"/>
-      <c r="AM19" s="330"/>
-      <c r="AN19" s="330"/>
-      <c r="AO19" s="330"/>
-      <c r="AP19" s="330"/>
-      <c r="AQ19" s="330"/>
-      <c r="AR19" s="330"/>
-      <c r="AS19" s="330"/>
-      <c r="AT19" s="330"/>
+      <c r="J19" s="331"/>
+      <c r="K19" s="331"/>
+      <c r="L19" s="331"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="331"/>
+      <c r="O19" s="331"/>
+      <c r="P19" s="331"/>
+      <c r="Q19" s="331"/>
+      <c r="R19" s="331"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="331"/>
+      <c r="U19" s="331"/>
+      <c r="V19" s="331"/>
+      <c r="W19" s="331"/>
+      <c r="X19" s="331"/>
+      <c r="Y19" s="331"/>
+      <c r="Z19" s="331"/>
+      <c r="AA19" s="331"/>
+      <c r="AB19" s="331"/>
+      <c r="AC19" s="331"/>
+      <c r="AD19" s="331"/>
+      <c r="AE19" s="331"/>
+      <c r="AF19" s="331"/>
+      <c r="AG19" s="331"/>
+      <c r="AH19" s="331"/>
+      <c r="AI19" s="331"/>
+      <c r="AJ19" s="331"/>
+      <c r="AK19" s="331"/>
+      <c r="AL19" s="331"/>
+      <c r="AM19" s="331"/>
+      <c r="AN19" s="331"/>
+      <c r="AO19" s="331"/>
+      <c r="AP19" s="331"/>
+      <c r="AQ19" s="331"/>
+      <c r="AR19" s="331"/>
+      <c r="AS19" s="331"/>
+      <c r="AT19" s="331"/>
       <c r="AU19" s="13"/>
       <c r="AV19" s="13"/>
       <c r="AW19" s="13"/>
       <c r="AX19" s="7"/>
-      <c r="AY19" s="350"/>
-      <c r="AZ19" s="351"/>
-      <c r="BA19" s="351"/>
-      <c r="BB19" s="351"/>
-      <c r="BC19" s="351"/>
-      <c r="BD19" s="351"/>
-      <c r="BE19" s="351"/>
-      <c r="BF19" s="352"/>
+      <c r="AY19" s="351"/>
+      <c r="AZ19" s="352"/>
+      <c r="BA19" s="352"/>
+      <c r="BB19" s="352"/>
+      <c r="BC19" s="352"/>
+      <c r="BD19" s="352"/>
+      <c r="BE19" s="352"/>
+      <c r="BF19" s="353"/>
     </row>
     <row r="20" spans="2:58" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
@@ -7409,58 +7415,58 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="331"/>
-      <c r="J20" s="331"/>
-      <c r="K20" s="331"/>
-      <c r="L20" s="331"/>
-      <c r="M20" s="331"/>
-      <c r="N20" s="331"/>
-      <c r="O20" s="331"/>
-      <c r="P20" s="331"/>
-      <c r="Q20" s="331"/>
-      <c r="R20" s="331"/>
-      <c r="S20" s="331"/>
-      <c r="T20" s="331"/>
-      <c r="U20" s="331"/>
-      <c r="V20" s="331"/>
-      <c r="W20" s="331"/>
-      <c r="X20" s="331"/>
-      <c r="Y20" s="331"/>
-      <c r="Z20" s="331"/>
-      <c r="AA20" s="331"/>
-      <c r="AB20" s="331"/>
-      <c r="AC20" s="331"/>
-      <c r="AD20" s="331"/>
-      <c r="AE20" s="331"/>
-      <c r="AF20" s="331"/>
-      <c r="AG20" s="331"/>
-      <c r="AH20" s="331"/>
-      <c r="AI20" s="331"/>
-      <c r="AJ20" s="331"/>
-      <c r="AK20" s="331"/>
-      <c r="AL20" s="331"/>
-      <c r="AM20" s="331"/>
-      <c r="AN20" s="331"/>
-      <c r="AO20" s="331"/>
-      <c r="AP20" s="331"/>
-      <c r="AQ20" s="331"/>
-      <c r="AR20" s="331"/>
-      <c r="AS20" s="331"/>
-      <c r="AT20" s="331"/>
+      <c r="I20" s="332"/>
+      <c r="J20" s="332"/>
+      <c r="K20" s="332"/>
+      <c r="L20" s="332"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="332"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="332"/>
+      <c r="R20" s="332"/>
+      <c r="S20" s="332"/>
+      <c r="T20" s="332"/>
+      <c r="U20" s="332"/>
+      <c r="V20" s="332"/>
+      <c r="W20" s="332"/>
+      <c r="X20" s="332"/>
+      <c r="Y20" s="332"/>
+      <c r="Z20" s="332"/>
+      <c r="AA20" s="332"/>
+      <c r="AB20" s="332"/>
+      <c r="AC20" s="332"/>
+      <c r="AD20" s="332"/>
+      <c r="AE20" s="332"/>
+      <c r="AF20" s="332"/>
+      <c r="AG20" s="332"/>
+      <c r="AH20" s="332"/>
+      <c r="AI20" s="332"/>
+      <c r="AJ20" s="332"/>
+      <c r="AK20" s="332"/>
+      <c r="AL20" s="332"/>
+      <c r="AM20" s="332"/>
+      <c r="AN20" s="332"/>
+      <c r="AO20" s="332"/>
+      <c r="AP20" s="332"/>
+      <c r="AQ20" s="332"/>
+      <c r="AR20" s="332"/>
+      <c r="AS20" s="332"/>
+      <c r="AT20" s="332"/>
       <c r="AU20" s="13"/>
       <c r="AV20" s="13"/>
       <c r="AW20" s="13"/>
       <c r="AX20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AY20" s="332"/>
-      <c r="AZ20" s="333"/>
-      <c r="BA20" s="333"/>
-      <c r="BB20" s="333"/>
-      <c r="BC20" s="333"/>
-      <c r="BD20" s="333"/>
-      <c r="BE20" s="333"/>
-      <c r="BF20" s="334"/>
+      <c r="AY20" s="333"/>
+      <c r="AZ20" s="334"/>
+      <c r="BA20" s="334"/>
+      <c r="BB20" s="334"/>
+      <c r="BC20" s="334"/>
+      <c r="BD20" s="334"/>
+      <c r="BE20" s="334"/>
+      <c r="BF20" s="335"/>
     </row>
     <row r="21" spans="2:58" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
@@ -7470,58 +7476,58 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="338" t="s">
+      <c r="I21" s="339" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="338"/>
-      <c r="K21" s="338"/>
-      <c r="L21" s="338"/>
-      <c r="M21" s="338"/>
-      <c r="N21" s="338"/>
-      <c r="O21" s="338"/>
-      <c r="P21" s="338"/>
-      <c r="Q21" s="338"/>
-      <c r="R21" s="338"/>
-      <c r="S21" s="338"/>
-      <c r="T21" s="338"/>
-      <c r="U21" s="338"/>
-      <c r="V21" s="338"/>
-      <c r="W21" s="338"/>
-      <c r="X21" s="338"/>
-      <c r="Y21" s="338"/>
-      <c r="Z21" s="338"/>
-      <c r="AA21" s="338"/>
-      <c r="AB21" s="338"/>
-      <c r="AC21" s="338"/>
-      <c r="AD21" s="338"/>
-      <c r="AE21" s="338"/>
-      <c r="AF21" s="338"/>
-      <c r="AG21" s="338"/>
-      <c r="AH21" s="338"/>
-      <c r="AI21" s="338"/>
-      <c r="AJ21" s="338"/>
-      <c r="AK21" s="338"/>
-      <c r="AL21" s="338"/>
-      <c r="AM21" s="338"/>
-      <c r="AN21" s="338"/>
-      <c r="AO21" s="338"/>
-      <c r="AP21" s="338"/>
-      <c r="AQ21" s="338"/>
-      <c r="AR21" s="338"/>
-      <c r="AS21" s="338"/>
-      <c r="AT21" s="338"/>
+      <c r="J21" s="339"/>
+      <c r="K21" s="339"/>
+      <c r="L21" s="339"/>
+      <c r="M21" s="339"/>
+      <c r="N21" s="339"/>
+      <c r="O21" s="339"/>
+      <c r="P21" s="339"/>
+      <c r="Q21" s="339"/>
+      <c r="R21" s="339"/>
+      <c r="S21" s="339"/>
+      <c r="T21" s="339"/>
+      <c r="U21" s="339"/>
+      <c r="V21" s="339"/>
+      <c r="W21" s="339"/>
+      <c r="X21" s="339"/>
+      <c r="Y21" s="339"/>
+      <c r="Z21" s="339"/>
+      <c r="AA21" s="339"/>
+      <c r="AB21" s="339"/>
+      <c r="AC21" s="339"/>
+      <c r="AD21" s="339"/>
+      <c r="AE21" s="339"/>
+      <c r="AF21" s="339"/>
+      <c r="AG21" s="339"/>
+      <c r="AH21" s="339"/>
+      <c r="AI21" s="339"/>
+      <c r="AJ21" s="339"/>
+      <c r="AK21" s="339"/>
+      <c r="AL21" s="339"/>
+      <c r="AM21" s="339"/>
+      <c r="AN21" s="339"/>
+      <c r="AO21" s="339"/>
+      <c r="AP21" s="339"/>
+      <c r="AQ21" s="339"/>
+      <c r="AR21" s="339"/>
+      <c r="AS21" s="339"/>
+      <c r="AT21" s="339"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="13"/>
       <c r="AW21" s="13"/>
       <c r="AX21" s="7"/>
-      <c r="AY21" s="335"/>
-      <c r="AZ21" s="336"/>
-      <c r="BA21" s="336"/>
-      <c r="BB21" s="336"/>
-      <c r="BC21" s="336"/>
-      <c r="BD21" s="336"/>
-      <c r="BE21" s="336"/>
-      <c r="BF21" s="337"/>
+      <c r="AY21" s="336"/>
+      <c r="AZ21" s="337"/>
+      <c r="BA21" s="337"/>
+      <c r="BB21" s="337"/>
+      <c r="BC21" s="337"/>
+      <c r="BD21" s="337"/>
+      <c r="BE21" s="337"/>
+      <c r="BF21" s="338"/>
     </row>
     <row r="22" spans="2:58" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
@@ -7533,60 +7539,60 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="339"/>
-      <c r="J22" s="339"/>
-      <c r="K22" s="339"/>
-      <c r="L22" s="339"/>
-      <c r="M22" s="339"/>
-      <c r="N22" s="339"/>
-      <c r="O22" s="339"/>
-      <c r="P22" s="339"/>
-      <c r="Q22" s="339"/>
-      <c r="R22" s="339"/>
-      <c r="S22" s="339"/>
-      <c r="T22" s="339"/>
-      <c r="U22" s="339"/>
-      <c r="V22" s="339"/>
-      <c r="W22" s="339"/>
-      <c r="X22" s="339"/>
-      <c r="Y22" s="339"/>
-      <c r="Z22" s="339"/>
-      <c r="AA22" s="339"/>
-      <c r="AB22" s="339"/>
-      <c r="AC22" s="339"/>
-      <c r="AD22" s="339"/>
-      <c r="AE22" s="339"/>
-      <c r="AF22" s="339"/>
-      <c r="AG22" s="339"/>
-      <c r="AH22" s="339"/>
-      <c r="AI22" s="339"/>
-      <c r="AJ22" s="339"/>
-      <c r="AK22" s="339"/>
-      <c r="AL22" s="339"/>
-      <c r="AM22" s="339"/>
-      <c r="AN22" s="339"/>
-      <c r="AO22" s="339"/>
-      <c r="AP22" s="339"/>
-      <c r="AQ22" s="339"/>
-      <c r="AR22" s="339"/>
-      <c r="AS22" s="339"/>
-      <c r="AT22" s="340"/>
-      <c r="AU22" s="341" t="s">
+      <c r="I22" s="340"/>
+      <c r="J22" s="340"/>
+      <c r="K22" s="340"/>
+      <c r="L22" s="340"/>
+      <c r="M22" s="340"/>
+      <c r="N22" s="340"/>
+      <c r="O22" s="340"/>
+      <c r="P22" s="340"/>
+      <c r="Q22" s="340"/>
+      <c r="R22" s="340"/>
+      <c r="S22" s="340"/>
+      <c r="T22" s="340"/>
+      <c r="U22" s="340"/>
+      <c r="V22" s="340"/>
+      <c r="W22" s="340"/>
+      <c r="X22" s="340"/>
+      <c r="Y22" s="340"/>
+      <c r="Z22" s="340"/>
+      <c r="AA22" s="340"/>
+      <c r="AB22" s="340"/>
+      <c r="AC22" s="340"/>
+      <c r="AD22" s="340"/>
+      <c r="AE22" s="340"/>
+      <c r="AF22" s="340"/>
+      <c r="AG22" s="340"/>
+      <c r="AH22" s="340"/>
+      <c r="AI22" s="340"/>
+      <c r="AJ22" s="340"/>
+      <c r="AK22" s="340"/>
+      <c r="AL22" s="340"/>
+      <c r="AM22" s="340"/>
+      <c r="AN22" s="340"/>
+      <c r="AO22" s="340"/>
+      <c r="AP22" s="340"/>
+      <c r="AQ22" s="340"/>
+      <c r="AR22" s="340"/>
+      <c r="AS22" s="340"/>
+      <c r="AT22" s="341"/>
+      <c r="AU22" s="342" t="s">
         <v>29</v>
       </c>
-      <c r="AV22" s="342"/>
-      <c r="AW22" s="342"/>
-      <c r="AX22" s="343"/>
-      <c r="AY22" s="366" t="s">
+      <c r="AV22" s="343"/>
+      <c r="AW22" s="343"/>
+      <c r="AX22" s="344"/>
+      <c r="AY22" s="367" t="s">
         <v>72</v>
       </c>
-      <c r="AZ22" s="328"/>
-      <c r="BA22" s="328"/>
-      <c r="BB22" s="328"/>
-      <c r="BC22" s="328"/>
-      <c r="BD22" s="328"/>
-      <c r="BE22" s="328"/>
-      <c r="BF22" s="329"/>
+      <c r="AZ22" s="329"/>
+      <c r="BA22" s="329"/>
+      <c r="BB22" s="329"/>
+      <c r="BC22" s="329"/>
+      <c r="BD22" s="329"/>
+      <c r="BE22" s="329"/>
+      <c r="BF22" s="330"/>
     </row>
     <row r="23" spans="2:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15"/>
@@ -7596,60 +7602,60 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="338" t="s">
+      <c r="I23" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="338"/>
-      <c r="K23" s="338"/>
-      <c r="L23" s="338"/>
-      <c r="M23" s="338"/>
-      <c r="N23" s="338"/>
-      <c r="O23" s="338"/>
-      <c r="P23" s="338"/>
-      <c r="Q23" s="338"/>
-      <c r="R23" s="338"/>
-      <c r="S23" s="338"/>
-      <c r="T23" s="338"/>
-      <c r="U23" s="338"/>
-      <c r="V23" s="338"/>
-      <c r="W23" s="338"/>
-      <c r="X23" s="338"/>
-      <c r="Y23" s="338"/>
-      <c r="Z23" s="338"/>
-      <c r="AA23" s="338"/>
-      <c r="AB23" s="338"/>
-      <c r="AC23" s="338"/>
-      <c r="AD23" s="338"/>
-      <c r="AE23" s="338"/>
-      <c r="AF23" s="338"/>
-      <c r="AG23" s="338"/>
-      <c r="AH23" s="338"/>
-      <c r="AI23" s="338"/>
-      <c r="AJ23" s="338"/>
-      <c r="AK23" s="338"/>
-      <c r="AL23" s="338"/>
-      <c r="AM23" s="338"/>
-      <c r="AN23" s="338"/>
-      <c r="AO23" s="338"/>
-      <c r="AP23" s="338"/>
-      <c r="AQ23" s="338"/>
-      <c r="AR23" s="338"/>
-      <c r="AS23" s="338"/>
-      <c r="AT23" s="338"/>
-      <c r="AU23" s="324" t="s">
+      <c r="J23" s="339"/>
+      <c r="K23" s="339"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="339"/>
+      <c r="N23" s="339"/>
+      <c r="O23" s="339"/>
+      <c r="P23" s="339"/>
+      <c r="Q23" s="339"/>
+      <c r="R23" s="339"/>
+      <c r="S23" s="339"/>
+      <c r="T23" s="339"/>
+      <c r="U23" s="339"/>
+      <c r="V23" s="339"/>
+      <c r="W23" s="339"/>
+      <c r="X23" s="339"/>
+      <c r="Y23" s="339"/>
+      <c r="Z23" s="339"/>
+      <c r="AA23" s="339"/>
+      <c r="AB23" s="339"/>
+      <c r="AC23" s="339"/>
+      <c r="AD23" s="339"/>
+      <c r="AE23" s="339"/>
+      <c r="AF23" s="339"/>
+      <c r="AG23" s="339"/>
+      <c r="AH23" s="339"/>
+      <c r="AI23" s="339"/>
+      <c r="AJ23" s="339"/>
+      <c r="AK23" s="339"/>
+      <c r="AL23" s="339"/>
+      <c r="AM23" s="339"/>
+      <c r="AN23" s="339"/>
+      <c r="AO23" s="339"/>
+      <c r="AP23" s="339"/>
+      <c r="AQ23" s="339"/>
+      <c r="AR23" s="339"/>
+      <c r="AS23" s="339"/>
+      <c r="AT23" s="339"/>
+      <c r="AU23" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="AV23" s="325"/>
-      <c r="AW23" s="325"/>
-      <c r="AX23" s="326"/>
-      <c r="AY23" s="327"/>
-      <c r="AZ23" s="328"/>
-      <c r="BA23" s="328"/>
-      <c r="BB23" s="328"/>
-      <c r="BC23" s="328"/>
-      <c r="BD23" s="328"/>
-      <c r="BE23" s="328"/>
-      <c r="BF23" s="329"/>
+      <c r="AV23" s="326"/>
+      <c r="AW23" s="326"/>
+      <c r="AX23" s="327"/>
+      <c r="AY23" s="328"/>
+      <c r="AZ23" s="329"/>
+      <c r="BA23" s="329"/>
+      <c r="BB23" s="329"/>
+      <c r="BC23" s="329"/>
+      <c r="BD23" s="329"/>
+      <c r="BE23" s="329"/>
+      <c r="BF23" s="330"/>
     </row>
     <row r="24" spans="2:58" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
@@ -7697,20 +7703,20 @@
       <c r="AR24" s="19"/>
       <c r="AS24" s="19"/>
       <c r="AT24" s="19"/>
-      <c r="AU24" s="324" t="s">
+      <c r="AU24" s="325" t="s">
         <v>29</v>
       </c>
-      <c r="AV24" s="325"/>
-      <c r="AW24" s="325"/>
-      <c r="AX24" s="326"/>
-      <c r="AY24" s="327"/>
-      <c r="AZ24" s="328"/>
-      <c r="BA24" s="328"/>
-      <c r="BB24" s="328"/>
-      <c r="BC24" s="328"/>
-      <c r="BD24" s="328"/>
-      <c r="BE24" s="328"/>
-      <c r="BF24" s="329"/>
+      <c r="AV24" s="326"/>
+      <c r="AW24" s="326"/>
+      <c r="AX24" s="327"/>
+      <c r="AY24" s="328"/>
+      <c r="AZ24" s="329"/>
+      <c r="BA24" s="329"/>
+      <c r="BB24" s="329"/>
+      <c r="BC24" s="329"/>
+      <c r="BD24" s="329"/>
+      <c r="BE24" s="329"/>
+      <c r="BF24" s="330"/>
     </row>
     <row r="25" spans="2:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
@@ -7760,20 +7766,20 @@
       <c r="AT25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AU25" s="311" t="s">
+      <c r="AU25" s="312" t="s">
         <v>30</v>
       </c>
-      <c r="AV25" s="312"/>
-      <c r="AW25" s="312"/>
-      <c r="AX25" s="313"/>
-      <c r="AY25" s="314"/>
-      <c r="AZ25" s="315"/>
-      <c r="BA25" s="315"/>
-      <c r="BB25" s="315"/>
-      <c r="BC25" s="315"/>
-      <c r="BD25" s="315"/>
-      <c r="BE25" s="315"/>
-      <c r="BF25" s="316"/>
+      <c r="AV25" s="313"/>
+      <c r="AW25" s="313"/>
+      <c r="AX25" s="314"/>
+      <c r="AY25" s="315"/>
+      <c r="AZ25" s="316"/>
+      <c r="BA25" s="316"/>
+      <c r="BB25" s="316"/>
+      <c r="BC25" s="316"/>
+      <c r="BD25" s="316"/>
+      <c r="BE25" s="316"/>
+      <c r="BF25" s="317"/>
     </row>
     <row r="26" spans="2:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
@@ -7827,14 +7833,14 @@
       <c r="AX26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AY26" s="317"/>
-      <c r="AZ26" s="318"/>
-      <c r="BA26" s="318"/>
-      <c r="BB26" s="318"/>
-      <c r="BC26" s="318"/>
-      <c r="BD26" s="318"/>
-      <c r="BE26" s="318"/>
-      <c r="BF26" s="319"/>
+      <c r="AY26" s="318"/>
+      <c r="AZ26" s="319"/>
+      <c r="BA26" s="319"/>
+      <c r="BB26" s="319"/>
+      <c r="BC26" s="319"/>
+      <c r="BD26" s="319"/>
+      <c r="BE26" s="319"/>
+      <c r="BF26" s="320"/>
     </row>
     <row r="27" spans="2:58" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
@@ -7927,21 +7933,21 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="320" t="s">
+      <c r="AG28" s="321" t="s">
         <v>33</v>
       </c>
-      <c r="AH28" s="321"/>
-      <c r="AI28" s="321"/>
-      <c r="AJ28" s="321"/>
-      <c r="AK28" s="322"/>
-      <c r="AL28" s="323" t="s">
+      <c r="AH28" s="322"/>
+      <c r="AI28" s="322"/>
+      <c r="AJ28" s="322"/>
+      <c r="AK28" s="323"/>
+      <c r="AL28" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="AM28" s="323"/>
-      <c r="AN28" s="323"/>
-      <c r="AO28" s="323"/>
-      <c r="AP28" s="323"/>
-      <c r="AQ28" s="323"/>
+      <c r="AM28" s="324"/>
+      <c r="AN28" s="324"/>
+      <c r="AO28" s="324"/>
+      <c r="AP28" s="324"/>
+      <c r="AQ28" s="324"/>
       <c r="AR28" s="24"/>
       <c r="AS28" s="24"/>
       <c r="AT28" s="22"/>
@@ -7959,52 +7965,52 @@
       <c r="BF28" s="20"/>
     </row>
     <row r="29" spans="2:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="303" t="s">
+      <c r="B29" s="304" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="303"/>
-      <c r="D29" s="303"/>
-      <c r="E29" s="303"/>
-      <c r="F29" s="303"/>
-      <c r="G29" s="303"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="303"/>
-      <c r="J29" s="303"/>
-      <c r="K29" s="303"/>
-      <c r="L29" s="303"/>
-      <c r="M29" s="303"/>
-      <c r="N29" s="303"/>
-      <c r="O29" s="303"/>
-      <c r="P29" s="303"/>
-      <c r="Q29" s="303"/>
-      <c r="R29" s="303"/>
-      <c r="S29" s="303"/>
-      <c r="T29" s="303"/>
-      <c r="U29" s="303"/>
-      <c r="V29" s="303"/>
-      <c r="W29" s="303"/>
-      <c r="X29" s="303"/>
-      <c r="Y29" s="303"/>
-      <c r="Z29" s="303"/>
-      <c r="AA29" s="303"/>
-      <c r="AB29" s="303"/>
-      <c r="AC29" s="303"/>
-      <c r="AD29" s="303"/>
-      <c r="AE29" s="303"/>
-      <c r="AF29" s="304"/>
-      <c r="AG29" s="305" t="s">
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="304"/>
+      <c r="J29" s="304"/>
+      <c r="K29" s="304"/>
+      <c r="L29" s="304"/>
+      <c r="M29" s="304"/>
+      <c r="N29" s="304"/>
+      <c r="O29" s="304"/>
+      <c r="P29" s="304"/>
+      <c r="Q29" s="304"/>
+      <c r="R29" s="304"/>
+      <c r="S29" s="304"/>
+      <c r="T29" s="304"/>
+      <c r="U29" s="304"/>
+      <c r="V29" s="304"/>
+      <c r="W29" s="304"/>
+      <c r="X29" s="304"/>
+      <c r="Y29" s="304"/>
+      <c r="Z29" s="304"/>
+      <c r="AA29" s="304"/>
+      <c r="AB29" s="304"/>
+      <c r="AC29" s="304"/>
+      <c r="AD29" s="304"/>
+      <c r="AE29" s="304"/>
+      <c r="AF29" s="305"/>
+      <c r="AG29" s="306" t="s">
         <v>72</v>
       </c>
-      <c r="AH29" s="306"/>
-      <c r="AI29" s="306"/>
-      <c r="AJ29" s="306"/>
-      <c r="AK29" s="306"/>
-      <c r="AL29" s="307"/>
-      <c r="AM29" s="308"/>
-      <c r="AN29" s="308"/>
-      <c r="AO29" s="308"/>
-      <c r="AP29" s="308"/>
-      <c r="AQ29" s="309"/>
+      <c r="AH29" s="307"/>
+      <c r="AI29" s="307"/>
+      <c r="AJ29" s="307"/>
+      <c r="AK29" s="307"/>
+      <c r="AL29" s="308"/>
+      <c r="AM29" s="309"/>
+      <c r="AN29" s="309"/>
+      <c r="AO29" s="309"/>
+      <c r="AP29" s="309"/>
+      <c r="AQ29" s="310"/>
       <c r="AR29" s="23"/>
       <c r="AS29" s="23"/>
       <c r="AT29" s="23"/>
@@ -8022,430 +8028,430 @@
       <c r="BF29" s="9"/>
     </row>
     <row r="30" spans="2:58" ht="16" x14ac:dyDescent="0.2">
-      <c r="B30" s="310"/>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="310"/>
-      <c r="I30" s="310"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="310"/>
-      <c r="L30" s="310"/>
-      <c r="M30" s="310"/>
-      <c r="N30" s="310"/>
-      <c r="O30" s="310"/>
-      <c r="P30" s="310"/>
-      <c r="Q30" s="310"/>
-      <c r="R30" s="310"/>
-      <c r="S30" s="310"/>
-      <c r="T30" s="310"/>
-      <c r="U30" s="310"/>
-      <c r="V30" s="310"/>
-      <c r="W30" s="310"/>
-      <c r="X30" s="310"/>
-      <c r="Y30" s="310"/>
-      <c r="Z30" s="310"/>
-      <c r="AA30" s="310"/>
-      <c r="AB30" s="310"/>
-      <c r="AC30" s="310"/>
-      <c r="AD30" s="310"/>
-      <c r="AE30" s="310"/>
-      <c r="AF30" s="310"/>
-      <c r="AG30" s="310"/>
-      <c r="AH30" s="310"/>
-      <c r="AI30" s="310"/>
-      <c r="AJ30" s="310"/>
-      <c r="AK30" s="310"/>
-      <c r="AL30" s="310"/>
-      <c r="AM30" s="310"/>
-      <c r="AN30" s="310"/>
-      <c r="AO30" s="310"/>
-      <c r="AP30" s="310"/>
-      <c r="AQ30" s="310"/>
-      <c r="AR30" s="310"/>
-      <c r="AS30" s="310"/>
-      <c r="AT30" s="310"/>
-      <c r="AU30" s="310"/>
-      <c r="AV30" s="310"/>
-      <c r="AW30" s="310"/>
-      <c r="AX30" s="310"/>
-      <c r="AY30" s="310"/>
-      <c r="AZ30" s="310"/>
-      <c r="BA30" s="310"/>
-      <c r="BB30" s="310"/>
-      <c r="BC30" s="310"/>
-      <c r="BD30" s="310"/>
-      <c r="BE30" s="310"/>
-      <c r="BF30" s="310"/>
+      <c r="B30" s="311"/>
+      <c r="C30" s="311"/>
+      <c r="D30" s="311"/>
+      <c r="E30" s="311"/>
+      <c r="F30" s="311"/>
+      <c r="G30" s="311"/>
+      <c r="H30" s="311"/>
+      <c r="I30" s="311"/>
+      <c r="J30" s="311"/>
+      <c r="K30" s="311"/>
+      <c r="L30" s="311"/>
+      <c r="M30" s="311"/>
+      <c r="N30" s="311"/>
+      <c r="O30" s="311"/>
+      <c r="P30" s="311"/>
+      <c r="Q30" s="311"/>
+      <c r="R30" s="311"/>
+      <c r="S30" s="311"/>
+      <c r="T30" s="311"/>
+      <c r="U30" s="311"/>
+      <c r="V30" s="311"/>
+      <c r="W30" s="311"/>
+      <c r="X30" s="311"/>
+      <c r="Y30" s="311"/>
+      <c r="Z30" s="311"/>
+      <c r="AA30" s="311"/>
+      <c r="AB30" s="311"/>
+      <c r="AC30" s="311"/>
+      <c r="AD30" s="311"/>
+      <c r="AE30" s="311"/>
+      <c r="AF30" s="311"/>
+      <c r="AG30" s="311"/>
+      <c r="AH30" s="311"/>
+      <c r="AI30" s="311"/>
+      <c r="AJ30" s="311"/>
+      <c r="AK30" s="311"/>
+      <c r="AL30" s="311"/>
+      <c r="AM30" s="311"/>
+      <c r="AN30" s="311"/>
+      <c r="AO30" s="311"/>
+      <c r="AP30" s="311"/>
+      <c r="AQ30" s="311"/>
+      <c r="AR30" s="311"/>
+      <c r="AS30" s="311"/>
+      <c r="AT30" s="311"/>
+      <c r="AU30" s="311"/>
+      <c r="AV30" s="311"/>
+      <c r="AW30" s="311"/>
+      <c r="AX30" s="311"/>
+      <c r="AY30" s="311"/>
+      <c r="AZ30" s="311"/>
+      <c r="BA30" s="311"/>
+      <c r="BB30" s="311"/>
+      <c r="BC30" s="311"/>
+      <c r="BD30" s="311"/>
+      <c r="BE30" s="311"/>
+      <c r="BF30" s="311"/>
     </row>
     <row r="31" spans="2:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="278" t="s">
+      <c r="B31" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="278"/>
-      <c r="D31" s="278"/>
-      <c r="E31" s="278" t="s">
+      <c r="C31" s="279"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="278"/>
-      <c r="G31" s="278"/>
-      <c r="H31" s="278"/>
-      <c r="I31" s="278"/>
-      <c r="J31" s="278"/>
-      <c r="K31" s="278"/>
-      <c r="L31" s="278"/>
-      <c r="M31" s="278"/>
-      <c r="N31" s="278"/>
-      <c r="O31" s="278"/>
-      <c r="P31" s="278"/>
-      <c r="Q31" s="278"/>
-      <c r="R31" s="278"/>
-      <c r="S31" s="278"/>
-      <c r="T31" s="278"/>
-      <c r="U31" s="278"/>
-      <c r="V31" s="278" t="s">
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="279"/>
+      <c r="J31" s="279"/>
+      <c r="K31" s="279"/>
+      <c r="L31" s="279"/>
+      <c r="M31" s="279"/>
+      <c r="N31" s="279"/>
+      <c r="O31" s="279"/>
+      <c r="P31" s="279"/>
+      <c r="Q31" s="279"/>
+      <c r="R31" s="279"/>
+      <c r="S31" s="279"/>
+      <c r="T31" s="279"/>
+      <c r="U31" s="279"/>
+      <c r="V31" s="279" t="s">
         <v>7</v>
       </c>
-      <c r="W31" s="278"/>
-      <c r="X31" s="278"/>
-      <c r="Y31" s="278"/>
-      <c r="Z31" s="278"/>
-      <c r="AA31" s="278"/>
-      <c r="AB31" s="291" t="s">
+      <c r="W31" s="279"/>
+      <c r="X31" s="279"/>
+      <c r="Y31" s="279"/>
+      <c r="Z31" s="279"/>
+      <c r="AA31" s="279"/>
+      <c r="AB31" s="292" t="s">
         <v>37</v>
       </c>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="293"/>
-      <c r="AE31" s="297" t="s">
+      <c r="AC31" s="293"/>
+      <c r="AD31" s="294"/>
+      <c r="AE31" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="AF31" s="298"/>
-      <c r="AG31" s="298"/>
-      <c r="AH31" s="298"/>
-      <c r="AI31" s="299"/>
-      <c r="AJ31" s="291" t="s">
+      <c r="AF31" s="299"/>
+      <c r="AG31" s="299"/>
+      <c r="AH31" s="299"/>
+      <c r="AI31" s="300"/>
+      <c r="AJ31" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="AK31" s="292"/>
-      <c r="AL31" s="293"/>
-      <c r="AM31" s="291" t="s">
+      <c r="AK31" s="293"/>
+      <c r="AL31" s="294"/>
+      <c r="AM31" s="292" t="s">
         <v>46</v>
       </c>
-      <c r="AN31" s="292"/>
-      <c r="AO31" s="293"/>
-      <c r="AP31" s="291" t="s">
+      <c r="AN31" s="293"/>
+      <c r="AO31" s="294"/>
+      <c r="AP31" s="292" t="s">
         <v>40</v>
       </c>
-      <c r="AQ31" s="292"/>
-      <c r="AR31" s="293"/>
-      <c r="AS31" s="291" t="s">
+      <c r="AQ31" s="293"/>
+      <c r="AR31" s="294"/>
+      <c r="AS31" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="AT31" s="292"/>
-      <c r="AU31" s="293"/>
-      <c r="AV31" s="278" t="s">
+      <c r="AT31" s="293"/>
+      <c r="AU31" s="294"/>
+      <c r="AV31" s="279" t="s">
         <v>42</v>
       </c>
-      <c r="AW31" s="278"/>
-      <c r="AX31" s="278"/>
-      <c r="AY31" s="278"/>
-      <c r="AZ31" s="278"/>
-      <c r="BA31" s="278"/>
-      <c r="BB31" s="278"/>
-      <c r="BC31" s="278" t="s">
+      <c r="AW31" s="279"/>
+      <c r="AX31" s="279"/>
+      <c r="AY31" s="279"/>
+      <c r="AZ31" s="279"/>
+      <c r="BA31" s="279"/>
+      <c r="BB31" s="279"/>
+      <c r="BC31" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="BD31" s="278"/>
-      <c r="BE31" s="278"/>
-      <c r="BF31" s="278"/>
+      <c r="BD31" s="279"/>
+      <c r="BE31" s="279"/>
+      <c r="BF31" s="279"/>
     </row>
     <row r="32" spans="2:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="278"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="278" t="s">
+      <c r="B32" s="279"/>
+      <c r="C32" s="279"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="278"/>
-      <c r="I32" s="278"/>
-      <c r="J32" s="278"/>
-      <c r="K32" s="278"/>
-      <c r="L32" s="278"/>
-      <c r="M32" s="278"/>
-      <c r="N32" s="278"/>
-      <c r="O32" s="278"/>
-      <c r="P32" s="278"/>
-      <c r="Q32" s="278"/>
-      <c r="R32" s="278"/>
-      <c r="S32" s="278" t="s">
+      <c r="F32" s="279"/>
+      <c r="G32" s="279"/>
+      <c r="H32" s="279"/>
+      <c r="I32" s="279"/>
+      <c r="J32" s="279"/>
+      <c r="K32" s="279"/>
+      <c r="L32" s="279"/>
+      <c r="M32" s="279"/>
+      <c r="N32" s="279"/>
+      <c r="O32" s="279"/>
+      <c r="P32" s="279"/>
+      <c r="Q32" s="279"/>
+      <c r="R32" s="279"/>
+      <c r="S32" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="T32" s="278"/>
-      <c r="U32" s="278"/>
-      <c r="V32" s="278" t="s">
+      <c r="T32" s="279"/>
+      <c r="U32" s="279"/>
+      <c r="V32" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="W32" s="278"/>
-      <c r="X32" s="278"/>
-      <c r="Y32" s="278" t="s">
+      <c r="W32" s="279"/>
+      <c r="X32" s="279"/>
+      <c r="Y32" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="Z32" s="278"/>
-      <c r="AA32" s="278"/>
-      <c r="AB32" s="300"/>
-      <c r="AC32" s="301"/>
-      <c r="AD32" s="302"/>
-      <c r="AE32" s="291" t="s">
+      <c r="Z32" s="279"/>
+      <c r="AA32" s="279"/>
+      <c r="AB32" s="301"/>
+      <c r="AC32" s="302"/>
+      <c r="AD32" s="303"/>
+      <c r="AE32" s="292" t="s">
         <v>10</v>
       </c>
-      <c r="AF32" s="292"/>
-      <c r="AG32" s="293"/>
-      <c r="AH32" s="291" t="s">
+      <c r="AF32" s="293"/>
+      <c r="AG32" s="294"/>
+      <c r="AH32" s="292" t="s">
         <v>38</v>
       </c>
-      <c r="AI32" s="293"/>
-      <c r="AJ32" s="300"/>
-      <c r="AK32" s="301"/>
-      <c r="AL32" s="302"/>
-      <c r="AM32" s="300"/>
-      <c r="AN32" s="301"/>
-      <c r="AO32" s="302"/>
-      <c r="AP32" s="300"/>
-      <c r="AQ32" s="301"/>
-      <c r="AR32" s="302"/>
-      <c r="AS32" s="300"/>
-      <c r="AT32" s="301"/>
-      <c r="AU32" s="302"/>
-      <c r="AV32" s="291" t="s">
+      <c r="AI32" s="294"/>
+      <c r="AJ32" s="301"/>
+      <c r="AK32" s="302"/>
+      <c r="AL32" s="303"/>
+      <c r="AM32" s="301"/>
+      <c r="AN32" s="302"/>
+      <c r="AO32" s="303"/>
+      <c r="AP32" s="301"/>
+      <c r="AQ32" s="302"/>
+      <c r="AR32" s="303"/>
+      <c r="AS32" s="301"/>
+      <c r="AT32" s="302"/>
+      <c r="AU32" s="303"/>
+      <c r="AV32" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="AW32" s="292"/>
-      <c r="AX32" s="293"/>
-      <c r="AY32" s="278" t="s">
+      <c r="AW32" s="293"/>
+      <c r="AX32" s="294"/>
+      <c r="AY32" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="AZ32" s="278"/>
-      <c r="BA32" s="278"/>
-      <c r="BB32" s="278"/>
-      <c r="BC32" s="278"/>
-      <c r="BD32" s="278"/>
-      <c r="BE32" s="278"/>
-      <c r="BF32" s="278"/>
+      <c r="AZ32" s="279"/>
+      <c r="BA32" s="279"/>
+      <c r="BB32" s="279"/>
+      <c r="BC32" s="279"/>
+      <c r="BD32" s="279"/>
+      <c r="BE32" s="279"/>
+      <c r="BF32" s="279"/>
     </row>
     <row r="33" spans="2:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="278"/>
-      <c r="C33" s="278"/>
-      <c r="D33" s="278"/>
-      <c r="E33" s="278"/>
-      <c r="F33" s="278"/>
-      <c r="G33" s="278"/>
-      <c r="H33" s="278"/>
-      <c r="I33" s="278"/>
-      <c r="J33" s="278"/>
-      <c r="K33" s="278"/>
-      <c r="L33" s="278"/>
-      <c r="M33" s="278"/>
-      <c r="N33" s="278"/>
-      <c r="O33" s="278"/>
-      <c r="P33" s="278"/>
-      <c r="Q33" s="278"/>
-      <c r="R33" s="278"/>
-      <c r="S33" s="278"/>
-      <c r="T33" s="278"/>
-      <c r="U33" s="278"/>
-      <c r="V33" s="278"/>
-      <c r="W33" s="278"/>
-      <c r="X33" s="278"/>
-      <c r="Y33" s="278"/>
-      <c r="Z33" s="278"/>
-      <c r="AA33" s="278"/>
-      <c r="AB33" s="294"/>
-      <c r="AC33" s="295"/>
-      <c r="AD33" s="296"/>
-      <c r="AE33" s="294"/>
-      <c r="AF33" s="295"/>
-      <c r="AG33" s="296"/>
-      <c r="AH33" s="294"/>
-      <c r="AI33" s="296"/>
-      <c r="AJ33" s="294"/>
-      <c r="AK33" s="295"/>
-      <c r="AL33" s="296"/>
-      <c r="AM33" s="294"/>
-      <c r="AN33" s="295"/>
-      <c r="AO33" s="296"/>
-      <c r="AP33" s="294"/>
-      <c r="AQ33" s="295"/>
-      <c r="AR33" s="296"/>
-      <c r="AS33" s="294"/>
-      <c r="AT33" s="295"/>
-      <c r="AU33" s="296"/>
-      <c r="AV33" s="294"/>
-      <c r="AW33" s="295"/>
-      <c r="AX33" s="296"/>
-      <c r="AY33" s="278"/>
-      <c r="AZ33" s="278"/>
-      <c r="BA33" s="278"/>
-      <c r="BB33" s="278"/>
-      <c r="BC33" s="278"/>
-      <c r="BD33" s="278"/>
-      <c r="BE33" s="278"/>
-      <c r="BF33" s="278"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="279"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="279"/>
+      <c r="K33" s="279"/>
+      <c r="L33" s="279"/>
+      <c r="M33" s="279"/>
+      <c r="N33" s="279"/>
+      <c r="O33" s="279"/>
+      <c r="P33" s="279"/>
+      <c r="Q33" s="279"/>
+      <c r="R33" s="279"/>
+      <c r="S33" s="279"/>
+      <c r="T33" s="279"/>
+      <c r="U33" s="279"/>
+      <c r="V33" s="279"/>
+      <c r="W33" s="279"/>
+      <c r="X33" s="279"/>
+      <c r="Y33" s="279"/>
+      <c r="Z33" s="279"/>
+      <c r="AA33" s="279"/>
+      <c r="AB33" s="295"/>
+      <c r="AC33" s="296"/>
+      <c r="AD33" s="297"/>
+      <c r="AE33" s="295"/>
+      <c r="AF33" s="296"/>
+      <c r="AG33" s="297"/>
+      <c r="AH33" s="295"/>
+      <c r="AI33" s="297"/>
+      <c r="AJ33" s="295"/>
+      <c r="AK33" s="296"/>
+      <c r="AL33" s="297"/>
+      <c r="AM33" s="295"/>
+      <c r="AN33" s="296"/>
+      <c r="AO33" s="297"/>
+      <c r="AP33" s="295"/>
+      <c r="AQ33" s="296"/>
+      <c r="AR33" s="297"/>
+      <c r="AS33" s="295"/>
+      <c r="AT33" s="296"/>
+      <c r="AU33" s="297"/>
+      <c r="AV33" s="295"/>
+      <c r="AW33" s="296"/>
+      <c r="AX33" s="297"/>
+      <c r="AY33" s="279"/>
+      <c r="AZ33" s="279"/>
+      <c r="BA33" s="279"/>
+      <c r="BB33" s="279"/>
+      <c r="BC33" s="279"/>
+      <c r="BD33" s="279"/>
+      <c r="BE33" s="279"/>
+      <c r="BF33" s="279"/>
     </row>
     <row r="34" spans="2:58" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="287">
+      <c r="B34" s="288">
         <v>1</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="288"/>
-      <c r="F34" s="289"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="289"/>
-      <c r="I34" s="289"/>
-      <c r="J34" s="289"/>
-      <c r="K34" s="289"/>
-      <c r="L34" s="289"/>
-      <c r="M34" s="289"/>
-      <c r="N34" s="289"/>
-      <c r="O34" s="289"/>
-      <c r="P34" s="289"/>
-      <c r="Q34" s="289"/>
-      <c r="R34" s="290"/>
-      <c r="S34" s="267">
+      <c r="C34" s="288"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="289"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="290"/>
+      <c r="K34" s="290"/>
+      <c r="L34" s="290"/>
+      <c r="M34" s="290"/>
+      <c r="N34" s="290"/>
+      <c r="O34" s="290"/>
+      <c r="P34" s="290"/>
+      <c r="Q34" s="290"/>
+      <c r="R34" s="291"/>
+      <c r="S34" s="268">
         <v>3</v>
       </c>
-      <c r="T34" s="267"/>
-      <c r="U34" s="267"/>
-      <c r="V34" s="287">
+      <c r="T34" s="268"/>
+      <c r="U34" s="268"/>
+      <c r="V34" s="288">
         <v>4</v>
       </c>
-      <c r="W34" s="287"/>
-      <c r="X34" s="287"/>
-      <c r="Y34" s="267">
+      <c r="W34" s="288"/>
+      <c r="X34" s="288"/>
+      <c r="Y34" s="268">
         <v>5</v>
       </c>
-      <c r="Z34" s="267"/>
-      <c r="AA34" s="267"/>
-      <c r="AB34" s="267">
+      <c r="Z34" s="268"/>
+      <c r="AA34" s="268"/>
+      <c r="AB34" s="268">
         <v>6</v>
       </c>
-      <c r="AC34" s="267"/>
-      <c r="AD34" s="267"/>
-      <c r="AE34" s="267">
+      <c r="AC34" s="268"/>
+      <c r="AD34" s="268"/>
+      <c r="AE34" s="268">
         <v>7</v>
       </c>
-      <c r="AF34" s="267"/>
-      <c r="AG34" s="267"/>
-      <c r="AH34" s="267">
+      <c r="AF34" s="268"/>
+      <c r="AG34" s="268"/>
+      <c r="AH34" s="268">
         <v>8</v>
       </c>
-      <c r="AI34" s="267"/>
-      <c r="AJ34" s="267">
+      <c r="AI34" s="268"/>
+      <c r="AJ34" s="268">
         <v>9</v>
       </c>
-      <c r="AK34" s="267"/>
-      <c r="AL34" s="267"/>
-      <c r="AM34" s="260">
+      <c r="AK34" s="268"/>
+      <c r="AL34" s="268"/>
+      <c r="AM34" s="261">
         <v>10</v>
       </c>
-      <c r="AN34" s="261"/>
-      <c r="AO34" s="262"/>
-      <c r="AP34" s="267">
+      <c r="AN34" s="262"/>
+      <c r="AO34" s="263"/>
+      <c r="AP34" s="268">
         <v>11</v>
       </c>
-      <c r="AQ34" s="267"/>
-      <c r="AR34" s="267"/>
-      <c r="AS34" s="267">
+      <c r="AQ34" s="268"/>
+      <c r="AR34" s="268"/>
+      <c r="AS34" s="268">
         <v>12</v>
       </c>
-      <c r="AT34" s="267"/>
-      <c r="AU34" s="267"/>
-      <c r="AV34" s="267">
+      <c r="AT34" s="268"/>
+      <c r="AU34" s="268"/>
+      <c r="AV34" s="268">
         <v>13</v>
       </c>
-      <c r="AW34" s="267"/>
-      <c r="AX34" s="267"/>
-      <c r="AY34" s="267">
+      <c r="AW34" s="268"/>
+      <c r="AX34" s="268"/>
+      <c r="AY34" s="268">
         <v>14</v>
       </c>
-      <c r="AZ34" s="267"/>
-      <c r="BA34" s="267"/>
-      <c r="BB34" s="267"/>
-      <c r="BC34" s="267">
+      <c r="AZ34" s="268"/>
+      <c r="BA34" s="268"/>
+      <c r="BB34" s="268"/>
+      <c r="BC34" s="268">
         <v>15</v>
       </c>
-      <c r="BD34" s="267"/>
-      <c r="BE34" s="267"/>
-      <c r="BF34" s="267"/>
+      <c r="BD34" s="268"/>
+      <c r="BE34" s="268"/>
+      <c r="BF34" s="268"/>
     </row>
     <row r="35" spans="2:58" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="279">
+      <c r="B35" s="280">
         <v>1</v>
       </c>
-      <c r="C35" s="279"/>
-      <c r="D35" s="279"/>
-      <c r="E35" s="280"/>
-      <c r="F35" s="280"/>
-      <c r="G35" s="280"/>
-      <c r="H35" s="280"/>
-      <c r="I35" s="280"/>
-      <c r="J35" s="280"/>
-      <c r="K35" s="280"/>
-      <c r="L35" s="280"/>
-      <c r="M35" s="280"/>
-      <c r="N35" s="280"/>
-      <c r="O35" s="280"/>
-      <c r="P35" s="280"/>
-      <c r="Q35" s="280"/>
-      <c r="R35" s="281"/>
-      <c r="S35" s="282"/>
-      <c r="T35" s="283"/>
-      <c r="U35" s="284"/>
-      <c r="V35" s="285" t="s">
+      <c r="C35" s="280"/>
+      <c r="D35" s="280"/>
+      <c r="E35" s="281"/>
+      <c r="F35" s="281"/>
+      <c r="G35" s="281"/>
+      <c r="H35" s="281"/>
+      <c r="I35" s="281"/>
+      <c r="J35" s="281"/>
+      <c r="K35" s="281"/>
+      <c r="L35" s="281"/>
+      <c r="M35" s="281"/>
+      <c r="N35" s="281"/>
+      <c r="O35" s="281"/>
+      <c r="P35" s="281"/>
+      <c r="Q35" s="281"/>
+      <c r="R35" s="282"/>
+      <c r="S35" s="283"/>
+      <c r="T35" s="284"/>
+      <c r="U35" s="285"/>
+      <c r="V35" s="286" t="s">
         <v>72</v>
       </c>
-      <c r="W35" s="279"/>
-      <c r="X35" s="286"/>
-      <c r="Y35" s="282"/>
-      <c r="Z35" s="283"/>
-      <c r="AA35" s="283"/>
-      <c r="AB35" s="263"/>
-      <c r="AC35" s="263"/>
-      <c r="AD35" s="263"/>
-      <c r="AE35" s="263"/>
-      <c r="AF35" s="263"/>
-      <c r="AG35" s="263"/>
-      <c r="AH35" s="263"/>
-      <c r="AI35" s="263"/>
-      <c r="AJ35" s="263"/>
-      <c r="AK35" s="263"/>
-      <c r="AL35" s="263"/>
-      <c r="AM35" s="264">
+      <c r="W35" s="280"/>
+      <c r="X35" s="287"/>
+      <c r="Y35" s="283"/>
+      <c r="Z35" s="284"/>
+      <c r="AA35" s="284"/>
+      <c r="AB35" s="264"/>
+      <c r="AC35" s="264"/>
+      <c r="AD35" s="264"/>
+      <c r="AE35" s="264"/>
+      <c r="AF35" s="264"/>
+      <c r="AG35" s="264"/>
+      <c r="AH35" s="264"/>
+      <c r="AI35" s="264"/>
+      <c r="AJ35" s="264"/>
+      <c r="AK35" s="264"/>
+      <c r="AL35" s="264"/>
+      <c r="AM35" s="265">
         <v>0</v>
       </c>
-      <c r="AN35" s="265"/>
-      <c r="AO35" s="266"/>
-      <c r="AP35" s="271"/>
-      <c r="AQ35" s="271"/>
-      <c r="AR35" s="271"/>
-      <c r="AS35" s="271"/>
-      <c r="AT35" s="271"/>
-      <c r="AU35" s="277"/>
-      <c r="AV35" s="268"/>
-      <c r="AW35" s="258"/>
-      <c r="AX35" s="269"/>
-      <c r="AY35" s="270"/>
-      <c r="AZ35" s="271"/>
-      <c r="BA35" s="271"/>
-      <c r="BB35" s="271"/>
-      <c r="BC35" s="272"/>
-      <c r="BD35" s="273"/>
-      <c r="BE35" s="273"/>
-      <c r="BF35" s="274"/>
+      <c r="AN35" s="266"/>
+      <c r="AO35" s="267"/>
+      <c r="AP35" s="272"/>
+      <c r="AQ35" s="272"/>
+      <c r="AR35" s="272"/>
+      <c r="AS35" s="272"/>
+      <c r="AT35" s="272"/>
+      <c r="AU35" s="278"/>
+      <c r="AV35" s="269"/>
+      <c r="AW35" s="259"/>
+      <c r="AX35" s="270"/>
+      <c r="AY35" s="271"/>
+      <c r="AZ35" s="272"/>
+      <c r="BA35" s="272"/>
+      <c r="BB35" s="272"/>
+      <c r="BC35" s="273"/>
+      <c r="BD35" s="274"/>
+      <c r="BE35" s="274"/>
+      <c r="BF35" s="275"/>
     </row>
     <row r="36" spans="2:58" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
@@ -8482,39 +8488,39 @@
       <c r="AG36" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AH36" s="275"/>
-      <c r="AI36" s="275"/>
-      <c r="AJ36" s="275"/>
-      <c r="AK36" s="275"/>
-      <c r="AL36" s="275"/>
-      <c r="AM36" s="275"/>
-      <c r="AN36" s="275"/>
-      <c r="AO36" s="275"/>
-      <c r="AP36" s="276" t="s">
+      <c r="AH36" s="276"/>
+      <c r="AI36" s="276"/>
+      <c r="AJ36" s="276"/>
+      <c r="AK36" s="276"/>
+      <c r="AL36" s="276"/>
+      <c r="AM36" s="276"/>
+      <c r="AN36" s="276"/>
+      <c r="AO36" s="276"/>
+      <c r="AP36" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="AQ36" s="276"/>
-      <c r="AR36" s="276"/>
-      <c r="AS36" s="258">
+      <c r="AQ36" s="277"/>
+      <c r="AR36" s="277"/>
+      <c r="AS36" s="259">
         <v>0</v>
       </c>
-      <c r="AT36" s="259"/>
-      <c r="AU36" s="259"/>
-      <c r="AV36" s="276" t="s">
+      <c r="AT36" s="260"/>
+      <c r="AU36" s="260"/>
+      <c r="AV36" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="AW36" s="276"/>
-      <c r="AX36" s="276"/>
-      <c r="AY36" s="258"/>
-      <c r="AZ36" s="258"/>
-      <c r="BA36" s="258"/>
-      <c r="BB36" s="258"/>
-      <c r="BC36" s="258">
+      <c r="AW36" s="277"/>
+      <c r="AX36" s="277"/>
+      <c r="AY36" s="259"/>
+      <c r="AZ36" s="259"/>
+      <c r="BA36" s="259"/>
+      <c r="BB36" s="259"/>
+      <c r="BC36" s="259">
         <v>0</v>
       </c>
-      <c r="BD36" s="259"/>
-      <c r="BE36" s="259"/>
-      <c r="BF36" s="259"/>
+      <c r="BD36" s="260"/>
+      <c r="BE36" s="260"/>
+      <c r="BF36" s="260"/>
     </row>
     <row r="37" spans="2:58" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
@@ -8594,28 +8600,28 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="240"/>
-      <c r="S38" s="240"/>
-      <c r="T38" s="240"/>
-      <c r="U38" s="240"/>
-      <c r="V38" s="240"/>
-      <c r="W38" s="240"/>
-      <c r="X38" s="240"/>
-      <c r="Y38" s="240"/>
-      <c r="Z38" s="240"/>
-      <c r="AA38" s="240"/>
-      <c r="AB38" s="240"/>
-      <c r="AC38" s="240"/>
-      <c r="AD38" s="240"/>
-      <c r="AE38" s="240"/>
-      <c r="AF38" s="240"/>
-      <c r="AG38" s="240"/>
-      <c r="AH38" s="240"/>
-      <c r="AI38" s="240"/>
-      <c r="AJ38" s="240"/>
-      <c r="AK38" s="240"/>
-      <c r="AL38" s="240"/>
-      <c r="AM38" s="240"/>
+      <c r="R38" s="241"/>
+      <c r="S38" s="241"/>
+      <c r="T38" s="241"/>
+      <c r="U38" s="241"/>
+      <c r="V38" s="241"/>
+      <c r="W38" s="241"/>
+      <c r="X38" s="241"/>
+      <c r="Y38" s="241"/>
+      <c r="Z38" s="241"/>
+      <c r="AA38" s="241"/>
+      <c r="AB38" s="241"/>
+      <c r="AC38" s="241"/>
+      <c r="AD38" s="241"/>
+      <c r="AE38" s="241"/>
+      <c r="AF38" s="241"/>
+      <c r="AG38" s="241"/>
+      <c r="AH38" s="241"/>
+      <c r="AI38" s="241"/>
+      <c r="AJ38" s="241"/>
+      <c r="AK38" s="241"/>
+      <c r="AL38" s="241"/>
+      <c r="AM38" s="241"/>
       <c r="AN38" s="4" t="s">
         <v>50</v>
       </c>
@@ -8646,39 +8652,39 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="240"/>
-      <c r="H39" s="240"/>
-      <c r="I39" s="240"/>
-      <c r="J39" s="240"/>
-      <c r="K39" s="240"/>
-      <c r="L39" s="240"/>
-      <c r="M39" s="240"/>
-      <c r="N39" s="240"/>
-      <c r="O39" s="240"/>
-      <c r="P39" s="240"/>
-      <c r="Q39" s="240"/>
-      <c r="R39" s="240"/>
-      <c r="S39" s="240"/>
-      <c r="T39" s="240"/>
-      <c r="U39" s="240"/>
-      <c r="V39" s="240"/>
-      <c r="W39" s="240"/>
-      <c r="X39" s="240"/>
-      <c r="Y39" s="240"/>
-      <c r="Z39" s="240"/>
-      <c r="AA39" s="240"/>
-      <c r="AB39" s="240"/>
-      <c r="AC39" s="240"/>
-      <c r="AD39" s="240"/>
-      <c r="AE39" s="240"/>
-      <c r="AF39" s="240"/>
-      <c r="AG39" s="240"/>
-      <c r="AH39" s="240"/>
-      <c r="AI39" s="240"/>
-      <c r="AJ39" s="240"/>
-      <c r="AK39" s="240"/>
-      <c r="AL39" s="240"/>
-      <c r="AM39" s="240"/>
+      <c r="G39" s="241"/>
+      <c r="H39" s="241"/>
+      <c r="I39" s="241"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="241"/>
+      <c r="L39" s="241"/>
+      <c r="M39" s="241"/>
+      <c r="N39" s="241"/>
+      <c r="O39" s="241"/>
+      <c r="P39" s="241"/>
+      <c r="Q39" s="241"/>
+      <c r="R39" s="241"/>
+      <c r="S39" s="241"/>
+      <c r="T39" s="241"/>
+      <c r="U39" s="241"/>
+      <c r="V39" s="241"/>
+      <c r="W39" s="241"/>
+      <c r="X39" s="241"/>
+      <c r="Y39" s="241"/>
+      <c r="Z39" s="241"/>
+      <c r="AA39" s="241"/>
+      <c r="AB39" s="241"/>
+      <c r="AC39" s="241"/>
+      <c r="AD39" s="241"/>
+      <c r="AE39" s="241"/>
+      <c r="AF39" s="241"/>
+      <c r="AG39" s="241"/>
+      <c r="AH39" s="241"/>
+      <c r="AI39" s="241"/>
+      <c r="AJ39" s="241"/>
+      <c r="AK39" s="241"/>
+      <c r="AL39" s="241"/>
+      <c r="AM39" s="241"/>
       <c r="AN39" s="4" t="s">
         <v>51</v>
       </c>
@@ -8707,41 +8713,41 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="239" t="s">
+      <c r="G40" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="239"/>
-      <c r="I40" s="239"/>
-      <c r="J40" s="239"/>
-      <c r="K40" s="239"/>
-      <c r="L40" s="239"/>
-      <c r="M40" s="239"/>
-      <c r="N40" s="239"/>
-      <c r="O40" s="239"/>
-      <c r="P40" s="239"/>
-      <c r="Q40" s="239"/>
-      <c r="R40" s="239"/>
-      <c r="S40" s="239"/>
-      <c r="T40" s="239"/>
-      <c r="U40" s="239"/>
-      <c r="V40" s="239"/>
-      <c r="W40" s="239"/>
-      <c r="X40" s="239"/>
-      <c r="Y40" s="239"/>
-      <c r="Z40" s="239"/>
-      <c r="AA40" s="239"/>
-      <c r="AB40" s="239"/>
-      <c r="AC40" s="239"/>
-      <c r="AD40" s="239"/>
-      <c r="AE40" s="239"/>
-      <c r="AF40" s="239"/>
-      <c r="AG40" s="239"/>
-      <c r="AH40" s="239"/>
-      <c r="AI40" s="239"/>
-      <c r="AJ40" s="239"/>
-      <c r="AK40" s="239"/>
-      <c r="AL40" s="239"/>
-      <c r="AM40" s="239"/>
+      <c r="H40" s="240"/>
+      <c r="I40" s="240"/>
+      <c r="J40" s="240"/>
+      <c r="K40" s="240"/>
+      <c r="L40" s="240"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="240"/>
+      <c r="O40" s="240"/>
+      <c r="P40" s="240"/>
+      <c r="Q40" s="240"/>
+      <c r="R40" s="240"/>
+      <c r="S40" s="240"/>
+      <c r="T40" s="240"/>
+      <c r="U40" s="240"/>
+      <c r="V40" s="240"/>
+      <c r="W40" s="240"/>
+      <c r="X40" s="240"/>
+      <c r="Y40" s="240"/>
+      <c r="Z40" s="240"/>
+      <c r="AA40" s="240"/>
+      <c r="AB40" s="240"/>
+      <c r="AC40" s="240"/>
+      <c r="AD40" s="240"/>
+      <c r="AE40" s="240"/>
+      <c r="AF40" s="240"/>
+      <c r="AG40" s="240"/>
+      <c r="AH40" s="240"/>
+      <c r="AI40" s="240"/>
+      <c r="AJ40" s="240"/>
+      <c r="AK40" s="240"/>
+      <c r="AL40" s="240"/>
+      <c r="AM40" s="240"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
@@ -8790,37 +8796,37 @@
       <c r="Z41" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AA41" s="240"/>
-      <c r="AB41" s="240"/>
-      <c r="AC41" s="240"/>
-      <c r="AD41" s="240"/>
-      <c r="AE41" s="240"/>
-      <c r="AF41" s="240"/>
-      <c r="AG41" s="240"/>
-      <c r="AH41" s="240"/>
-      <c r="AI41" s="240"/>
-      <c r="AJ41" s="240"/>
-      <c r="AK41" s="240"/>
-      <c r="AL41" s="240"/>
-      <c r="AM41" s="240"/>
-      <c r="AN41" s="240"/>
-      <c r="AO41" s="240"/>
-      <c r="AP41" s="240"/>
+      <c r="AA41" s="241"/>
+      <c r="AB41" s="241"/>
+      <c r="AC41" s="241"/>
+      <c r="AD41" s="241"/>
+      <c r="AE41" s="241"/>
+      <c r="AF41" s="241"/>
+      <c r="AG41" s="241"/>
+      <c r="AH41" s="241"/>
+      <c r="AI41" s="241"/>
+      <c r="AJ41" s="241"/>
+      <c r="AK41" s="241"/>
+      <c r="AL41" s="241"/>
+      <c r="AM41" s="241"/>
+      <c r="AN41" s="241"/>
+      <c r="AO41" s="241"/>
+      <c r="AP41" s="241"/>
       <c r="AQ41" s="4"/>
-      <c r="AR41" s="246"/>
-      <c r="AS41" s="247"/>
-      <c r="AT41" s="247"/>
-      <c r="AU41" s="247"/>
-      <c r="AV41" s="247"/>
-      <c r="AW41" s="247"/>
-      <c r="AX41" s="247"/>
-      <c r="AY41" s="247"/>
-      <c r="AZ41" s="247"/>
-      <c r="BA41" s="247"/>
-      <c r="BB41" s="247"/>
-      <c r="BC41" s="247"/>
-      <c r="BD41" s="247"/>
-      <c r="BE41" s="248"/>
+      <c r="AR41" s="247"/>
+      <c r="AS41" s="248"/>
+      <c r="AT41" s="248"/>
+      <c r="AU41" s="248"/>
+      <c r="AV41" s="248"/>
+      <c r="AW41" s="248"/>
+      <c r="AX41" s="248"/>
+      <c r="AY41" s="248"/>
+      <c r="AZ41" s="248"/>
+      <c r="BA41" s="248"/>
+      <c r="BB41" s="248"/>
+      <c r="BC41" s="248"/>
+      <c r="BD41" s="248"/>
+      <c r="BE41" s="249"/>
       <c r="BF41" s="4"/>
     </row>
     <row r="42" spans="2:58" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8849,39 +8855,39 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="7"/>
-      <c r="AA42" s="239" t="s">
+      <c r="AA42" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="AB42" s="239"/>
-      <c r="AC42" s="239"/>
-      <c r="AD42" s="239"/>
-      <c r="AE42" s="239"/>
-      <c r="AF42" s="239"/>
-      <c r="AG42" s="239"/>
-      <c r="AH42" s="239"/>
-      <c r="AI42" s="239"/>
-      <c r="AJ42" s="239"/>
-      <c r="AK42" s="239"/>
-      <c r="AL42" s="239"/>
-      <c r="AM42" s="239"/>
-      <c r="AN42" s="239"/>
-      <c r="AO42" s="239"/>
-      <c r="AP42" s="239"/>
+      <c r="AB42" s="240"/>
+      <c r="AC42" s="240"/>
+      <c r="AD42" s="240"/>
+      <c r="AE42" s="240"/>
+      <c r="AF42" s="240"/>
+      <c r="AG42" s="240"/>
+      <c r="AH42" s="240"/>
+      <c r="AI42" s="240"/>
+      <c r="AJ42" s="240"/>
+      <c r="AK42" s="240"/>
+      <c r="AL42" s="240"/>
+      <c r="AM42" s="240"/>
+      <c r="AN42" s="240"/>
+      <c r="AO42" s="240"/>
+      <c r="AP42" s="240"/>
       <c r="AQ42" s="4"/>
-      <c r="AR42" s="249"/>
-      <c r="AS42" s="250"/>
-      <c r="AT42" s="250"/>
-      <c r="AU42" s="250"/>
-      <c r="AV42" s="250"/>
-      <c r="AW42" s="250"/>
-      <c r="AX42" s="250"/>
-      <c r="AY42" s="250"/>
-      <c r="AZ42" s="250"/>
-      <c r="BA42" s="250"/>
-      <c r="BB42" s="250"/>
-      <c r="BC42" s="250"/>
-      <c r="BD42" s="250"/>
-      <c r="BE42" s="251"/>
+      <c r="AR42" s="250"/>
+      <c r="AS42" s="251"/>
+      <c r="AT42" s="251"/>
+      <c r="AU42" s="251"/>
+      <c r="AV42" s="251"/>
+      <c r="AW42" s="251"/>
+      <c r="AX42" s="251"/>
+      <c r="AY42" s="251"/>
+      <c r="AZ42" s="251"/>
+      <c r="BA42" s="251"/>
+      <c r="BB42" s="251"/>
+      <c r="BC42" s="251"/>
+      <c r="BD42" s="251"/>
+      <c r="BE42" s="252"/>
       <c r="BF42" s="4"/>
     </row>
     <row r="43" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8892,17 +8898,17 @@
       <c r="F43" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="240"/>
-      <c r="I43" s="240"/>
-      <c r="J43" s="240"/>
-      <c r="K43" s="240"/>
-      <c r="L43" s="240"/>
-      <c r="M43" s="240"/>
-      <c r="N43" s="240"/>
-      <c r="O43" s="240"/>
-      <c r="P43" s="240"/>
-      <c r="Q43" s="240"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="241"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="241"/>
+      <c r="N43" s="241"/>
+      <c r="O43" s="241"/>
+      <c r="P43" s="241"/>
+      <c r="Q43" s="241"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
@@ -8914,37 +8920,37 @@
       <c r="Z43" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AA43" s="240"/>
-      <c r="AB43" s="240"/>
-      <c r="AC43" s="240"/>
-      <c r="AD43" s="240"/>
-      <c r="AE43" s="240"/>
-      <c r="AF43" s="240"/>
-      <c r="AG43" s="240"/>
-      <c r="AH43" s="240"/>
-      <c r="AI43" s="240"/>
-      <c r="AJ43" s="240"/>
-      <c r="AK43" s="240"/>
-      <c r="AL43" s="240"/>
-      <c r="AM43" s="240"/>
-      <c r="AN43" s="240"/>
-      <c r="AO43" s="240"/>
-      <c r="AP43" s="240"/>
+      <c r="AA43" s="241"/>
+      <c r="AB43" s="241"/>
+      <c r="AC43" s="241"/>
+      <c r="AD43" s="241"/>
+      <c r="AE43" s="241"/>
+      <c r="AF43" s="241"/>
+      <c r="AG43" s="241"/>
+      <c r="AH43" s="241"/>
+      <c r="AI43" s="241"/>
+      <c r="AJ43" s="241"/>
+      <c r="AK43" s="241"/>
+      <c r="AL43" s="241"/>
+      <c r="AM43" s="241"/>
+      <c r="AN43" s="241"/>
+      <c r="AO43" s="241"/>
+      <c r="AP43" s="241"/>
       <c r="AQ43" s="4"/>
-      <c r="AR43" s="252"/>
-      <c r="AS43" s="253"/>
-      <c r="AT43" s="253"/>
-      <c r="AU43" s="253"/>
-      <c r="AV43" s="253"/>
-      <c r="AW43" s="253"/>
-      <c r="AX43" s="253"/>
-      <c r="AY43" s="253"/>
-      <c r="AZ43" s="253"/>
-      <c r="BA43" s="253"/>
-      <c r="BB43" s="253"/>
-      <c r="BC43" s="253"/>
-      <c r="BD43" s="253"/>
-      <c r="BE43" s="254"/>
+      <c r="AR43" s="253"/>
+      <c r="AS43" s="254"/>
+      <c r="AT43" s="254"/>
+      <c r="AU43" s="254"/>
+      <c r="AV43" s="254"/>
+      <c r="AW43" s="254"/>
+      <c r="AX43" s="254"/>
+      <c r="AY43" s="254"/>
+      <c r="AZ43" s="254"/>
+      <c r="BA43" s="254"/>
+      <c r="BB43" s="254"/>
+      <c r="BC43" s="254"/>
+      <c r="BD43" s="254"/>
+      <c r="BE43" s="255"/>
       <c r="BF43" s="4"/>
     </row>
     <row r="44" spans="2:58" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8953,19 +8959,19 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="239" t="s">
+      <c r="G44" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="239"/>
-      <c r="N44" s="239"/>
-      <c r="O44" s="239"/>
-      <c r="P44" s="239"/>
-      <c r="Q44" s="239"/>
+      <c r="H44" s="240"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="240"/>
+      <c r="L44" s="240"/>
+      <c r="M44" s="240"/>
+      <c r="N44" s="240"/>
+      <c r="O44" s="240"/>
+      <c r="P44" s="240"/>
+      <c r="Q44" s="240"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
@@ -8975,39 +8981,39 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
-      <c r="AA44" s="239" t="s">
+      <c r="AA44" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="AB44" s="239"/>
-      <c r="AC44" s="239"/>
-      <c r="AD44" s="239"/>
-      <c r="AE44" s="239"/>
-      <c r="AF44" s="239"/>
-      <c r="AG44" s="239"/>
-      <c r="AH44" s="239"/>
-      <c r="AI44" s="239"/>
-      <c r="AJ44" s="239"/>
-      <c r="AK44" s="239"/>
-      <c r="AL44" s="239"/>
-      <c r="AM44" s="239"/>
-      <c r="AN44" s="239"/>
-      <c r="AO44" s="239"/>
-      <c r="AP44" s="239"/>
+      <c r="AB44" s="240"/>
+      <c r="AC44" s="240"/>
+      <c r="AD44" s="240"/>
+      <c r="AE44" s="240"/>
+      <c r="AF44" s="240"/>
+      <c r="AG44" s="240"/>
+      <c r="AH44" s="240"/>
+      <c r="AI44" s="240"/>
+      <c r="AJ44" s="240"/>
+      <c r="AK44" s="240"/>
+      <c r="AL44" s="240"/>
+      <c r="AM44" s="240"/>
+      <c r="AN44" s="240"/>
+      <c r="AO44" s="240"/>
+      <c r="AP44" s="240"/>
       <c r="AQ44" s="4"/>
-      <c r="AR44" s="255"/>
-      <c r="AS44" s="256"/>
-      <c r="AT44" s="256"/>
-      <c r="AU44" s="256"/>
-      <c r="AV44" s="256"/>
-      <c r="AW44" s="256"/>
-      <c r="AX44" s="256"/>
-      <c r="AY44" s="256"/>
-      <c r="AZ44" s="256"/>
-      <c r="BA44" s="256"/>
-      <c r="BB44" s="256"/>
-      <c r="BC44" s="256"/>
-      <c r="BD44" s="256"/>
-      <c r="BE44" s="257"/>
+      <c r="AR44" s="256"/>
+      <c r="AS44" s="257"/>
+      <c r="AT44" s="257"/>
+      <c r="AU44" s="257"/>
+      <c r="AV44" s="257"/>
+      <c r="AW44" s="257"/>
+      <c r="AX44" s="257"/>
+      <c r="AY44" s="257"/>
+      <c r="AZ44" s="257"/>
+      <c r="BA44" s="257"/>
+      <c r="BB44" s="257"/>
+      <c r="BC44" s="257"/>
+      <c r="BD44" s="257"/>
+      <c r="BE44" s="258"/>
       <c r="BF44" s="4"/>
     </row>
     <row r="45" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9086,19 +9092,19 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="240"/>
-      <c r="Q46" s="240"/>
-      <c r="R46" s="240"/>
-      <c r="S46" s="240"/>
-      <c r="T46" s="240"/>
-      <c r="U46" s="240"/>
-      <c r="V46" s="240"/>
-      <c r="W46" s="240"/>
-      <c r="X46" s="240"/>
-      <c r="Y46" s="240"/>
-      <c r="Z46" s="240"/>
-      <c r="AA46" s="240"/>
-      <c r="AB46" s="240"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="241"/>
+      <c r="R46" s="241"/>
+      <c r="S46" s="241"/>
+      <c r="T46" s="241"/>
+      <c r="U46" s="241"/>
+      <c r="V46" s="241"/>
+      <c r="W46" s="241"/>
+      <c r="X46" s="241"/>
+      <c r="Y46" s="241"/>
+      <c r="Z46" s="241"/>
+      <c r="AA46" s="241"/>
+      <c r="AB46" s="241"/>
       <c r="AC46" s="4" t="s">
         <v>50</v>
       </c>
@@ -9113,27 +9119,27 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="240"/>
-      <c r="AN46" s="240"/>
-      <c r="AO46" s="240"/>
-      <c r="AP46" s="240"/>
-      <c r="AQ46" s="240"/>
-      <c r="AR46" s="240"/>
+      <c r="AM46" s="241"/>
+      <c r="AN46" s="241"/>
+      <c r="AO46" s="241"/>
+      <c r="AP46" s="241"/>
+      <c r="AQ46" s="241"/>
+      <c r="AR46" s="241"/>
       <c r="AS46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT46" s="240"/>
-      <c r="AU46" s="240"/>
-      <c r="AV46" s="240"/>
-      <c r="AW46" s="240"/>
-      <c r="AX46" s="240"/>
-      <c r="AY46" s="240"/>
-      <c r="AZ46" s="240"/>
-      <c r="BA46" s="240"/>
-      <c r="BB46" s="240"/>
-      <c r="BC46" s="240"/>
-      <c r="BD46" s="240"/>
-      <c r="BE46" s="240"/>
+      <c r="AT46" s="241"/>
+      <c r="AU46" s="241"/>
+      <c r="AV46" s="241"/>
+      <c r="AW46" s="241"/>
+      <c r="AX46" s="241"/>
+      <c r="AY46" s="241"/>
+      <c r="AZ46" s="241"/>
+      <c r="BA46" s="241"/>
+      <c r="BB46" s="241"/>
+      <c r="BC46" s="241"/>
+      <c r="BD46" s="241"/>
+      <c r="BE46" s="241"/>
       <c r="BF46" s="4"/>
     </row>
     <row r="47" spans="2:58" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9154,18 +9160,18 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="237" t="s">
+      <c r="S47" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="T47" s="237"/>
-      <c r="U47" s="237"/>
-      <c r="V47" s="237"/>
-      <c r="W47" s="237"/>
-      <c r="X47" s="237"/>
-      <c r="Y47" s="237"/>
-      <c r="Z47" s="237"/>
-      <c r="AA47" s="237"/>
-      <c r="AB47" s="237"/>
+      <c r="T47" s="238"/>
+      <c r="U47" s="238"/>
+      <c r="V47" s="238"/>
+      <c r="W47" s="238"/>
+      <c r="X47" s="238"/>
+      <c r="Y47" s="238"/>
+      <c r="Z47" s="238"/>
+      <c r="AA47" s="238"/>
+      <c r="AB47" s="238"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="5"/>
@@ -9175,91 +9181,91 @@
       </c>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
-      <c r="AJ47" s="240"/>
-      <c r="AK47" s="240"/>
-      <c r="AL47" s="240"/>
-      <c r="AM47" s="240"/>
-      <c r="AN47" s="240"/>
-      <c r="AO47" s="240"/>
-      <c r="AP47" s="240"/>
-      <c r="AQ47" s="240"/>
-      <c r="AR47" s="240"/>
-      <c r="AS47" s="240"/>
-      <c r="AT47" s="240"/>
-      <c r="AU47" s="240"/>
-      <c r="AV47" s="240"/>
-      <c r="AW47" s="240"/>
-      <c r="AX47" s="240"/>
-      <c r="AY47" s="240"/>
-      <c r="AZ47" s="240"/>
-      <c r="BA47" s="240"/>
-      <c r="BB47" s="240"/>
-      <c r="BC47" s="240"/>
-      <c r="BD47" s="240"/>
-      <c r="BE47" s="240"/>
+      <c r="AJ47" s="241"/>
+      <c r="AK47" s="241"/>
+      <c r="AL47" s="241"/>
+      <c r="AM47" s="241"/>
+      <c r="AN47" s="241"/>
+      <c r="AO47" s="241"/>
+      <c r="AP47" s="241"/>
+      <c r="AQ47" s="241"/>
+      <c r="AR47" s="241"/>
+      <c r="AS47" s="241"/>
+      <c r="AT47" s="241"/>
+      <c r="AU47" s="241"/>
+      <c r="AV47" s="241"/>
+      <c r="AW47" s="241"/>
+      <c r="AX47" s="241"/>
+      <c r="AY47" s="241"/>
+      <c r="AZ47" s="241"/>
+      <c r="BA47" s="241"/>
+      <c r="BB47" s="241"/>
+      <c r="BC47" s="241"/>
+      <c r="BD47" s="241"/>
+      <c r="BE47" s="241"/>
       <c r="BF47" s="4"/>
     </row>
     <row r="48" spans="2:58" x14ac:dyDescent="0.15">
-      <c r="B48" s="244" t="s">
+      <c r="B48" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="244"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="244"/>
-      <c r="J48" s="244"/>
-      <c r="K48" s="245"/>
-      <c r="L48" s="245"/>
-      <c r="M48" s="245"/>
-      <c r="N48" s="245"/>
-      <c r="O48" s="245"/>
-      <c r="P48" s="245"/>
-      <c r="Q48" s="245"/>
-      <c r="R48" s="245"/>
-      <c r="S48" s="245"/>
-      <c r="T48" s="245"/>
-      <c r="U48" s="245"/>
-      <c r="V48" s="245"/>
-      <c r="W48" s="245"/>
-      <c r="X48" s="245"/>
-      <c r="Y48" s="245"/>
-      <c r="Z48" s="245"/>
-      <c r="AA48" s="245"/>
-      <c r="AB48" s="245"/>
-      <c r="AC48" s="245"/>
-      <c r="AD48" s="245"/>
-      <c r="AE48" s="245"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="245"/>
+      <c r="E48" s="245"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="245"/>
+      <c r="H48" s="245"/>
+      <c r="I48" s="245"/>
+      <c r="J48" s="245"/>
+      <c r="K48" s="246"/>
+      <c r="L48" s="246"/>
+      <c r="M48" s="246"/>
+      <c r="N48" s="246"/>
+      <c r="O48" s="246"/>
+      <c r="P48" s="246"/>
+      <c r="Q48" s="246"/>
+      <c r="R48" s="246"/>
+      <c r="S48" s="246"/>
+      <c r="T48" s="246"/>
+      <c r="U48" s="246"/>
+      <c r="V48" s="246"/>
+      <c r="W48" s="246"/>
+      <c r="X48" s="246"/>
+      <c r="Y48" s="246"/>
+      <c r="Z48" s="246"/>
+      <c r="AA48" s="246"/>
+      <c r="AB48" s="246"/>
+      <c r="AC48" s="246"/>
+      <c r="AD48" s="246"/>
+      <c r="AE48" s="246"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
-      <c r="AK48" s="237" t="s">
+      <c r="AK48" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="AL48" s="237"/>
-      <c r="AM48" s="237"/>
-      <c r="AN48" s="237"/>
-      <c r="AO48" s="237"/>
-      <c r="AP48" s="237"/>
-      <c r="AQ48" s="237"/>
-      <c r="AR48" s="237"/>
-      <c r="AS48" s="237"/>
-      <c r="AT48" s="237"/>
-      <c r="AU48" s="237"/>
-      <c r="AV48" s="237"/>
-      <c r="AW48" s="237"/>
-      <c r="AX48" s="237"/>
-      <c r="AY48" s="237"/>
-      <c r="AZ48" s="237"/>
-      <c r="BA48" s="237"/>
-      <c r="BB48" s="237"/>
-      <c r="BC48" s="237"/>
-      <c r="BD48" s="237"/>
-      <c r="BE48" s="237"/>
+      <c r="AL48" s="238"/>
+      <c r="AM48" s="238"/>
+      <c r="AN48" s="238"/>
+      <c r="AO48" s="238"/>
+      <c r="AP48" s="238"/>
+      <c r="AQ48" s="238"/>
+      <c r="AR48" s="238"/>
+      <c r="AS48" s="238"/>
+      <c r="AT48" s="238"/>
+      <c r="AU48" s="238"/>
+      <c r="AV48" s="238"/>
+      <c r="AW48" s="238"/>
+      <c r="AX48" s="238"/>
+      <c r="AY48" s="238"/>
+      <c r="AZ48" s="238"/>
+      <c r="BA48" s="238"/>
+      <c r="BB48" s="238"/>
+      <c r="BC48" s="238"/>
+      <c r="BD48" s="238"/>
+      <c r="BE48" s="238"/>
       <c r="BF48" s="4"/>
     </row>
     <row r="49" spans="2:58" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9273,113 +9279,113 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="237" t="s">
+      <c r="L49" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="M49" s="237"/>
-      <c r="N49" s="237"/>
-      <c r="O49" s="237"/>
-      <c r="P49" s="237"/>
-      <c r="Q49" s="237"/>
-      <c r="R49" s="237"/>
-      <c r="S49" s="237"/>
-      <c r="T49" s="237"/>
-      <c r="U49" s="237"/>
-      <c r="V49" s="237"/>
-      <c r="W49" s="237"/>
-      <c r="X49" s="237"/>
-      <c r="Y49" s="237"/>
-      <c r="Z49" s="237"/>
-      <c r="AA49" s="237"/>
-      <c r="AB49" s="237"/>
-      <c r="AC49" s="237"/>
-      <c r="AD49" s="237"/>
-      <c r="AE49" s="237"/>
+      <c r="M49" s="238"/>
+      <c r="N49" s="238"/>
+      <c r="O49" s="238"/>
+      <c r="P49" s="238"/>
+      <c r="Q49" s="238"/>
+      <c r="R49" s="238"/>
+      <c r="S49" s="238"/>
+      <c r="T49" s="238"/>
+      <c r="U49" s="238"/>
+      <c r="V49" s="238"/>
+      <c r="W49" s="238"/>
+      <c r="X49" s="238"/>
+      <c r="Y49" s="238"/>
+      <c r="Z49" s="238"/>
+      <c r="AA49" s="238"/>
+      <c r="AB49" s="238"/>
+      <c r="AC49" s="238"/>
+      <c r="AD49" s="238"/>
+      <c r="AE49" s="238"/>
       <c r="AF49" s="26"/>
       <c r="AG49" s="5"/>
-      <c r="AH49" s="240"/>
-      <c r="AI49" s="240"/>
-      <c r="AJ49" s="240"/>
-      <c r="AK49" s="240"/>
-      <c r="AL49" s="240"/>
-      <c r="AM49" s="240"/>
-      <c r="AN49" s="240"/>
-      <c r="AO49" s="240"/>
-      <c r="AP49" s="240"/>
-      <c r="AQ49" s="240"/>
-      <c r="AR49" s="240"/>
-      <c r="AS49" s="240"/>
-      <c r="AT49" s="240"/>
-      <c r="AU49" s="240"/>
-      <c r="AV49" s="240"/>
-      <c r="AW49" s="240"/>
-      <c r="AX49" s="240"/>
-      <c r="AY49" s="240"/>
-      <c r="AZ49" s="240"/>
-      <c r="BA49" s="240"/>
-      <c r="BB49" s="240"/>
-      <c r="BC49" s="240"/>
-      <c r="BD49" s="240"/>
-      <c r="BE49" s="240"/>
+      <c r="AH49" s="241"/>
+      <c r="AI49" s="241"/>
+      <c r="AJ49" s="241"/>
+      <c r="AK49" s="241"/>
+      <c r="AL49" s="241"/>
+      <c r="AM49" s="241"/>
+      <c r="AN49" s="241"/>
+      <c r="AO49" s="241"/>
+      <c r="AP49" s="241"/>
+      <c r="AQ49" s="241"/>
+      <c r="AR49" s="241"/>
+      <c r="AS49" s="241"/>
+      <c r="AT49" s="241"/>
+      <c r="AU49" s="241"/>
+      <c r="AV49" s="241"/>
+      <c r="AW49" s="241"/>
+      <c r="AX49" s="241"/>
+      <c r="AY49" s="241"/>
+      <c r="AZ49" s="241"/>
+      <c r="BA49" s="241"/>
+      <c r="BB49" s="241"/>
+      <c r="BC49" s="241"/>
+      <c r="BD49" s="241"/>
+      <c r="BE49" s="241"/>
       <c r="BF49" s="4"/>
     </row>
     <row r="50" spans="2:58" x14ac:dyDescent="0.15">
-      <c r="B50" s="245"/>
-      <c r="C50" s="245"/>
-      <c r="D50" s="245"/>
-      <c r="E50" s="245"/>
-      <c r="F50" s="245"/>
-      <c r="G50" s="245"/>
-      <c r="H50" s="245"/>
-      <c r="I50" s="245"/>
-      <c r="J50" s="245"/>
-      <c r="K50" s="245"/>
-      <c r="L50" s="245"/>
-      <c r="M50" s="245"/>
-      <c r="N50" s="245"/>
-      <c r="O50" s="245"/>
-      <c r="P50" s="245"/>
-      <c r="Q50" s="245"/>
-      <c r="R50" s="245"/>
-      <c r="S50" s="245"/>
-      <c r="T50" s="245"/>
-      <c r="U50" s="245"/>
-      <c r="V50" s="245"/>
-      <c r="W50" s="245"/>
-      <c r="X50" s="245"/>
-      <c r="Y50" s="245"/>
-      <c r="Z50" s="245"/>
-      <c r="AA50" s="245"/>
-      <c r="AB50" s="245"/>
-      <c r="AC50" s="245"/>
-      <c r="AD50" s="245"/>
-      <c r="AE50" s="245"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="246"/>
+      <c r="E50" s="246"/>
+      <c r="F50" s="246"/>
+      <c r="G50" s="246"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="246"/>
+      <c r="J50" s="246"/>
+      <c r="K50" s="246"/>
+      <c r="L50" s="246"/>
+      <c r="M50" s="246"/>
+      <c r="N50" s="246"/>
+      <c r="O50" s="246"/>
+      <c r="P50" s="246"/>
+      <c r="Q50" s="246"/>
+      <c r="R50" s="246"/>
+      <c r="S50" s="246"/>
+      <c r="T50" s="246"/>
+      <c r="U50" s="246"/>
+      <c r="V50" s="246"/>
+      <c r="W50" s="246"/>
+      <c r="X50" s="246"/>
+      <c r="Y50" s="246"/>
+      <c r="Z50" s="246"/>
+      <c r="AA50" s="246"/>
+      <c r="AB50" s="246"/>
+      <c r="AC50" s="246"/>
+      <c r="AD50" s="246"/>
+      <c r="AE50" s="246"/>
       <c r="AF50" s="26"/>
       <c r="AG50" s="5"/>
-      <c r="AH50" s="240"/>
-      <c r="AI50" s="240"/>
-      <c r="AJ50" s="240"/>
-      <c r="AK50" s="240"/>
-      <c r="AL50" s="240"/>
-      <c r="AM50" s="240"/>
-      <c r="AN50" s="240"/>
-      <c r="AO50" s="240"/>
-      <c r="AP50" s="240"/>
-      <c r="AQ50" s="240"/>
-      <c r="AR50" s="240"/>
-      <c r="AS50" s="240"/>
-      <c r="AT50" s="240"/>
-      <c r="AU50" s="240"/>
-      <c r="AV50" s="240"/>
-      <c r="AW50" s="240"/>
-      <c r="AX50" s="240"/>
-      <c r="AY50" s="240"/>
-      <c r="AZ50" s="240"/>
-      <c r="BA50" s="240"/>
-      <c r="BB50" s="240"/>
-      <c r="BC50" s="240"/>
-      <c r="BD50" s="240"/>
-      <c r="BE50" s="240"/>
+      <c r="AH50" s="241"/>
+      <c r="AI50" s="241"/>
+      <c r="AJ50" s="241"/>
+      <c r="AK50" s="241"/>
+      <c r="AL50" s="241"/>
+      <c r="AM50" s="241"/>
+      <c r="AN50" s="241"/>
+      <c r="AO50" s="241"/>
+      <c r="AP50" s="241"/>
+      <c r="AQ50" s="241"/>
+      <c r="AR50" s="241"/>
+      <c r="AS50" s="241"/>
+      <c r="AT50" s="241"/>
+      <c r="AU50" s="241"/>
+      <c r="AV50" s="241"/>
+      <c r="AW50" s="241"/>
+      <c r="AX50" s="241"/>
+      <c r="AY50" s="241"/>
+      <c r="AZ50" s="241"/>
+      <c r="BA50" s="241"/>
+      <c r="BB50" s="241"/>
+      <c r="BC50" s="241"/>
+      <c r="BD50" s="241"/>
+      <c r="BE50" s="241"/>
       <c r="BF50" s="4"/>
     </row>
     <row r="51" spans="2:58" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9391,30 +9397,30 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="243"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="243"/>
-      <c r="K51" s="243"/>
-      <c r="L51" s="243"/>
-      <c r="M51" s="243"/>
-      <c r="N51" s="243"/>
-      <c r="O51" s="243"/>
-      <c r="P51" s="243"/>
+      <c r="H51" s="244"/>
+      <c r="I51" s="244"/>
+      <c r="J51" s="244"/>
+      <c r="K51" s="244"/>
+      <c r="L51" s="244"/>
+      <c r="M51" s="244"/>
+      <c r="N51" s="244"/>
+      <c r="O51" s="244"/>
+      <c r="P51" s="244"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="240"/>
-      <c r="S51" s="240"/>
-      <c r="T51" s="240"/>
-      <c r="U51" s="240"/>
-      <c r="V51" s="240"/>
-      <c r="W51" s="240"/>
+      <c r="R51" s="241"/>
+      <c r="S51" s="241"/>
+      <c r="T51" s="241"/>
+      <c r="U51" s="241"/>
+      <c r="V51" s="241"/>
+      <c r="W51" s="241"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="240"/>
-      <c r="Z51" s="240"/>
-      <c r="AA51" s="240"/>
-      <c r="AB51" s="240"/>
-      <c r="AC51" s="240"/>
-      <c r="AD51" s="240"/>
-      <c r="AE51" s="240"/>
+      <c r="Y51" s="241"/>
+      <c r="Z51" s="241"/>
+      <c r="AA51" s="241"/>
+      <c r="AB51" s="241"/>
+      <c r="AC51" s="241"/>
+      <c r="AD51" s="241"/>
+      <c r="AE51" s="241"/>
       <c r="AF51" s="26"/>
       <c r="AG51" s="35" t="s">
         <v>68</v>
@@ -9422,27 +9428,27 @@
       <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
-      <c r="AK51" s="243"/>
-      <c r="AL51" s="243"/>
-      <c r="AM51" s="243"/>
-      <c r="AN51" s="243"/>
-      <c r="AO51" s="243"/>
-      <c r="AP51" s="243"/>
-      <c r="AQ51" s="243"/>
-      <c r="AR51" s="243"/>
+      <c r="AK51" s="244"/>
+      <c r="AL51" s="244"/>
+      <c r="AM51" s="244"/>
+      <c r="AN51" s="244"/>
+      <c r="AO51" s="244"/>
+      <c r="AP51" s="244"/>
+      <c r="AQ51" s="244"/>
+      <c r="AR51" s="244"/>
       <c r="AS51" s="4"/>
-      <c r="AT51" s="243"/>
-      <c r="AU51" s="243"/>
-      <c r="AV51" s="243"/>
-      <c r="AW51" s="243"/>
-      <c r="AX51" s="243"/>
+      <c r="AT51" s="244"/>
+      <c r="AU51" s="244"/>
+      <c r="AV51" s="244"/>
+      <c r="AW51" s="244"/>
+      <c r="AX51" s="244"/>
       <c r="AY51" s="4"/>
-      <c r="AZ51" s="243"/>
-      <c r="BA51" s="243"/>
-      <c r="BB51" s="243"/>
-      <c r="BC51" s="243"/>
-      <c r="BD51" s="243"/>
-      <c r="BE51" s="243"/>
+      <c r="AZ51" s="244"/>
+      <c r="BA51" s="244"/>
+      <c r="BB51" s="244"/>
+      <c r="BC51" s="244"/>
+      <c r="BD51" s="244"/>
+      <c r="BE51" s="244"/>
       <c r="BF51" s="4"/>
     </row>
     <row r="52" spans="2:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9453,67 +9459,67 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="237" t="s">
+      <c r="I52" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="237"/>
-      <c r="K52" s="237"/>
-      <c r="L52" s="237"/>
-      <c r="M52" s="237"/>
-      <c r="N52" s="237"/>
-      <c r="O52" s="237"/>
-      <c r="P52" s="237"/>
+      <c r="J52" s="238"/>
+      <c r="K52" s="238"/>
+      <c r="L52" s="238"/>
+      <c r="M52" s="238"/>
+      <c r="N52" s="238"/>
+      <c r="O52" s="238"/>
+      <c r="P52" s="238"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="239" t="s">
+      <c r="R52" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="S52" s="239"/>
-      <c r="T52" s="239"/>
-      <c r="U52" s="239"/>
-      <c r="V52" s="239"/>
-      <c r="W52" s="239"/>
+      <c r="S52" s="240"/>
+      <c r="T52" s="240"/>
+      <c r="U52" s="240"/>
+      <c r="V52" s="240"/>
+      <c r="W52" s="240"/>
       <c r="X52" s="4"/>
-      <c r="Y52" s="239" t="s">
+      <c r="Y52" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="Z52" s="239"/>
-      <c r="AA52" s="239"/>
-      <c r="AB52" s="239"/>
-      <c r="AC52" s="239"/>
-      <c r="AD52" s="239"/>
-      <c r="AE52" s="239"/>
+      <c r="Z52" s="240"/>
+      <c r="AA52" s="240"/>
+      <c r="AB52" s="240"/>
+      <c r="AC52" s="240"/>
+      <c r="AD52" s="240"/>
+      <c r="AE52" s="240"/>
       <c r="AF52" s="26"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
-      <c r="AL52" s="237" t="s">
+      <c r="AL52" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="AM52" s="237"/>
-      <c r="AN52" s="237"/>
-      <c r="AO52" s="237"/>
-      <c r="AP52" s="237"/>
-      <c r="AQ52" s="237"/>
-      <c r="AR52" s="237"/>
+      <c r="AM52" s="238"/>
+      <c r="AN52" s="238"/>
+      <c r="AO52" s="238"/>
+      <c r="AP52" s="238"/>
+      <c r="AQ52" s="238"/>
+      <c r="AR52" s="238"/>
       <c r="AS52" s="5"/>
-      <c r="AT52" s="237" t="s">
+      <c r="AT52" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="AU52" s="237"/>
-      <c r="AV52" s="237"/>
-      <c r="AW52" s="237"/>
-      <c r="AX52" s="237"/>
+      <c r="AU52" s="238"/>
+      <c r="AV52" s="238"/>
+      <c r="AW52" s="238"/>
+      <c r="AX52" s="238"/>
       <c r="AY52" s="5"/>
-      <c r="AZ52" s="237" t="s">
+      <c r="AZ52" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="BA52" s="237"/>
-      <c r="BB52" s="237"/>
-      <c r="BC52" s="237"/>
-      <c r="BD52" s="237"/>
-      <c r="BE52" s="237"/>
+      <c r="BA52" s="238"/>
+      <c r="BB52" s="238"/>
+      <c r="BC52" s="238"/>
+      <c r="BD52" s="238"/>
+      <c r="BE52" s="238"/>
       <c r="BF52" s="4"/>
     </row>
     <row r="53" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9535,48 +9541,48 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="240"/>
-      <c r="S53" s="240"/>
-      <c r="T53" s="240"/>
-      <c r="U53" s="240"/>
-      <c r="V53" s="240"/>
-      <c r="W53" s="240"/>
-      <c r="X53" s="241"/>
-      <c r="Y53" s="241"/>
-      <c r="Z53" s="241"/>
-      <c r="AA53" s="241"/>
-      <c r="AB53" s="241"/>
-      <c r="AC53" s="241"/>
-      <c r="AD53" s="241"/>
-      <c r="AE53" s="241"/>
-      <c r="AF53" s="242"/>
+      <c r="R53" s="241"/>
+      <c r="S53" s="241"/>
+      <c r="T53" s="241"/>
+      <c r="U53" s="241"/>
+      <c r="V53" s="241"/>
+      <c r="W53" s="241"/>
+      <c r="X53" s="242"/>
+      <c r="Y53" s="242"/>
+      <c r="Z53" s="242"/>
+      <c r="AA53" s="242"/>
+      <c r="AB53" s="242"/>
+      <c r="AC53" s="242"/>
+      <c r="AD53" s="242"/>
+      <c r="AE53" s="242"/>
+      <c r="AF53" s="243"/>
       <c r="AG53" s="35" t="s">
         <v>69</v>
       </c>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
-      <c r="AK53" s="240"/>
-      <c r="AL53" s="240"/>
-      <c r="AM53" s="240"/>
-      <c r="AN53" s="240"/>
-      <c r="AO53" s="240"/>
-      <c r="AP53" s="240"/>
-      <c r="AQ53" s="240"/>
-      <c r="AR53" s="240"/>
+      <c r="AK53" s="241"/>
+      <c r="AL53" s="241"/>
+      <c r="AM53" s="241"/>
+      <c r="AN53" s="241"/>
+      <c r="AO53" s="241"/>
+      <c r="AP53" s="241"/>
+      <c r="AQ53" s="241"/>
+      <c r="AR53" s="241"/>
       <c r="AS53" s="4"/>
-      <c r="AT53" s="240"/>
-      <c r="AU53" s="240"/>
-      <c r="AV53" s="240"/>
-      <c r="AW53" s="240"/>
-      <c r="AX53" s="240"/>
+      <c r="AT53" s="241"/>
+      <c r="AU53" s="241"/>
+      <c r="AV53" s="241"/>
+      <c r="AW53" s="241"/>
+      <c r="AX53" s="241"/>
       <c r="AY53" s="4"/>
-      <c r="AZ53" s="240"/>
-      <c r="BA53" s="240"/>
-      <c r="BB53" s="240"/>
-      <c r="BC53" s="240"/>
-      <c r="BD53" s="240"/>
-      <c r="BE53" s="240"/>
+      <c r="AZ53" s="241"/>
+      <c r="BA53" s="241"/>
+      <c r="BB53" s="241"/>
+      <c r="BC53" s="241"/>
+      <c r="BD53" s="241"/>
+      <c r="BE53" s="241"/>
       <c r="BF53" s="4"/>
     </row>
     <row r="54" spans="2:58" x14ac:dyDescent="0.15">
@@ -9596,24 +9602,24 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="237" t="s">
+      <c r="R54" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="S54" s="237"/>
-      <c r="T54" s="237"/>
-      <c r="U54" s="237"/>
-      <c r="V54" s="237"/>
-      <c r="W54" s="237"/>
+      <c r="S54" s="238"/>
+      <c r="T54" s="238"/>
+      <c r="U54" s="238"/>
+      <c r="V54" s="238"/>
+      <c r="W54" s="238"/>
       <c r="X54" s="4"/>
-      <c r="Y54" s="239" t="s">
+      <c r="Y54" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="Z54" s="239"/>
-      <c r="AA54" s="239"/>
-      <c r="AB54" s="239"/>
-      <c r="AC54" s="239"/>
-      <c r="AD54" s="239"/>
-      <c r="AE54" s="239"/>
+      <c r="Z54" s="240"/>
+      <c r="AA54" s="240"/>
+      <c r="AB54" s="240"/>
+      <c r="AC54" s="240"/>
+      <c r="AD54" s="240"/>
+      <c r="AE54" s="240"/>
       <c r="AF54" s="26"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="4"/>
@@ -9622,32 +9628,32 @@
       <c r="AK54" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AL54" s="237" t="s">
+      <c r="AL54" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="AM54" s="237"/>
-      <c r="AN54" s="237"/>
-      <c r="AO54" s="237"/>
-      <c r="AP54" s="237"/>
-      <c r="AQ54" s="237"/>
-      <c r="AR54" s="237"/>
+      <c r="AM54" s="238"/>
+      <c r="AN54" s="238"/>
+      <c r="AO54" s="238"/>
+      <c r="AP54" s="238"/>
+      <c r="AQ54" s="238"/>
+      <c r="AR54" s="238"/>
       <c r="AS54" s="4"/>
-      <c r="AT54" s="239" t="s">
+      <c r="AT54" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="AU54" s="239"/>
-      <c r="AV54" s="239"/>
-      <c r="AW54" s="239"/>
-      <c r="AX54" s="239"/>
+      <c r="AU54" s="240"/>
+      <c r="AV54" s="240"/>
+      <c r="AW54" s="240"/>
+      <c r="AX54" s="240"/>
       <c r="AY54" s="4"/>
-      <c r="AZ54" s="239" t="s">
+      <c r="AZ54" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="BA54" s="239"/>
-      <c r="BB54" s="239"/>
-      <c r="BC54" s="239"/>
-      <c r="BD54" s="239"/>
-      <c r="BE54" s="239"/>
+      <c r="BA54" s="240"/>
+      <c r="BB54" s="240"/>
+      <c r="BC54" s="240"/>
+      <c r="BD54" s="240"/>
+      <c r="BE54" s="240"/>
       <c r="BF54" s="4"/>
     </row>
     <row r="55" spans="2:58" x14ac:dyDescent="0.15">
@@ -9660,29 +9666,29 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="240"/>
-      <c r="J55" s="240"/>
-      <c r="K55" s="240"/>
-      <c r="L55" s="240"/>
-      <c r="M55" s="240"/>
-      <c r="N55" s="240"/>
-      <c r="O55" s="240"/>
-      <c r="P55" s="240"/>
+      <c r="I55" s="241"/>
+      <c r="J55" s="241"/>
+      <c r="K55" s="241"/>
+      <c r="L55" s="241"/>
+      <c r="M55" s="241"/>
+      <c r="N55" s="241"/>
+      <c r="O55" s="241"/>
+      <c r="P55" s="241"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="240"/>
-      <c r="S55" s="240"/>
-      <c r="T55" s="240"/>
-      <c r="U55" s="240"/>
-      <c r="V55" s="240"/>
-      <c r="W55" s="240"/>
+      <c r="R55" s="241"/>
+      <c r="S55" s="241"/>
+      <c r="T55" s="241"/>
+      <c r="U55" s="241"/>
+      <c r="V55" s="241"/>
+      <c r="W55" s="241"/>
       <c r="X55" s="4"/>
-      <c r="Y55" s="240"/>
-      <c r="Z55" s="240"/>
-      <c r="AA55" s="240"/>
-      <c r="AB55" s="240"/>
-      <c r="AC55" s="240"/>
-      <c r="AD55" s="240"/>
-      <c r="AE55" s="240"/>
+      <c r="Y55" s="241"/>
+      <c r="Z55" s="241"/>
+      <c r="AA55" s="241"/>
+      <c r="AB55" s="241"/>
+      <c r="AC55" s="241"/>
+      <c r="AD55" s="241"/>
+      <c r="AE55" s="241"/>
       <c r="AF55" s="26"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="4"/>
@@ -9720,34 +9726,34 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="237" t="s">
+      <c r="J56" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="K56" s="237"/>
-      <c r="L56" s="238"/>
-      <c r="M56" s="238"/>
-      <c r="N56" s="238"/>
-      <c r="O56" s="238"/>
-      <c r="P56" s="238"/>
+      <c r="K56" s="238"/>
+      <c r="L56" s="239"/>
+      <c r="M56" s="239"/>
+      <c r="N56" s="239"/>
+      <c r="O56" s="239"/>
+      <c r="P56" s="239"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="237" t="s">
+      <c r="R56" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="S56" s="237"/>
-      <c r="T56" s="237"/>
-      <c r="U56" s="237"/>
-      <c r="V56" s="237"/>
-      <c r="W56" s="237"/>
+      <c r="S56" s="238"/>
+      <c r="T56" s="238"/>
+      <c r="U56" s="238"/>
+      <c r="V56" s="238"/>
+      <c r="W56" s="238"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="239" t="s">
+      <c r="Y56" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="Z56" s="239"/>
-      <c r="AA56" s="239"/>
-      <c r="AB56" s="239"/>
-      <c r="AC56" s="239"/>
-      <c r="AD56" s="239"/>
-      <c r="AE56" s="239"/>
+      <c r="Z56" s="240"/>
+      <c r="AA56" s="240"/>
+      <c r="AB56" s="240"/>
+      <c r="AC56" s="240"/>
+      <c r="AD56" s="240"/>
+      <c r="AE56" s="240"/>
       <c r="AF56" s="26"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="4"/>
@@ -9845,14 +9851,14 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="240"/>
-      <c r="J58" s="240"/>
-      <c r="K58" s="240"/>
-      <c r="L58" s="240"/>
-      <c r="M58" s="240"/>
-      <c r="N58" s="240"/>
-      <c r="O58" s="240"/>
-      <c r="P58" s="240"/>
+      <c r="I58" s="241"/>
+      <c r="J58" s="241"/>
+      <c r="K58" s="241"/>
+      <c r="L58" s="241"/>
+      <c r="M58" s="241"/>
+      <c r="N58" s="241"/>
+      <c r="O58" s="241"/>
+      <c r="P58" s="241"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
@@ -9906,16 +9912,16 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="237" t="s">
+      <c r="I59" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="J59" s="237"/>
-      <c r="K59" s="237"/>
-      <c r="L59" s="237"/>
-      <c r="M59" s="237"/>
-      <c r="N59" s="237"/>
-      <c r="O59" s="237"/>
-      <c r="P59" s="237"/>
+      <c r="J59" s="238"/>
+      <c r="K59" s="238"/>
+      <c r="L59" s="238"/>
+      <c r="M59" s="238"/>
+      <c r="N59" s="238"/>
+      <c r="O59" s="238"/>
+      <c r="P59" s="238"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
